--- a/output/jobs.xlsx
+++ b/output/jobs.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J274"/>
+  <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,7 +880,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Končí za 15 hodin</t>
+          <t>Končí za 2 hodiny</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Končí za 15 hodin</t>
+          <t>Končí za 2 hodiny</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1980,7 +1980,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2560,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2665,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2775,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2905,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Datawarehouse SQL Developer/Analyst pro Risk management (Medior/Senior)</t>
+          <t>Data Engineer pro VML</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2910,17 +2915,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>Wunderman Thompson</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2940,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Data Engineer pro VML</t>
+          <t>Software Engineer, Clinical Data Management (R304682)</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2945,17 +2950,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Wunderman Thompson</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2980,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Software Engineer, Clinical Data Management (R304682)</t>
+          <t>Data Center Senior Engineer</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2980,17 +2990,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>Vodafone Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>26. srpna</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3015,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Data Center Senior Engineer</t>
+          <t>Datawarehouse SQL Developer/Analyst pro Risk management (Medior/Senior)</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -3015,7 +3025,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Vodafone Czech Republic a.s.</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3025,7 +3035,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>29. srpna</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3105,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Končí za 15 hodin</t>
+          <t>Končí za 2 hodiny</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3225,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Data analyst</t>
+          <t>Data analytik – Daně</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -3225,17 +3235,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ČSOB Pojišťovna, a. s., člen holdingu ČSOB</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Praha – Radlice + 1 další lokalita</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>Přidáno dnes</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3265,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Graduate AI Product Engineer – se služebním vozem</t>
+          <t>Data analyst</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -3260,17 +3275,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DHL Solutions k.s.</t>
+          <t>ČSOB Pojišťovna, a. s., člen holdingu ČSOB</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Hlavní město Praha + 1 další lokalita</t>
+          <t>Praha – Radlice + 1 další lokalita</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3300,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>⋙ Datový specialista - částečný home office ⋘</t>
+          <t>Graduate AI Product Engineer – se služebním vozem</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -3295,17 +3310,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>mBlue Czech, s.r.o.</t>
+          <t>DHL Solutions k.s.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Slaný</t>
+          <t>Hlavní město Praha + 1 další lokalita</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3335,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Databázový administrátor/ka  - MS SQL</t>
+          <t>⋙ Datový specialista - částečný home office ⋘</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -3330,17 +3345,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bezpečnostní informační služba</t>
+          <t>mBlue Czech, s.r.o.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Slaný</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3370,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Senior Data Developer</t>
+          <t>Databázový administrátor/ka  - MS SQL</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -3365,17 +3380,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Česká spořitelna, a.s.</t>
+          <t>Bezpečnostní informační služba</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>4. září</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3405,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BUSINESS INTELLIGENCE/DWH DEVELOPER</t>
+          <t>Senior Data Developer</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -3400,17 +3415,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Česká spořitelna, a.s.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Končí za 15 hodin</t>
+          <t>4. září</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3440,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Data Specialist</t>
+          <t>BUSINESS INTELLIGENCE/DWH DEVELOPER</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -3435,17 +3450,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MSF Shared IT Services, z.s.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>Končí za 2 hodiny</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3475,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Data &amp; Sales Assistant - 32 h/week</t>
+          <t>Data Specialist</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -3470,22 +3485,22 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hays Czech Republic, s.r.o.</t>
+          <t>MSF Shared IT Services, z.s.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>9. září</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>32 000 ‍–‍ 36 000 Kč</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3515,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BI Specialist</t>
+          <t>Data &amp; Sales Assistant - 32 h/week</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -3510,17 +3525,22 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CETIN a.s.</t>
+          <t>Hays Czech Republic, s.r.o.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>9. září</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>32 000 ‍–‍ 36 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3555,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>⭕ Business Data Support - Praha</t>
+          <t>BI Specialist</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -3545,22 +3565,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ProfesKontakt, s.r.o.</t>
+          <t>CETIN a.s.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>16. září</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>40 000 ‍–‍ 80 000 Kč</t>
+          <t>27. srpna</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3590,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HR Data expert</t>
+          <t>⭕ Business Data Support - Praha</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -3585,17 +3600,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Česká pošta, s.p.</t>
+          <t>ProfesKontakt, s.r.o.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Praha – Malešice</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>16. září</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>40 000 ‍–‍ 80 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3630,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sales &amp; Data Management Intern</t>
+          <t>HR Data expert</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -3620,22 +3640,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Tribe.xyz Czech s.r.o.</t>
+          <t>Česká pošta, s.p.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Malešice</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>17. září</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>8 000 ‍–‍ 10 000 Kč</t>
+          <t>16. září</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3665,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Data a CRM Manager</t>
+          <t>Sales &amp; Data Management Intern</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3660,27 +3675,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Bezvavlasy a.s.</t>
+          <t>Tribe.xyz Czech s.r.o.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>17. září</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>60 000 ‍–‍ 75 000 Kč</t>
+          <t>8 000 ‍–‍ 10 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3705,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Data a CRM Manager</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -3705,17 +3715,27 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MEDIA FACTORY GROUP Czech Republic a.s.</t>
+          <t>Bezvavlasy a.s.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Praha – Žižkov</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aktualizováno před 22 minutami</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>60 000 ‍–‍ 75 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3750,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ANALYTIK REPORTINGU</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -3740,17 +3760,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>MEDIA FACTORY GROUP Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Žižkov</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3785,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BI Analytik/Analytička pro skupinu Ambiente</t>
+          <t>ANALYTIK REPORTINGU</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3775,17 +3795,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>AMBI CZ, s.r.o.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Praha – Josefov</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3820,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Datový analytik pro Mapy.cz</t>
+          <t>BI Analytik/Analytička pro skupinu Ambiente</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -3810,17 +3830,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Seznam.cz, a.s.</t>
+          <t>AMBI CZ, s.r.o.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Josefov</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3855,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BUSINESS DATOVÝ ANALYTIK</t>
+          <t>Datový analytik pro Mapy.cz</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3845,17 +3865,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Seznam.cz, a.s.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>27. srpna</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3890,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Datový analytik - senior</t>
+          <t>BUSINESS DATOVÝ ANALYTIK</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3880,7 +3900,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LOGSENSE s.r.o.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3890,7 +3910,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aktualizováno před 9 minutami</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3925,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Datový analytik / analytička</t>
+          <t>Datový analytik - senior</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3915,22 +3935,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>LOGSENSE s.r.o.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3960,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Datový analytik CZ/SK</t>
+          <t>Datový analytik / analytička</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3955,17 +3970,22 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CEEOR spol. s r.o.</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3980,7 +4000,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CAD kreslení nábytku IMOS + příprava dat pro výrobu nábytku; HOME OFFICE</t>
+          <t>Datový analytik CZ/SK</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -3990,22 +4010,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Truhlárna, s.r.o.</t>
+          <t>CEEOR spol. s r.o.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>15. září</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 70 000 Kč</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4035,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Node.js Developer pražských dat (m/ž)</t>
+          <t>CAD kreslení nábytku IMOS + příprava dat pro výrobu nábytku; HOME OFFICE</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -4030,17 +4045,22 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Operátor ICT, a. s.</t>
+          <t>Truhlárna, s.r.o.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>15. září</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 70 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4075,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Internship datový analytik - Financial Accounting Advisory Services</t>
+          <t>Node.js Developer pražských dat (m/ž)</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -4065,17 +4085,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Operátor ICT, a. s.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>8. září</t>
+          <t>16. září</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4110,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Junior datový analytik - Financial Accounting Advisory Services</t>
+          <t>Internship datový analytik - Financial Accounting Advisory Services</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -4111,11 +4131,6 @@
       <c r="H101" t="inlineStr">
         <is>
           <t>8. září</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>46 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4145,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Datalake Platform Engineer</t>
+          <t>Junior datový analytik - Financial Accounting Advisory Services</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -4140,17 +4155,22 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1. září</t>
+          <t>8. září</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>46 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4185,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Datový analytik - modelář</t>
+          <t>Datalake Platform Engineer</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -4175,17 +4195,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Institut pro regulaci hazardních her z.s.</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>17. září</t>
+          <t>1. září</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4220,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SPECIALISTA/ANALYTIK REGULATORNÍHO REPORTINGU</t>
+          <t>Datový analytik - modelář</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -4210,17 +4230,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Institut pro regulaci hazardních her z.s.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>17. září</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4255,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Senior MS SQL Database Engineer - Innovate in Counterparty Risk</t>
+          <t>Datový analytik komerčního bankovnictví digital – Praha</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -4245,17 +4265,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
+          <t>MONETA Money Bank, a.s.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>26. srpna</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4290,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HVAC Business Intelligence Analyst</t>
+          <t>SPECIALISTA/ANALYTIK REGULATORNÍHO REPORTINGU</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -4280,17 +4300,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ČEZ, a. s.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4325,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Client BI Solutions Analyst</t>
+          <t>Senior MS SQL Database Engineer - Innovate in Counterparty Risk</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -4315,17 +4335,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>International SOS</t>
+          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4360,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Datový analytik/datová analytička v odboru Výkaznictví státu</t>
+          <t>HVAC Business Intelligence Analyst</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -4350,22 +4370,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ministerstvo financí</t>
+          <t>ČEZ, a. s.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Praha – Malá Strana</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>18. září</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>34 840 ‍–‍ 51 530 Kč</t>
+          <t>13. září</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4395,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Information Security Reporting Analyst</t>
+          <t>Client BI Solutions Analyst</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -4390,17 +4405,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
+          <t>International SOS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4430,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Datový analytik/čka – Modelář</t>
+          <t>Datový analytik/datová analytička v odboru Výkaznictví státu</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -4425,17 +4440,22 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ČEPS, a.s.</t>
+          <t>Ministerstvo financí</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Malá Strana</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>18. září</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>34 840 ‍–‍ 51 530 Kč</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4470,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>AI Product Consultant</t>
+          <t>Information Security Reporting Analyst</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -4460,17 +4480,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Profinit EU, s.r.o.</t>
+          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>25. srpna</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4505,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Konzultant SAP BW / POWER BI (M/Ž)</t>
+          <t>Datový analytik/čka – Modelář</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -4495,7 +4515,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Pražská plynárenská, a.s.</t>
+          <t>ČEPS, a.s.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4505,7 +4525,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>29. srpna</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4540,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Specialista datových analýz – Praha 9, Horní Počernice</t>
+          <t>AI Product Consultant</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -4530,17 +4550,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Axial Personnel Agency, s.r.o.</t>
+          <t>Profinit EU, s.r.o.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>okres Praha-východ</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>25. srpna</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4575,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SPECIALISTA REPORTINGU &amp; ANALÝZ</t>
+          <t>Konzultant SAP BW / POWER BI (M/Ž)</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -4565,17 +4585,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>BENU Česká republika s.r.o.</t>
+          <t>Pražská plynárenská, a.s.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Praha – Hostivař</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>26. srpna</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4610,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>(SENIOR) SPECIALISTA COREP REPORTINGU</t>
+          <t>Specialista datových analýz – Praha 9, Horní Počernice</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4600,12 +4620,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Axial Personnel Agency, s.r.o.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>okres Praha-východ</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4625,7 +4645,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Specialist(k)a regulatorního reportingu</t>
+          <t>SPECIALISTA REPORTINGU &amp; ANALÝZ</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4635,17 +4655,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>UNIQA</t>
+          <t>BENU Česká republika s.r.o.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Praha – Vokovice</t>
+          <t>Praha – Hostivař</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4680,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Specialista pro reporting, konsolidaci a datové analýzy</t>
+          <t>(SENIOR) SPECIALISTA COREP REPORTINGU</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4670,17 +4690,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Pražská energetika, a.s.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Praha – Vršovice</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4715,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Specialista reportingu a controllingu</t>
+          <t>Specialist(k)a regulatorního reportingu</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -4705,17 +4725,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ECOVIS FACTA a.s.</t>
+          <t>UNIQA</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Praha – Krč</t>
+          <t>Praha – Vokovice</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4750,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Financial Reporting Specialist with German</t>
+          <t>Specialista pro reporting, konsolidaci a datové analýzy</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4740,17 +4760,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Hays Czech Republic, s.r.o.</t>
+          <t>Pražská energetika, a.s.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Vršovice</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4785,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SPECIALISTA (ESG) REPORTINGU</t>
+          <t>Specialista reportingu a controllingu</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4775,17 +4795,22 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AGROFERT, a.s.</t>
+          <t>ECOVIS FACTA a.s.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Praha – Chodov</t>
+          <t>Praha – Krč</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4825,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Manažer/ka controllingu (finance, controlling, reporting)</t>
+          <t>Financial Reporting Specialist with German</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4810,17 +4835,17 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>TETA drogerie (Solvent ČR s.r.o.)</t>
+          <t>Hays Czech Republic, s.r.o.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>27. srpna</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4860,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DevOps Inženýr/ka pro datové sklady</t>
+          <t>SPECIALISTA (ESG) REPORTINGU</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4845,17 +4870,17 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MONETA Money Bank, a.s.</t>
+          <t>AGROFERT, a.s.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Chodov</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>27. srpna</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4895,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Elektroinženýr - Buďte součástí AI revoluce!</t>
+          <t>Manažer/ka controllingu (finance, controlling, reporting)</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4880,22 +4905,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Luxonis</t>
+          <t>TETA drogerie (Solvent ČR s.r.o.)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>15. září</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>90 000 ‍–‍ 120 000 Kč</t>
+          <t>26. srpna</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4930,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Business Intelligence Lead</t>
+          <t>DevOps Inženýr/ka pro datové sklady</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4920,17 +4940,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>MONETA Money Bank, a.s.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>26. srpna</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4965,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Senior Specialist, AI Engineering (R302759)</t>
+          <t>Elektroinženýr - Buďte součástí AI revoluce!</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4955,17 +4975,22 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>Luxonis</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>15. září</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>90 000 ‍–‍ 120 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4980,7 +5005,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Specialist, AI Engineering (R302756 )</t>
+          <t>Business Intelligence Lead</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -4990,7 +5015,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5000,7 +5025,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5040,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>IT Project Manager - Implementace / Power BI</t>
+          <t>Senior Specialist, AI Engineering (R302759)</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -5025,17 +5050,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Farkasova International s.r.o.</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5075,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Data Engineer / IT Konzultant  (high-tech data company)</t>
+          <t>Specialist, AI Engineering (R302756 )</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -5060,22 +5085,17 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CloverDX Labs s.r.o.</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Brno – Zábrdovice</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>18. září</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>60 000 ‍–‍ 120 000 Kč</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5110,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Data Scientist Junior</t>
+          <t>IT Project Manager - Implementace / Power BI</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -5100,22 +5120,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Home Credit a.s.</t>
+          <t>Farkasova International s.r.o.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Brno – Staré Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>27. srpna</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5145,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer / IT Konzultant  (high-tech data company)</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -5140,17 +5155,22 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Marmon Foodservice Manufacturing s.r.o.</t>
+          <t>CloverDX Labs s.r.o.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Brno – Tuřany</t>
+          <t>Brno – Zábrdovice</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>18. září</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>60 000 ‍–‍ 120 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5185,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sustainability Data Analyst / Data Architect</t>
+          <t>Data Scientist Junior</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -5175,17 +5195,22 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MANN+HUMMEL Service s.r.o. – Shared Service Centre</t>
+          <t>Home Credit a.s.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Brno – Staré Brno</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>4. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5200,7 +5225,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>BI Data Analyst</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -5210,17 +5235,17 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Notino s.r.o.</t>
+          <t>Marmon Foodservice Manufacturing s.r.o.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Brno – Štýřice</t>
+          <t>Brno – Tuřany</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>16. září</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5260,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Business Intelligence Data Engineer</t>
+          <t>Sustainability Data Analyst / Data Architect</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -5245,17 +5270,17 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>MANN+HUMMEL Service s.r.o. – Shared Service Centre</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>11. září</t>
+          <t>4. září</t>
         </is>
       </c>
     </row>
@@ -5270,7 +5295,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>BI Data Analyst</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -5280,22 +5305,17 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Gen Digital(Avast)</t>
+          <t>Notino s.r.o.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Brno – Trnitá + 1 další lokalita</t>
+          <t>Brno – Štýřice</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5330,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Datový analytik/Datová analytička v oboru bioinformatika</t>
+          <t>Business Intelligence Data Engineer</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -5320,17 +5340,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Masarykova univerzita</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Brno – Bohunice</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>11. září</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5365,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Online Data Analyst</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -5355,17 +5375,22 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>TELUS International AI</t>
+          <t>Gen Digital(Avast)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Brno – Brno-město</t>
+          <t>Brno – Trnitá + 1 další lokalita</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5405,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Datový analytik/Datová analytička v oboru bioinformatika</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -5390,17 +5415,17 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FABORY Czech s.r.o.</t>
+          <t>Masarykova univerzita</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Šlapanice</t>
+          <t>Brno – Bohunice</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5440,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Online Data Analyst</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -5425,17 +5450,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>TELUS International AI</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Brno – Brno-město</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5475,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Master Data Specialist - Standard Cost / Item Creations &amp; Maintenance</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -5460,17 +5485,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ingersoll Rand</t>
+          <t>FABORY Czech s.r.o.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Brno – Žabovřesky</t>
+          <t>Šlapanice</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5510,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Datový analytik (bonusy 2x ročně)</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -5500,12 +5525,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>26. srpna</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5545,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Analytik Business Intelligence / BI Analyst</t>
+          <t>Senior Sustainability Data Analyst</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -5530,22 +5555,22 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>AG FOODS Group a.s.</t>
+          <t>Atlas Copco Services s.r.o.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Velká Bíteš – Košíkov</t>
+          <t>Brno – Štýřice</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>18. září</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 65 000 Kč</t>
+          <t>Přidáno dnes</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5585,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>STÁŽ pro studenty - datové analytiky</t>
+          <t>Master Data Specialist - Standard Cost / Item Creations &amp; Maintenance</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -5570,17 +5595,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Úřad pro ochranu hospodářské soutěže</t>
+          <t>Ingersoll Rand</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Brno – Černá Pole</t>
+          <t>Brno – Žabovřesky</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>16. září</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5620,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Stážista v oddělení Business Excellence (Reporting &amp; Datová analýza)</t>
+          <t>Datový analytik (bonusy 2x ročně)</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -5605,7 +5630,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Angelini Pharma Česká republika s.r.o.</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5615,12 +5640,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>9. září</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>25 000 ‍–‍ 30 000 Kč</t>
+          <t>27. srpna</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5655,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Senior Data Engineer and Team Leader</t>
+          <t>Analytik Business Intelligence / BI Analyst</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5645,17 +5665,22 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>IDC Central Europe, the Middle East &amp; Africa</t>
+          <t>AG FOODS Group a.s.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Moravskoslezský kraj + 1 další lokalita</t>
+          <t>Velká Bíteš – Košíkov</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>18. září</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 65 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5695,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Senior BI Developer</t>
+          <t>STÁŽ pro studenty - datové analytiky</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5680,22 +5705,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>IDC Central Europe, the Middle East &amp; Africa</t>
+          <t>Úřad pro ochranu hospodářské soutěže</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Brno – Černá Pole</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5730,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Data Engineer (m/ž)</t>
+          <t>Stážista v oddělení Business Excellence (Reporting &amp; Datová analýza)</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5720,17 +5740,22 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>Angelini Pharma Česká republika s.r.o.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>9. září</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>25 000 ‍–‍ 30 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5770,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Datový analytik/BI analytik</t>
+          <t>Senior Data Engineer and Team Leader</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5755,17 +5780,17 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>BANDI VAMOS a.s.</t>
+          <t>IDC Central Europe, the Middle East &amp; Africa</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
+          <t>Moravskoslezský kraj + 1 další lokalita</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5805,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Data Analytics &amp; BI Specialist</t>
+          <t>Senior BI Developer</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5790,17 +5815,22 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>IDC Central Europe, the Middle East &amp; Africa</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5845,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>AI Researcher/developer</t>
+          <t>Data Engineer (m/ž)</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5825,17 +5855,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>VŠB - TUO, IT4Innovations národní superpočítačové centrum</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ostrava – Poruba</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -5850,7 +5880,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Business Intelligence Specialist - Power BI</t>
+          <t>Datový analytik/BI analytik</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5860,7 +5890,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>BANDI VAMOS a.s.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5870,7 +5900,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5915,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>IT Specialista pro EDI výměnu dat (m/ž)</t>
+          <t>Data Analytics &amp; BI Specialist</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -5895,17 +5925,17 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Geis CZ s.r.o.</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ejpovice</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5950,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HR Data Scientist</t>
+          <t>AI Researcher/developer</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5930,17 +5960,17 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Wacker-Chemie, s.r.o.</t>
+          <t>VŠB - TUO, IT4Innovations národní superpočítačové centrum</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Plzeň – Skvrňany</t>
+          <t>Ostrava – Poruba</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -5955,7 +5985,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Business Intelligence Specialist - Power BI</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5965,17 +5995,17 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Wacker-Chemie, s.r.o.</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Plzeň – Skvrňany</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -5990,7 +6020,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Data Specialist for Procurement</t>
+          <t>IT Specialista pro EDI výměnu dat (m/ž)</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -6000,32 +6030,32 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Wacker-Chemie, s.r.o.</t>
+          <t>Geis CZ s.r.o.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Plzeň – Skvrňany</t>
+          <t>Ejpovice</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>27. srpna</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>jobs.cz</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>HR Data Scientist</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -6035,37 +6065,37 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ROUVY</t>
+          <t>Wacker-Chemie, s.r.o.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Praha</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Full-time</t>
+          <t>Plzeň – Skvrňany</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Přidáno včera</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>NEW</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>jobs.cz</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Data Analyst 📈  - Junior/Medior</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -6075,42 +6105,32 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>eppTec</t>
+          <t>Wacker-Chemie, s.r.o.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Praha</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>HOT</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>40000 - 70000 CZK monthly</t>
+          <t>Plzeň – Skvrňany</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>18. září</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>jobs.cz</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>👉 Senior Data Scientist</t>
+          <t>Data Specialist for Procurement</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -6120,22 +6140,17 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Wacker-Chemie, s.r.o.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Praha</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>HOT</t>
+          <t>Plzeň – Skvrňany</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -6146,11 +6161,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Junior/Medior Tester in a Global AI/Music Tech Startup</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -6160,7 +6175,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Livesport</t>
+          <t>AIMS API</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6186,11 +6201,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sales Specialist – New Business Development (Datová analýza, BI a AI řešení)</t>
+          <t>Senior Back-End Developer (Golang) in a Global AI/Music Tech Startup</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -6200,7 +6215,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>BizzTreat</t>
+          <t>AIMS API</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6226,11 +6241,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Grafik s nadšením pro AI</t>
+          <t>Datový integrátor 📊</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -6240,12 +6255,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>YDEAL s.r.o.</t>
+          <t>Logio s.r.o.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha, Brno, Hradec Králové</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6266,11 +6281,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Lead Software Engineer, Bot Builder with AI, Prague</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -6280,7 +6295,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>NICE CXone (Brand Embassy)</t>
+          <t>ROUVY</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6296,11 +6311,6 @@
       <c r="I161" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>140000 - 160000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6311,11 +6321,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>🐍 Python Data Engineer</t>
+          <t>Data Analyst 📈  - Junior/Medior</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -6325,12 +6335,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>eppTec</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Praha 6</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6341,6 +6351,11 @@
       <c r="I162" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>40000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6351,11 +6366,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Yield Operations Specialist (Datový &amp; performance analytik)</t>
+          <t>👉 Senior Data Scientist</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -6365,7 +6380,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>R2B2 a.s.</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6391,11 +6406,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Machine Learning Data Annotator (Ideal for students/graduates) 🧑‍💻</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -6405,7 +6420,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Parrot</t>
+          <t>Livesport</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6415,17 +6430,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>28000 - 56000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6436,11 +6446,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Marketing Data Analyst</t>
+          <t>Sales Specialist – New Business Development (Datová analýza, BI a AI řešení)</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -6450,7 +6460,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Košík.cz</t>
+          <t>BizzTreat</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6466,11 +6476,6 @@
       <c r="I165" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>60000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6481,11 +6486,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>🚀 Data Engineer</t>
+          <t>Grafik s nadšením pro AI</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -6495,12 +6500,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Capital Markets Gateway (CMG)</t>
+          <t>YDEAL s.r.o.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6521,11 +6526,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Generative AI and ML Developer</t>
+          <t>Lead Software Engineer, Bot Builder with AI, Prague</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -6535,7 +6540,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Blindspot Solutions</t>
+          <t>NICE CXone (Brand Embassy)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6545,12 +6550,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>140000 - 160000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6561,11 +6571,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Data analyst (datový analytik / datová analytička) pro mladou značku nádobí na vaření</t>
+          <t>🐍 Python Data Engineer</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -6575,12 +6585,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Fabini</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 6</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6601,11 +6611,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Data Engineer 💻 Zázemí české společnosti, mezinárodní klienti, remote spolupráce 🤝</t>
+          <t>Yield Operations Specialist (Datový &amp; performance analytik)</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -6615,7 +6625,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>UD4D</t>
+          <t>R2B2 a.s.</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6641,11 +6651,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Backend vývojář/ka - buduj s námi nejlepší AI aplikaci na trhu</t>
+          <t>Machine Learning Data Annotator (Ideal for students/graduates) 🧑‍💻</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -6655,17 +6665,17 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FV STUDIO</t>
+          <t>Parrot</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -6675,7 +6685,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>70000 - 100000 CZK monthly</t>
+          <t>28000 - 56000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6686,11 +6696,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Datový vývojář / analytik [MED+]</t>
+          <t>Marketing Data Analyst</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -6700,7 +6710,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Exportio</t>
+          <t>Košík.cz</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6710,7 +6720,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -6720,7 +6730,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>50000 - 100000 CZK monthly</t>
+          <t>60000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6731,11 +6741,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>🚀 Data Engineer</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -6745,12 +6755,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>HX Hurtigruten Expeditions</t>
+          <t>Capital Markets Gateway (CMG)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6771,11 +6781,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Lead - Data &amp; Analytics</t>
+          <t>Generative AI and ML Developer</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -6785,7 +6795,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>HX Hurtigruten Expeditions</t>
+          <t>Blindspot Solutions</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6795,7 +6805,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -6811,11 +6821,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Data Engineer (Spark)</t>
+          <t>Data Engineer 💻 Zázemí české společnosti, mezinárodní klienti, remote spolupráce 🤝</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -6825,12 +6835,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>LOGEX Solution Center s.r.o.</t>
+          <t>UD4D</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6851,11 +6861,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Software Engineer in a Fast-Growing AI Startup</t>
+          <t>Backend vývojář/ka - buduj s námi nejlepší AI aplikaci na trhu</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6865,12 +6875,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Lightly</t>
+          <t>FV STUDIO</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6881,6 +6891,11 @@
       <c r="I175" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>70000 - 100000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6891,11 +6906,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Senior Data Analytik v publishing biznise</t>
+          <t>Datový vývojář / analytik [MED+]</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6905,22 +6920,27 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>News and Media Holding, a.s.</t>
+          <t>Exportio</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>3000 - 4000 EUR monthly</t>
+          <t>50000 - 100000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6931,11 +6951,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6945,7 +6965,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>BigHub s.r.o.</t>
+          <t>HX Hurtigruten Expeditions</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6958,9 +6978,9 @@
           <t>Full-time</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>60000 - 130000 CZK monthly</t>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -6971,11 +6991,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Lead - Data &amp; Analytics</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -6985,7 +7005,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CONFIRMO s.r.o</t>
+          <t>HX Hurtigruten Expeditions</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6995,7 +7015,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -7006,11 +7031,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Neural Voice Specialist, ML Engineer</t>
+          <t>Data Engineer (Spark)</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -7020,17 +7045,22 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>PromethistAI a.s.</t>
+          <t>LOGEX Solution Center s.r.o.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -7041,11 +7071,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Junior DevOps (Big Data)</t>
+          <t>Software Engineer in a Fast-Growing AI Startup</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -7055,7 +7085,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Adastra, s.r.o.</t>
+          <t>Lightly</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7066,6 +7096,11 @@
       <c r="G180" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -7076,11 +7111,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Medior Data Scientist</t>
+          <t>Senior Data Analytik v publishing biznise</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -7090,12 +7125,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>GymBeam</t>
+          <t>News and Media Holding, a.s.</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7105,7 +7140,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>50000 - 70000 CZK monthly</t>
+          <t>3000 - 4000 EUR monthly</t>
         </is>
       </c>
     </row>
@@ -7116,11 +7151,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>AI Engineer for Space projects 🚀</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -7130,7 +7165,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Huld s.r.o.</t>
+          <t>BigHub s.r.o.</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7140,7 +7175,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>60000 - 130000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7191,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -7165,7 +7205,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>HECON</t>
+          <t>CONFIRMO s.r.o</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7175,7 +7215,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7186,11 +7226,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Programátor a specialista na AI prompting</t>
+          <t>Neural Voice Specialist, ML Engineer</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -7200,22 +7240,17 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Apertia Tech s.r.o.</t>
+          <t>PromethistAI a.s.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Praha, Brno, České Budějovice, Ostrava, Zlín, Olomouc, Ústí nad Labem</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>30000 - 80000 CZK monthly</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7226,11 +7261,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>👉Technical Project Lead for data &amp; AI solutions - Prague</t>
+          <t>Junior DevOps (Big Data)</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -7240,7 +7275,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Adastra, s.r.o.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7261,11 +7296,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Node.js Developer pražských dat (m/ž)</t>
+          <t>Medior Data Scientist</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -7275,17 +7310,22 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Operátor ICT, a.s.</t>
+          <t>GymBeam</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>50000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7296,11 +7336,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Digital data marketing specialist</t>
+          <t>AI Engineer for Space projects 🚀</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -7310,7 +7350,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>denik.cz</t>
+          <t>Huld s.r.o.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7320,7 +7360,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7331,11 +7371,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -7345,7 +7385,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Slevomat.cz</t>
+          <t>HECON</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7366,11 +7406,11 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Programátor a specialista na AI prompting</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -7380,17 +7420,22 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>Apertia Tech s.r.o.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha, Brno, České Budějovice, Ostrava, Zlín, Olomouc, Ústí nad Labem</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>30000 - 80000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7401,11 +7446,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>👉Technical Project Lead for data &amp; AI solutions - Prague</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -7415,7 +7460,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7436,11 +7481,11 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>AI Specialist</t>
+          <t>Node.js Developer pražských dat (m/ž)</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -7450,7 +7495,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Twistcafe Group s.r.o.</t>
+          <t>Operátor ICT, a.s.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7471,11 +7516,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>🔬 DataOps specialist (Brno, Python)</t>
+          <t>Digital data marketing specialist</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -7485,12 +7530,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>denik.cz</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7506,11 +7551,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Analytics Engineer for Data Platform team at ShipMonk</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -7520,7 +7565,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ShipMonk</t>
+          <t>Slevomat.cz</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7541,11 +7586,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>🔬 Data Analyst Medior (Python, Brno)</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -7555,17 +7600,17 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7576,11 +7621,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>👉Technical Project Lead for data &amp; AI solutions - Brno</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -7590,12 +7635,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7611,11 +7656,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Data Scientist 🚀 (Turn raw data into usable metrics and develop new models)</t>
+          <t>AI Specialist</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -7625,7 +7670,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Similarweb</t>
+          <t>Twistcafe Group s.r.o.</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7636,11 +7681,6 @@
       <c r="G196" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>100000 - 150000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7651,11 +7691,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>💻 AI Inovátor</t>
+          <t>🔬 DataOps specialist (Brno, Python)</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -7665,22 +7705,17 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FakturaOnline.cz</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>300 - 800 CZK hourly</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7691,11 +7726,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Power BI consultant</t>
+          <t>Analytics Engineer for Data Platform team at ShipMonk</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -7705,7 +7740,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>DataBrothers</t>
+          <t>ShipMonk</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7726,11 +7761,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Data Scientist Senior 🚀</t>
+          <t>🔬 Data Analyst Medior (Python, Brno)</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -7740,22 +7775,17 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Ematiq a.s.</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>74000 - 124000 CZK monthly</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7766,11 +7796,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Konzultant pro automatizaci reportingu 🌎</t>
+          <t>👉Technical Project Lead for data &amp; AI solutions - Brno</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -7780,12 +7810,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Deepview</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7801,11 +7831,11 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Python Engineer (ML)</t>
+          <t>Data Scientist 🚀 (Turn raw data into usable metrics and develop new models)</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -7815,7 +7845,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Oddin.gg</t>
+          <t>Similarweb</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7826,6 +7856,11 @@
       <c r="G201" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>100000 - 150000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7836,11 +7871,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>🔧 IT HW technik pro datacentrum v Praze 10</t>
+          <t>💻 AI Inovátor</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -7850,17 +7885,22 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CDN77</t>
+          <t>FakturaOnline.cz</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Praha 10</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>300 - 800 CZK hourly</t>
         </is>
       </c>
     </row>
@@ -7871,11 +7911,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>🌍 Hledá se Deployment Engineer se znalostmi serverů a databází  🚒</t>
+          <t>Power BI consultant</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -7885,12 +7925,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>GINA Software s.r.o.</t>
+          <t>DataBrothers</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7906,11 +7946,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Scientist Senior 🚀</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -7920,7 +7960,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Resistant AI</t>
+          <t>Ematiq a.s.</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7930,22 +7970,27 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>74000 - 124000 CZK monthly</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Datový integrátor</t>
+          <t>Konzultant pro automatizaci reportingu 🌎</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -7955,37 +8000,32 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>LOGIO</t>
+          <t>Deepview</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Senior Data Platform Engineer</t>
+          <t>Python Engineer (ML)</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7995,12 +8035,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Oddin.gg</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8012,15 +8052,15 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Data Entry Specialist</t>
+          <t>🔧 IT HW technik pro datacentrum v Praze 10</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -8030,32 +8070,32 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Realpad</t>
+          <t>CDN77</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 10</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Administrátor/ka sběru dat | Marketingový výzkum</t>
+          <t>🌍 Hledá se Deployment Engineer se znalostmi serverů a databází  🚒</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -8065,12 +8105,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>GINA Software s.r.o.</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8086,11 +8126,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>E-commerce Data Analyst</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -8100,7 +8140,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Confirmo</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8111,6 +8151,11 @@
       <c r="G209" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Fresh</t>
         </is>
       </c>
     </row>
@@ -8121,11 +8166,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>Datový integrátor</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -8135,17 +8180,22 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>LOGIO</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8156,11 +8206,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Data Platform Engineer</t>
+          <t>Senior Data Platform Engineer</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -8191,11 +8241,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Data Entry Specialist</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -8205,7 +8255,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Slevomat</t>
+          <t>Realpad</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8215,7 +8265,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
     </row>
@@ -8226,11 +8276,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>DATA ENGINEER</t>
+          <t>Administrátor/ka sběru dat | Marketingový výzkum</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -8240,7 +8290,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Billigence</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8251,11 +8301,6 @@
       <c r="G213" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8266,11 +8311,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>💻 Datový analytik - junior - vhodné pro studenty/absolventy 🎓</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -8280,12 +8325,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>OPT OnDemand</t>
+          <t>Confirmo</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Praha 7</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8301,11 +8346,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Marketing Manager pro AI SaaS produkt</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -8315,12 +8360,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FEEDYOU</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8336,11 +8381,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Account Executive pro AI SaaS produkt</t>
+          <t>Data Platform Engineer</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -8350,12 +8395,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FEEDYOU</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8371,11 +8416,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Data Analyst / Analytics Engineer</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -8385,7 +8430,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>GAMEE</t>
+          <t>Slevomat</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8401,11 +8451,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Mentor*ka - Datová analýza</t>
+          <t>DATA ENGINEER</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -8415,17 +8465,17 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Billigence</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -8441,11 +8491,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Analytics Engineer for Data Platform team</t>
+          <t>💻 Datový analytik - junior - vhodné pro studenty/absolventy 🎓</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -8455,12 +8505,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ShipMonk Research &amp; Development</t>
+          <t>OPT OnDemand</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 7</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8476,11 +8526,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>BI Squad Technical Lead</t>
+          <t>Marketing Manager pro AI SaaS produkt</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -8490,12 +8540,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>FEEDYOU</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8511,11 +8561,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Data Engineers wanted Junior and Medior</t>
+          <t>Account Executive pro AI SaaS produkt</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -8525,12 +8575,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>FEEDYOU</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8546,11 +8596,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>Data Analyst / Analytics Engineer</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -8560,12 +8610,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Prague</t>
+          <t>GAMEE</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8581,11 +8626,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Datový analytik | Marketingový výzkum</t>
+          <t>Mentor*ka - Datová analýza</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -8595,17 +8640,22 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8616,11 +8666,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Data Scientist 🔬 Market Research</t>
+          <t>Analytics Engineer for Data Platform team</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -8630,7 +8680,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>ShipMonk Research &amp; Development</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8651,11 +8701,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Experienced Machine Learning Engineer</t>
+          <t>BI Squad Technical Lead</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -8665,12 +8715,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Salted CX</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8686,11 +8736,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Data Engineering Lead (tahoun DATA týmu)</t>
+          <t>Data Engineers wanted Junior and Medior</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -8700,12 +8750,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Etnetera Activate</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8721,11 +8771,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>BI Analytik / Konzultant</t>
+          <t>AI Engineer</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -8735,12 +8785,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CDC Data</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Dvůr Králové nad Labem</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8756,11 +8806,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Data Engineer with Azure for AI Squad</t>
+          <t>Datový analytik | Marketingový výzkum</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -8770,12 +8820,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8791,11 +8841,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Pomáhej tvořit kurzy datového inženýrství a datové vědy</t>
+          <t>Data Scientist 🔬 Market Research</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -8805,22 +8855,17 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -8831,11 +8876,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v AI</t>
+          <t>Experienced Machine Learning Engineer</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -8845,22 +8890,17 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Salted CX</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -8871,11 +8911,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v Pythonu pro data</t>
+          <t>Data Engineering Lead (tahoun DATA týmu)</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
@@ -8885,22 +8925,17 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Etnetera Activate</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -8911,11 +8946,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v oblasti dat</t>
+          <t>BI Analytik / Konzultant</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
@@ -8925,22 +8960,17 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>CDC Data</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Dvůr Králové nad Labem</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -8951,11 +8981,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Data Governance Consultant</t>
+          <t>Data Engineer with Azure for AI Squad</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
@@ -8965,22 +8995,17 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Billigence</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8991,11 +9016,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Datový Analytik - Brno</t>
+          <t>Pomáhej tvořit kurzy datového inženýrství a datové vědy</t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
@@ -9005,17 +9030,22 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Addvery</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -9026,11 +9056,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Full Stack BI Developer</t>
+          <t>Pomáhej vzdělávat ženy v AI</t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
@@ -9040,17 +9070,22 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -9061,11 +9096,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Ph.D. in Structured Graphical Models (ML for Public Health)</t>
+          <t>Pomáhej vzdělávat ženy v Pythonu pro data</t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
@@ -9075,17 +9110,22 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -9096,11 +9136,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Ph.D. in Mathematical Optimization and Control (Fairness in AI)</t>
+          <t>Pomáhej vzdělávat ženy v oblasti dat</t>
         </is>
       </c>
       <c r="D237" s="3" t="inlineStr">
@@ -9110,17 +9150,22 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -9131,11 +9176,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>TECHNIK DATOVÉHO CENTRA</t>
+          <t>Data Governance Consultant</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
@@ -9145,7 +9190,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TTC TELEPORT</t>
+          <t>Billigence</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -9156,6 +9201,11 @@
       <c r="G238" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -9166,11 +9216,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>DATA ENGINEER senior/medior</t>
+          <t>Datový Analytik - Brno</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
@@ -9180,12 +9230,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Joyful Craftsmen</t>
+          <t>Addvery</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9201,11 +9251,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>PhD z umělé inteligence</t>
+          <t>Full Stack BI Developer</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
@@ -9215,12 +9265,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9232,15 +9282,15 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Ph.D. in Structured Graphical Models (ML for Public Health)</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
@@ -9248,34 +9298,34 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
+        </is>
+      </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Praha 5-Smíchov</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Data Platform Engineer</t>
+          <t>Ph.D. in Mathematical Optimization and Control (Fairness in AI)</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
@@ -9283,6 +9333,11 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
+        </is>
+      </c>
       <c r="F242" t="inlineStr">
         <is>
           <t>Praha</t>
@@ -9290,27 +9345,22 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>09/10/2024</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>TECHNIK DATOVÉHO CENTRA</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
@@ -9318,34 +9368,34 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>TTC TELEPORT</t>
+        </is>
+      </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>09/03/2024</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>DATA ENGINEER senior/medior</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
@@ -9353,34 +9403,34 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Joyful Craftsmen</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Praha 5-Smíchov</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>08/28/2024</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Azure Data Engineer</t>
+          <t>PhD z umělé inteligence</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
@@ -9388,14 +9438,19 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>09/05/2024</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -9406,11 +9461,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>DataOps Engineer (Matillion)</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
@@ -9418,14 +9473,19 @@
           <t>link</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>Permanent</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>09/05/2024</t>
+          <t>09/03/2024</t>
         </is>
       </c>
     </row>
@@ -9436,11 +9496,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Angular Developer/ka pro tým Data Insight Advisory</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
@@ -9450,7 +9510,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha 5-Smíchov</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9460,7 +9520,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>08/29/2024</t>
+          <t>09/09/2024</t>
         </is>
       </c>
     </row>
@@ -9471,11 +9531,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Product Owner (Power BI platform)</t>
+          <t>Data Platform Engineer</t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
@@ -9485,7 +9545,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Praha 2-Nové Město</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9495,7 +9555,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
     </row>
@@ -9506,11 +9566,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Senior Data Engineer (DBT+SQL)</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D249" s="3" t="inlineStr">
@@ -9520,17 +9580,17 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha 5-Smíchov</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>07/15/2024</t>
+          <t>08/28/2024</t>
         </is>
       </c>
     </row>
@@ -9541,11 +9601,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
@@ -9553,11 +9613,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
       <c r="G250" t="inlineStr">
         <is>
           <t>Freelance</t>
@@ -9565,22 +9620,22 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>04/19/2024</t>
+          <t>09/05/2024</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Data Architect</t>
+          <t>DataOps Engineer (Matillion)</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
@@ -9588,39 +9643,29 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>ThreatMark</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Brno</t>
-        </is>
-      </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2024-09-16T14:14:05Z</t>
+          <t>09/05/2024</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Data Specialist</t>
+          <t>Angular Developer/ka pro tým Data Insight Advisory</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
@@ -9628,11 +9673,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>MSF Shared IT Services</t>
-        </is>
-      </c>
       <c r="F252" t="inlineStr">
         <is>
           <t>Prague</t>
@@ -9640,27 +9680,27 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2024-09-16T11:10:14Z</t>
+          <t>08/29/2024</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Sales Executive for NNIT Life Sciences Data Services</t>
+          <t>Product Owner (Power BI platform)</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
@@ -9668,39 +9708,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>NNIT Czech</t>
-        </is>
-      </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha 2-Nové Město</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2024-09-16T08:42:14Z</t>
+          <t>08/14/2024</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Data Catalog Administrator (f/m/d)</t>
+          <t>Senior Data Engineer (DBT+SQL)</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
@@ -9708,11 +9743,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Deutsche Börse Group Prague</t>
-        </is>
-      </c>
       <c r="F254" t="inlineStr">
         <is>
           <t>Prague</t>
@@ -9720,27 +9750,27 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2024-09-13T22:47:53Z</t>
+          <t>07/15/2024</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Data Engineer- Remote CZ</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
@@ -9748,24 +9778,19 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Quadient</t>
-        </is>
-      </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2024-09-11T00:42:55Z</t>
+          <t>04/19/2024</t>
         </is>
       </c>
     </row>
@@ -9776,11 +9801,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>BI Data Analyst</t>
+          <t>Data Architect</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
@@ -9790,7 +9815,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Notino</t>
+          <t>ThreatMark</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -9805,7 +9830,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2024-09-05T22:45:47Z</t>
+          <t>2024-09-16T14:14:05Z</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Boosted</t>
         </is>
       </c>
     </row>
@@ -9816,11 +9846,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Specialist</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
@@ -9830,7 +9860,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Publicis Groupe CZ</t>
+          <t>MSF Shared IT Services</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -9845,7 +9875,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2024-09-05T22:35:14Z</t>
+          <t>2024-09-16T11:10:14Z</t>
         </is>
       </c>
     </row>
@@ -9856,11 +9886,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Sales Executive for NNIT Life Sciences Data Services</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
@@ -9870,7 +9900,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Publicis Groupe CZ</t>
+          <t>NNIT Czech</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -9885,7 +9915,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2024-09-05T22:35:14Z</t>
+          <t>2024-09-16T08:42:14Z</t>
         </is>
       </c>
     </row>
@@ -9896,11 +9926,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Project Data Validator with Italian language</t>
+          <t>Data Catalog Administrator (f/m/d)</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
@@ -9910,7 +9940,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Ipsos</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9920,12 +9950,12 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>part_time</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2024-09-05T07:49:43Z</t>
+          <t>2024-09-13T22:47:53Z</t>
         </is>
       </c>
     </row>
@@ -9936,11 +9966,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>HR Data expert</t>
+          <t>Data Engineer- Remote CZ</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
@@ -9950,12 +9980,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Česká pošta</t>
+          <t>Quadient</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9965,7 +9995,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2024-08-30T00:36:02Z</t>
+          <t>2024-09-11T00:42:55Z</t>
         </is>
       </c>
     </row>
@@ -9976,11 +10006,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Data pro komunikaci - Firemní klienti - produktový designér</t>
+          <t>BI Data Analyst</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
@@ -9990,12 +10020,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Česká spořitelna</t>
+          <t>Notino</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -10005,7 +10035,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2024-08-29T00:18:58Z</t>
+          <t>2024-09-05T22:45:47Z</t>
         </is>
       </c>
     </row>
@@ -10016,11 +10046,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Data Scientist (m/ž)</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
@@ -10030,7 +10060,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Kooperativa</t>
+          <t>Publicis Groupe CZ</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -10045,7 +10075,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2024-08-28T01:12:57Z</t>
+          <t>2024-09-05T22:35:14Z</t>
         </is>
       </c>
     </row>
@@ -10056,11 +10086,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Software Developer - Risk Data Management Services (f/m/d)</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
@@ -10070,7 +10100,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Publicis Groupe CZ</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -10085,7 +10115,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2024-08-24T22:32:20Z</t>
+          <t>2024-09-05T22:35:14Z</t>
         </is>
       </c>
     </row>
@@ -10096,11 +10126,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Data Management and Governance Specialist (f/m/d)</t>
+          <t>Project Data Validator with Italian language</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
@@ -10110,7 +10140,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Ipsos</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -10120,12 +10150,12 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>part_time</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2024-08-23T22:35:36Z</t>
+          <t>2024-09-05T07:49:43Z</t>
         </is>
       </c>
     </row>
@@ -10136,11 +10166,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Data Scientist - Risk Design (f/m/d)</t>
+          <t>HR Data expert</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
@@ -10150,7 +10180,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Česká pošta</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -10165,7 +10195,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2024-08-16T22:27:13Z</t>
+          <t>2024-08-30T00:36:02Z</t>
         </is>
       </c>
     </row>
@@ -10176,11 +10206,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Datalake Platform Engineer</t>
+          <t>Data pro komunikaci - Firemní klienti - produktový designér</t>
         </is>
       </c>
       <c r="D266" s="3" t="inlineStr">
@@ -10190,7 +10220,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -10205,7 +10235,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2024-08-01T22:08:57Z</t>
+          <t>2024-08-29T00:18:58Z</t>
         </is>
       </c>
     </row>
@@ -10216,11 +10246,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Azure Data Engineer</t>
+          <t>Data Scientist (m/ž)</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
@@ -10230,7 +10260,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>Kooperativa</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -10245,7 +10275,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2024-07-31T22:09:04Z</t>
+          <t>2024-08-28T01:12:57Z</t>
         </is>
       </c>
     </row>
@@ -10256,11 +10286,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Data Scientist- Remote CZ</t>
+          <t>Software Developer - Risk Data Management Services (f/m/d)</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
@@ -10270,12 +10300,12 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Quadient</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10285,7 +10315,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2024-07-24T01:27:47Z</t>
+          <t>2024-08-24T22:32:20Z</t>
         </is>
       </c>
     </row>
@@ -10296,11 +10326,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Data Management and Governance Specialist (f/m/d)</t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
@@ -10310,7 +10340,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Livesport</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -10325,7 +10355,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2024-09-19T23:49:24Z</t>
+          <t>2024-08-23T22:35:36Z</t>
         </is>
       </c>
     </row>
@@ -10336,11 +10366,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Databázový specialista (m/ž)</t>
+          <t>Data Scientist - Risk Design (f/m/d)</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
@@ -10350,12 +10380,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Kooperativa</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -10365,7 +10395,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2024-08-23T01:30:32Z</t>
+          <t>2024-08-16T22:27:13Z</t>
         </is>
       </c>
     </row>
@@ -10376,11 +10406,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>AI Architect</t>
+          <t>Datalake Platform Engineer</t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
@@ -10390,7 +10420,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Česká spořitelna</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -10405,7 +10435,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2024-08-30T00:28:27Z</t>
+          <t>2024-08-01T22:08:57Z</t>
         </is>
       </c>
     </row>
@@ -10416,11 +10446,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>AI Specialista</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
@@ -10430,12 +10460,12 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Česká pošta</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Usti Nad Labem</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10445,7 +10475,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2024-09-20T00:47:58Z</t>
+          <t>2024-07-31T22:09:04Z</t>
         </is>
       </c>
     </row>
@@ -10456,11 +10486,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>BI ANALYST - ESIF</t>
+          <t>Data Scientist- Remote CZ</t>
         </is>
       </c>
       <c r="D273" s="3" t="inlineStr">
@@ -10470,12 +10500,12 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Raiffeisenbank</t>
+          <t>Quadient</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10485,7 +10515,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2024-09-19T01:19:13Z</t>
+          <t>2024-07-24T01:27:47Z</t>
         </is>
       </c>
     </row>
@@ -10496,34 +10526,234 @@
         </is>
       </c>
       <c r="B274" t="n">
+        <v>19</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Database Administrator</t>
+        </is>
+      </c>
+      <c r="D274" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Livesport</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2024-09-19T23:49:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>welcometothejungle.com</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>20</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Databázový specialista (m/ž)</t>
+        </is>
+      </c>
+      <c r="D275" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Kooperativa</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2024-08-23T01:30:32Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>welcometothejungle.com</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>21</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>AI Architect</t>
+        </is>
+      </c>
+      <c r="D276" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Česká spořitelna</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2024-08-30T00:28:27Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>welcometothejungle.com</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>22</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>AI Specialista</t>
+        </is>
+      </c>
+      <c r="D277" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Česká pošta</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Usti Nad Labem</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2024-09-20T00:47:58Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>welcometothejungle.com</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>23</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>BI ANALYST - ESIF</t>
+        </is>
+      </c>
+      <c r="D278" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Raiffeisenbank</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2024-09-19T01:19:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>welcometothejungle.com</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
         <v>24</v>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>Podpora auditů, informační bezpečnosti a ochrany dat - poloviční úvazek</t>
         </is>
       </c>
-      <c r="D274" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
+      <c r="D279" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
         <is>
           <t>MANN+HUMMEL Service (Shared Service Centre)</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
+      <c r="F279" t="inlineStr">
         <is>
           <t>Brno</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>full_time</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
+      <c r="H279" t="inlineStr">
         <is>
           <t>2024-09-17T12:20:27Z</t>
         </is>
@@ -10804,6 +11034,11 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D272" r:id="rId271"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D273" r:id="rId272"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D274" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D275" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D276" r:id="rId275"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D277" r:id="rId276"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D278" r:id="rId277"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D279" r:id="rId278"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/jobs.xlsx
+++ b/output/jobs.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J279"/>
+  <dimension ref="A1:J284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data Scientist for Dataclair AI Centre (m/f)</t>
+          <t>CAD kreslení nábytku IMOS + příprava dat pro výrobu nábytku; HOME OFFICE</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -540,12 +540,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O2 Czech Republic a.s.</t>
+          <t>Truhlárna, s.r.o.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -556,6 +556,11 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 70 000 Kč</t>
         </is>
       </c>
     </row>
@@ -570,7 +575,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Specialista HR dat a optimalizace procesů s přesahem do odměňování a benefitů</t>
+          <t>Data Scientist / ML Engineer  (Senior/Medior)</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -580,22 +585,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>mBank</t>
+          <t>Profinit EU, s.r.o.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>okres Hlavní město Praha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Příležitost dne</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>HOT</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Data Scientist / ML Engineer  (Senior/Medior)</t>
+          <t>Senior MLOps/Data Engineer v AI squadu</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -620,17 +620,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Profinit EU, s.r.o.</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>okres Hlavní město Praha</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>2. září</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Senior MLOps/Data Engineer v AI squadu</t>
+          <t>DATA ENGINEER/BI DEVELOPER</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -655,17 +655,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>PHOENIX lékárenský velkoobchod, s.r.o.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Hostivař</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DATA ENGINEER/BI DEVELOPER</t>
+          <t>DATA ENGINEER - objevuj s námi svět Big Data!</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -690,17 +690,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PHOENIX lékárenský velkoobchod, s.r.o.</t>
+          <t>ADASTRA, s.r.o.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Praha – Hostivař</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DATA ENGINEER - objevuj s námi svět Big Data!</t>
+          <t>Cloud Data Engineer - Chcete pracovat s Azure / AWS?</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cloud Data Engineer - Chcete pracovat s Azure / AWS?</t>
+          <t>Data Scientist and Process Mining Architect</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ADASTRA, s.r.o.</t>
+          <t>Processand s.r.o.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -770,7 +770,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 65 000 Kč</t>
         </is>
       </c>
     </row>
@@ -785,7 +795,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Data Scientist and Process Mining Architect</t>
+          <t>Data Engineer - Financial Crime team</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -795,22 +805,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Processand s.r.o.</t>
+          <t>PricewaterhouseCoopers Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17. září</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 65 000 Kč</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -825,7 +835,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Data Engineer - Financial Crime team</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -835,17 +845,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PricewaterhouseCoopers Česká republika, s.r.o.</t>
+          <t>TIPSPORT a.s.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Beroun – Beroun-Centrum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17. září</t>
+          <t>22. září</t>
         </is>
       </c>
     </row>
@@ -860,7 +870,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Senior Data Architect</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -870,17 +880,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TIPSPORT a.s.</t>
+          <t>DoDo Czech s.r.o.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Beroun – Beroun-Centrum</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>29. srpna</t>
         </is>
       </c>
     </row>
@@ -895,7 +905,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Senior Data Architect</t>
+          <t>Data Science and Engineering</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -905,12 +915,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DoDo Czech s.r.o.</t>
+          <t>R4U s.r.o.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -930,7 +940,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Data Science and Engineering</t>
+          <t>Student/ka nebo stážista v oblasti analýzy výrobních dat</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -940,17 +950,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R4U s.r.o.</t>
+          <t>AERO Vodochody AEROSPACE a.s.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Odolena Voda – Dolínek</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>13. září</t>
         </is>
       </c>
     </row>
@@ -965,7 +975,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Student/ka nebo stážista v oblasti analýzy výrobních dat</t>
+          <t>Data Scientist for Dataclair AI Centre (m/f)</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -975,17 +985,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AERO Vodochody AEROSPACE a.s.</t>
+          <t>O2 Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Odolena Voda – Dolínek</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1080,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Data Analyst pro E-commerce (JPO13636)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1080,17 +1090,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Alza.cz a.s.</t>
+          <t>PricewaterhouseCoopers Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1115,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Marketing Data Analyst</t>
+          <t>Data Analyst pro E-commerce (JPO13636)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1115,17 +1125,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Košík.cz s.r.o.</t>
+          <t>Alza.cz a.s.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Praha – Dejvice</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1150,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Junior / Medior Data Analyst pro Řízení rizik a tým prevence podvodů</t>
+          <t>Marketing Data Analyst</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -1150,17 +1160,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Partners Banka, a.s.</t>
+          <t>Košík.cz s.r.o.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Praha – Chodov</t>
+          <t>Praha – Dejvice</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1345,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1430,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Data Engineer (Data Engineering &amp; Analysis)</t>
+          <t>Senior DWH/Big Data Engineer/Developer</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1430,17 +1440,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>JetBrains s.r.o.</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Končí za 2 hodiny</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1470,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Senior Data Engineer and Team Leader</t>
+          <t>Data Engineer pro Daily Banking Tribe (m/ž)</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1465,17 +1480,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>IDC Central Europe, the Middle East &amp; Africa</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Praha + 1 další lokalita</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>Končí za hodinu</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1505,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Senior DWH/Big Data Engineer/Developer</t>
+          <t>Power BI Developer/Analyst</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1500,17 +1515,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>Unicorn</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1540,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DATA ENGINEER</t>
+          <t>DS/ML/AI Lead Engineer</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1535,7 +1550,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Manuvia a.s.</t>
+          <t>Profinit EU, s.r.o.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1545,12 +1560,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Končí za 2 hodiny</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>80 000 ‍–‍ 130 000 Kč</t>
+          <t>15. září</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1575,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Data Engineer pro Daily Banking Tribe (m/ž)</t>
+          <t>SW Engineer AI / ML – Senior (m/ž)</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1575,17 +1585,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>O2 Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1610,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DS/ML/AI Lead Engineer</t>
+          <t>Trainee program do oblasti řízení kvality dat (m/ž)</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1610,17 +1620,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Profinit EU, s.r.o.</t>
+          <t>ČSOB Československá obchodní banka, a. s.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Hlavní město Praha + 2 další lokality</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>14. září</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1645,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SW Engineer AI / ML – Senior (m/ž)</t>
+          <t>Digital data marketing specialist</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1645,22 +1655,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>O2 Czech Republic a.s.</t>
+          <t>VLTAVA LABE MEDIA a.s.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1680,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trainee program do oblasti řízení kvality dat (m/ž)</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1685,22 +1690,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ČSOB Československá obchodní banka, a. s.</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hlavní město Praha + 2 další lokality</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Digital data marketing specialist</t>
+          <t>Specialista správy dat</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1725,17 +1725,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VLTAVA LABE MEDIA a.s.</t>
+          <t>ČEZ, a. s.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Expert Master Data Management (all genders)</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>Schleich GmbH</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Data Analytics Engineer</t>
+          <t>Data Team Lead - Data engineering/ML/AI , až 95% Home office, HPP/IČO</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1795,17 +1795,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>IDC Central Europe, the Middle East &amp; Africa</t>
+          <t>BARTON Consulting s.r.o.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Praha – Staré Město</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>23. září</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>100 000 ‍–‍ 160 000 Kč</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1825,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Specialista správy dat</t>
+          <t>Expert Master Data Management (all genders)</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1830,17 +1835,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ČEZ, a. s.</t>
+          <t>Schleich GmbH</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1860,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Expert Master Data Management (all genders)</t>
+          <t>Python Developer - Data engineering, až 100% home-office</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1865,7 +1870,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Schleich GmbH</t>
+          <t>BARTON Consulting s.r.o.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1875,7 +1880,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1895,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Python Developer - Data engineering, až 100% home-office</t>
+          <t>SW Engineer for AI Centre (m/f)</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1900,17 +1905,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BARTON Consulting s.r.o.</t>
+          <t>O2 Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1930,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SW Engineer for AI Centre (m/f)</t>
+          <t>Python Developer (Football data &amp; AI focus)</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1935,17 +1940,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>O2 Czech Republic a.s.</t>
+          <t>Stats Perform</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1965,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Python Developer (Football data &amp; AI focus)</t>
+          <t>Blockchain Intelligence Analyst / BigData Analyst / Python</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1970,22 +1975,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Stats Perform</t>
+          <t>Podproza s.r.o.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Staré Město</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blockchain Intelligence Analyst / BigData Analyst / Python / GENEROUS HOME OFFICE</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -2010,17 +2010,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Podproza s.r.o.</t>
+          <t>DoDo Czech s.r.o.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Praha – Staré Město</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>30. srpna</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Scientist pro VML</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -2045,17 +2045,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DoDo Czech s.r.o.</t>
+          <t>Wunderman Thompson</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>30. srpna</t>
+          <t>29. srpna</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Data Scientist pro VML</t>
+          <t>Lead Data Scientist (JPO26127)</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Wunderman Thompson</t>
+          <t>Alza.cz a.s.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2230,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>Přidáno dnes</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BI Developer (medior/senior)</t>
+          <t>Datový analytik - logistika laboratoře</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SAZKA a.s.</t>
+          <t>Unilabs Diagnostics k.s.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2340,7 +2340,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>29. srpna</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 80 000 Kč</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2360,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Datový analytik - logistika laboratoře</t>
+          <t>Datový analytik pro statistiku mikrodat (AnaCredit)</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2365,22 +2370,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Unilabs Diagnostics k.s.</t>
+          <t>ČESKÁ NÁRODNÍ BANKA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Praha – Vokovice</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>29. srpna</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 80 000 Kč</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Datový analytik pro statistiku mikrodat (AnaCredit)</t>
+          <t>BI Developer (medior/senior)</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -2405,22 +2405,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ČESKÁ NÁRODNÍ BANKA</t>
+          <t>SAZKA a.s.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Vokovice</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Končí za hodinu</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2555,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2660,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>22. září</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2695,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -2735,12 +2730,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2765,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>22. září</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2780,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BI DELIVERY MANAGER</t>
+          <t>Senior BI Specialist (QlikSense)</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2800,17 +2790,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Raiffeisenbank a.s.</t>
+          <t>EMARK s.r.o.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>Aktualizováno dnes</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 95 000 Kč</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2820,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Senior BI Specialist (QlikSense)</t>
+          <t>BI DELIVERY MANAGER</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2835,22 +2830,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>EMARK s.r.o.</t>
+          <t>Raiffeisenbank a.s.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>18. září</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 95 000 Kč</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2875,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2890,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Data Engineer pro VML</t>
+          <t>📈 PROJECT MANAGER / DATA &amp; BUSINESS ANALYST / farmaceutická firma</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2915,17 +2900,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Wunderman Thompson</t>
+          <t>Pharmonia s.r.o.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2925,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Software Engineer, Clinical Data Management (R304682)</t>
+          <t>Data Engineer pro VML</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2950,22 +2935,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>Wunderman Thompson</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2960,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Data Center Senior Engineer</t>
+          <t>Software Engineer, Clinical Data Management (R304682)</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2990,17 +2970,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Vodafone Czech Republic a.s.</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -3015,7 +2995,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Datawarehouse SQL Developer/Analyst pro Risk management (Medior/Senior)</t>
+          <t>Data Center Senior Engineer</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -3025,7 +3005,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>Vodafone Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3035,7 +3015,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>Končí za hodinu</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3030,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Datawarehouse SQL Developer/Analyst pro Risk management (Medior/Senior)</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -3060,17 +3040,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>W.A.G. payment solutions, a.s.</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>11. září</t>
+          <t>29. srpna</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3065,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Data Analyst (Data Engineering &amp; Analysis)</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -3095,7 +3075,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>JetBrains s.r.o.</t>
+          <t>W.A.G. payment solutions, a.s.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3105,7 +3085,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Končí za 2 hodiny</t>
+          <t>11. září</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3225,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Přidáno dnes</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3275,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Graduate AI Product Engineer – se služebním vozem</t>
+          <t>⋙ Datový specialista - částečný home office ⋘</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -3310,17 +3285,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DHL Solutions k.s.</t>
+          <t>mBlue Czech, s.r.o.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hlavní město Praha + 1 další lokalita</t>
+          <t>Slaný</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3310,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>⋙ Datový specialista - částečný home office ⋘</t>
+          <t>Databázový administrátor/ka  - MS SQL</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -3345,17 +3320,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>mBlue Czech, s.r.o.</t>
+          <t>Bezpečnostní informační služba</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Slaný</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3345,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Databázový administrátor/ka  - MS SQL</t>
+          <t>Senior Data Developer</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -3380,17 +3355,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Bezpečnostní informační služba</t>
+          <t>Česká spořitelna, a.s.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>4. září</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3380,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Senior Data Developer</t>
+          <t>Specialista HR dat a optimalizace procesů s přesahem do odměňování a benefitů</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -3415,17 +3390,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Česká spořitelna, a.s.</t>
+          <t>mBank</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>4. září</t>
+          <t>Končí za hodinu</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3435,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Končí za 2 hodiny</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3495,12 +3475,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3530,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BI Specialist</t>
+          <t>Data Integration Specialist</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -3565,17 +3540,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CETIN a.s.</t>
+          <t>Accace Circle a.s.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>Přidáno dnes</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3645,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sales &amp; Data Management Intern</t>
+          <t>BI Specialist</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3675,22 +3655,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Tribe.xyz Czech s.r.o.</t>
+          <t>CETIN a.s.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>17. září</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>8 000 ‍–‍ 10 000 Kč</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3680,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Data a CRM Manager</t>
+          <t>DIGITAL SPECIALIST DATA - JUNIOR</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -3715,27 +3690,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Bezvavlasy a.s.</t>
+          <t>MEDIA MARKETING SERVICES a.s.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>60 000 ‍–‍ 75 000 Kč</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3715,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Sales &amp; Data Management Intern</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -3760,17 +3725,22 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MEDIA FACTORY GROUP Czech Republic a.s.</t>
+          <t>Tribe.xyz Czech s.r.o.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Praha – Žižkov</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>Končí zítra</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>8 000 ‍–‍ 10 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3755,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ANALYTIK REPORTINGU</t>
+          <t>Data a CRM Manager</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3795,17 +3765,22 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Bezvavlasy a.s.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>19. září</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>60 000 ‍–‍ 75 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3795,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BI Analytik/Analytička pro skupinu Ambiente</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -3830,17 +3805,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>AMBI CZ, s.r.o.</t>
+          <t>MEDIA FACTORY GROUP Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Praha – Josefov</t>
+          <t>Praha – Žižkov</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3830,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Datový analytik pro Mapy.cz</t>
+          <t>ANALYTIK REPORTINGU</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3865,17 +3840,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Seznam.cz, a.s.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3865,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BUSINESS DATOVÝ ANALYTIK</t>
+          <t>BI Analytik/Analytička pro skupinu Ambiente</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3900,17 +3875,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>AMBI CZ, s.r.o.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Josefov</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3900,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Datový analytik - senior</t>
+          <t>Datový analytik pro Mapy.cz</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3935,17 +3910,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>LOGSENSE s.r.o.</t>
+          <t>Seznam.cz, a.s.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -3960,7 +3935,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Datový analytik / analytička</t>
+          <t>BUSINESS DATOVÝ ANALYTIK</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3970,22 +3945,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4000,7 +3970,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Datový analytik CZ/SK</t>
+          <t>Datový analytik - senior</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -4010,17 +3980,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CEEOR spol. s r.o.</t>
+          <t>LOGSENSE s.r.o.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4005,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CAD kreslení nábytku IMOS + příprava dat pro výrobu nábytku; HOME OFFICE</t>
+          <t>Datový analytik / analytička</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -4045,22 +4015,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Truhlárna, s.r.o.</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Středočeský kraj</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>15. září</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 70 000 Kč</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4040,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Node.js Developer pražských dat (m/ž)</t>
+          <t>Datový analytik do týmů chatbotů</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -4085,17 +4050,22 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Operátor ICT, a. s.</t>
+          <t>Česká spořitelna, a.s.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4080,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Internship datový analytik - Financial Accounting Advisory Services</t>
+          <t>Node.js Developer pražských dat (m/ž)</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -4120,17 +4090,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Operátor ICT, a. s.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>8. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4115,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Junior datový analytik - Financial Accounting Advisory Services</t>
+          <t>Internship datový analytik - Financial Accounting Advisory Services</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -4166,11 +4136,6 @@
       <c r="H102" t="inlineStr">
         <is>
           <t>8. září</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>46 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4150,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Datalake Platform Engineer</t>
+          <t>Junior datový analytik - Financial Accounting Advisory Services</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -4195,17 +4160,22 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1. září</t>
+          <t>8. září</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>46 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4190,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Datový analytik - modelář</t>
+          <t>Datalake Platform Engineer</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -4230,17 +4200,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Institut pro regulaci hazardních her z.s.</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>17. září</t>
+          <t>1. září</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4225,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Datový analytik komerčního bankovnictví digital – Praha</t>
+          <t>Datový analytik - modelář</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -4265,17 +4235,22 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MONETA Money Bank, a.s.</t>
+          <t>Institut pro regulaci hazardních her z.s.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4265,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SPECIALISTA/ANALYTIK REGULATORNÍHO REPORTINGU</t>
+          <t>Datový analytik komerčního bankovnictví digital – Praha</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -4300,17 +4275,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>MONETA Money Bank, a.s.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Končí za hodinu</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4300,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Senior MS SQL Database Engineer - Innovate in Counterparty Risk</t>
+          <t>SPECIALISTA/ANALYTIK REGULATORNÍHO REPORTINGU</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -4335,17 +4310,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4335,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HVAC Business Intelligence Analyst</t>
+          <t>Senior MS SQL Database Engineer - Innovate in Counterparty Risk</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -4370,17 +4345,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ČEZ, a. s.</t>
+          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4370,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Client BI Solutions Analyst</t>
+          <t>C++ Engineer - Mid/Senior for AI</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -4405,17 +4380,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>International SOS</t>
+          <t>Bohemia Interactive Simulations k.s.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4405,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Datový analytik/datová analytička v odboru Výkaznictví státu</t>
+          <t>Business Consultant – Digital Transformation &amp; AI</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -4440,22 +4415,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ministerstvo financí</t>
+          <t>ADASTRA, s.r.o.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Praha – Malá Strana</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>18. září</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>34 840 ‍–‍ 51 530 Kč</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4440,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Information Security Reporting Analyst</t>
+          <t>HVAC Business Intelligence Analyst</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -4480,17 +4450,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
+          <t>ČEZ, a. s.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>13. září</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4475,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Datový analytik/čka – Modelář</t>
+          <t>Client BI Solutions Analyst</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -4515,17 +4485,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ČEPS, a.s.</t>
+          <t>International SOS</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4510,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>AI Product Consultant</t>
+          <t>Datový analytik/datová analytička v odboru Výkaznictví státu</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -4550,17 +4520,22 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Profinit EU, s.r.o.</t>
+          <t>Ministerstvo financí</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Malá Strana</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>25. srpna</t>
+          <t>Aktualizováno dnes</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>34 840 ‍–‍ 51 530 Kč</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4550,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Konzultant SAP BW / POWER BI (M/Ž)</t>
+          <t>Information Security Reporting Analyst</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -4585,17 +4560,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Pražská plynárenská, a.s.</t>
+          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4585,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Specialista datových analýz – Praha 9, Horní Počernice</t>
+          <t>Datový analytik/čka – Modelář</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4620,17 +4595,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Axial Personnel Agency, s.r.o.</t>
+          <t>ČEPS, a.s.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>okres Praha-východ</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>29. srpna</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4620,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SPECIALISTA REPORTINGU &amp; ANALÝZ</t>
+          <t>AI Product Consultant</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4655,17 +4630,22 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>BENU Česká republika s.r.o.</t>
+          <t>Profinit EU, s.r.o.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Praha – Hostivař</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4660,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>(SENIOR) SPECIALISTA COREP REPORTINGU</t>
+          <t>Konzultant SAP BW / POWER BI (M/Ž)</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4690,17 +4670,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Pražská plynárenská, a.s.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Končí za hodinu</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4695,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Specialist(k)a regulatorního reportingu</t>
+          <t>SPECIALISTA REPORTINGU &amp; ANALÝZ</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -4725,17 +4705,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>UNIQA</t>
+          <t>BENU Česká republika s.r.o.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Praha – Vokovice</t>
+          <t>Praha – Hostivař</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4730,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Specialista pro reporting, konsolidaci a datové analýzy</t>
+          <t>(SENIOR) SPECIALISTA COREP REPORTINGU</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4760,17 +4740,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Pražská energetika, a.s.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Praha – Vršovice</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4765,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Specialista reportingu a controllingu</t>
+          <t>Specialist(k)a regulatorního reportingu</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4795,22 +4775,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ECOVIS FACTA a.s.</t>
+          <t>UNIQA</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Praha – Krč</t>
+          <t>Praha – Vokovice</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4800,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Financial Reporting Specialist with German</t>
+          <t>Specialista pro reporting, konsolidaci a datové analýzy</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4835,17 +4810,17 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Hays Czech Republic, s.r.o.</t>
+          <t>Pražská energetika, a.s.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Vršovice</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -4860,7 +4835,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SPECIALISTA (ESG) REPORTINGU</t>
+          <t>Specialista datových analýz – Praha 9, Horní Počernice</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4870,17 +4845,17 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>AGROFERT, a.s.</t>
+          <t>Axial Personnel Agency, s.r.o.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Praha – Chodov</t>
+          <t>okres Praha-východ</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4870,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Manažer/ka controllingu (finance, controlling, reporting)</t>
+          <t>Specialista reportingu a controllingu</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4905,17 +4880,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TETA drogerie (Solvent ČR s.r.o.)</t>
+          <t>ECOVIS FACTA a.s.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Krč</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4905,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DevOps Inženýr/ka pro datové sklady</t>
+          <t>SPECIALISTA (ESG) REPORTINGU</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4940,17 +4915,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MONETA Money Bank, a.s.</t>
+          <t>AGROFERT, a.s.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Chodov</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4940,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Elektroinženýr - Buďte součástí AI revoluce!</t>
+          <t>Manažer/ka controllingu (finance, controlling, reporting)</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4975,22 +4950,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Luxonis</t>
+          <t>TETA drogerie (Solvent ČR s.r.o.)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>15. září</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>90 000 ‍–‍ 120 000 Kč</t>
+          <t>Končí za hodinu</t>
         </is>
       </c>
     </row>
@@ -5005,7 +4975,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Business Intelligence Lead</t>
+          <t>DevOps Inženýr/ka pro datové sklady</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -5015,17 +4985,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>MONETA Money Bank, a.s.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>Končí za hodinu</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5010,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Senior Specialist, AI Engineering (R302759)</t>
+          <t>Elektroinženýr - Buďte součástí AI revoluce!</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -5050,17 +5020,22 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>Luxonis</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>22. září</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>90 000 ‍–‍ 120 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5050,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Specialist, AI Engineering (R302756 )</t>
+          <t>Business Intelligence Lead</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -5085,7 +5060,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5095,7 +5070,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5085,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>IT Project Manager - Implementace / Power BI</t>
+          <t>Senior Specialist, AI Engineering (R302759)</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -5120,17 +5095,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Farkasova International s.r.o.</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5120,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Data Engineer / IT Konzultant  (high-tech data company)</t>
+          <t>Specialist, AI Engineering (R302756 )</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -5155,22 +5130,17 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CloverDX Labs s.r.o.</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Brno – Zábrdovice</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>18. září</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>60 000 ‍–‍ 120 000 Kč</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5155,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Data Scientist Junior</t>
+          <t>IT Project Manager - Implementace / Power BI</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -5195,22 +5165,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Home Credit a.s.</t>
+          <t>Farkasova International s.r.o.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Brno – Staré Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5190,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer / IT Konzultant  (high-tech data company)</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -5235,17 +5200,22 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Marmon Foodservice Manufacturing s.r.o.</t>
+          <t>CloverDX Labs s.r.o.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Brno – Tuřany</t>
+          <t>Brno – Zábrdovice</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>Aktualizováno dnes</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>60 000 ‍–‍ 120 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5230,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sustainability Data Analyst / Data Architect</t>
+          <t>Data Scientist Junior</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -5270,17 +5240,17 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MANN+HUMMEL Service s.r.o. – Shared Service Centre</t>
+          <t>Home Credit a.s.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Brno – Staré Brno</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>4. září</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5265,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>BI Data Analyst</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -5305,17 +5275,17 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Notino s.r.o.</t>
+          <t>Marmon Foodservice Manufacturing s.r.o.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Brno – Štýřice</t>
+          <t>Brno – Tuřany</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5300,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Business Intelligence Data Engineer</t>
+          <t>Sustainability Data Analyst / Data Architect</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -5340,17 +5310,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>MANN+HUMMEL Service s.r.o. – Shared Service Centre</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>11. září</t>
+          <t>4. září</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5335,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>BI Data Analyst</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -5375,22 +5345,17 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Gen Digital(Avast)</t>
+          <t>Notino s.r.o.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Brno – Trnitá + 1 další lokalita</t>
+          <t>Brno – Štýřice</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5370,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Datový analytik/Datová analytička v oboru bioinformatika</t>
+          <t>Business Intelligence Data Engineer</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -5415,17 +5380,17 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Masarykova univerzita</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Brno – Bohunice</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>11. září</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5405,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Online Data Analyst</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -5450,17 +5415,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TELUS International AI</t>
+          <t>Gen Digital(Avast)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Brno – Brno-město</t>
+          <t>Brno – Trnitá + 1 další lokalita</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5440,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Datový analytik/Datová analytička v oboru bioinformatika</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -5485,17 +5450,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FABORY Czech s.r.o.</t>
+          <t>Masarykova univerzita</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Šlapanice</t>
+          <t>Brno – Bohunice</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5475,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Online Data Analyst</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -5520,17 +5485,17 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>TELUS International AI</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Brno – Brno-město</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>26. srpna</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5510,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Senior Sustainability Data Analyst</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -5555,22 +5520,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Atlas Copco Services s.r.o.</t>
+          <t>FABORY Czech s.r.o.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Brno – Štýřice</t>
+          <t>Šlapanice</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Přidáno dnes</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5545,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Master Data Specialist - Standard Cost / Item Creations &amp; Maintenance</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -5595,17 +5555,22 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ingersoll Rand</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Brno – Žabovřesky</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>Přidáno dnes</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5585,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Datový analytik (bonusy 2x ročně)</t>
+          <t>Senior Sustainability Data Analyst</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -5630,17 +5595,17 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>Atlas Copco Services s.r.o.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Brno – Štýřice</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5620,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Analytik Business Intelligence / BI Analyst</t>
+          <t>Master Data Specialist - Standard Cost / Item Creations &amp; Maintenance</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5665,22 +5630,17 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>AG FOODS Group a.s.</t>
+          <t>Ingersoll Rand</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Velká Bíteš – Košíkov</t>
+          <t>Brno – Žabovřesky</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>18. září</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 65 000 Kč</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5655,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>STÁŽ pro studenty - datové analytiky</t>
+          <t>Datový analytik (bonusy 2x ročně)</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5705,17 +5665,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Úřad pro ochranu hospodářské soutěže</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Brno – Černá Pole</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>27. srpna</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5690,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Stážista v oddělení Business Excellence (Reporting &amp; Datová analýza)</t>
+          <t>Analytik Business Intelligence / BI Analyst</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5740,22 +5700,22 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Angelini Pharma Česká republika s.r.o.</t>
+          <t>AG FOODS Group a.s.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Velká Bíteš – Košíkov</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>25 000 ‍–‍ 30 000 Kč</t>
+          <t>50 000 ‍–‍ 65 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5730,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Senior Data Engineer and Team Leader</t>
+          <t>STÁŽ pro studenty - datové analytiky</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5780,17 +5740,17 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>IDC Central Europe, the Middle East &amp; Africa</t>
+          <t>Úřad pro ochranu hospodářské soutěže</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Moravskoslezský kraj + 1 další lokalita</t>
+          <t>Brno – Černá Pole</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5765,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Senior BI Developer</t>
+          <t>Stážista v oddělení Business Excellence (Reporting &amp; Datová analýza)</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5815,22 +5775,22 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>IDC Central Europe, the Middle East &amp; Africa</t>
+          <t>Angelini Pharma Česká republika s.r.o.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>9. září</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>25 000 ‍–‍ 30 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5805,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Data Engineer (m/ž)</t>
+          <t>Senior BI Developer</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5855,17 +5815,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>IDC Central Europe, the Middle East &amp; Africa</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -5880,7 +5840,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Datový analytik/BI analytik</t>
+          <t>Data Engineer (m/ž)</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5890,7 +5850,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>BANDI VAMOS a.s.</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5900,7 +5860,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5875,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Data Analytics &amp; BI Specialist</t>
+          <t>Datový analytik/BI analytik</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -5925,7 +5885,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>BANDI VAMOS a.s.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5935,7 +5895,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -5950,7 +5910,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>AI Researcher/developer</t>
+          <t>Data Analytics &amp; BI Specialist</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5960,17 +5920,17 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>VŠB - TUO, IT4Innovations národní superpočítačové centrum</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Ostrava – Poruba</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5945,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Business Intelligence Specialist - Power BI</t>
+          <t>AI Researcher/developer</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5995,17 +5955,17 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>VŠB - TUO, IT4Innovations národní superpočítačové centrum</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
+          <t>Ostrava – Poruba</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -6020,7 +5980,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>IT Specialista pro EDI výměnu dat (m/ž)</t>
+          <t>Business Intelligence Specialist - Power BI</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -6030,17 +5990,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Geis CZ s.r.o.</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Ejpovice</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6015,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>HR Data Scientist</t>
+          <t>IT Specialista pro EDI výměnu dat (m/ž)</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -6065,22 +6025,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Wacker-Chemie, s.r.o.</t>
+          <t>Geis CZ s.r.o.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Plzeň – Skvrňany</t>
+          <t>Ejpovice</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6050,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>HR Data Scientist</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -6115,7 +6070,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6085,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Data Specialist for Procurement</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -6150,7 +6105,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>Aktualizováno dnes</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6120,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Junior/Medior Tester in a Global AI/Music Tech Startup</t>
+          <t>(Senior) Data Analyst for GLAMI.</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -6175,7 +6130,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>AIMS API</t>
+          <t>GLAMI</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6205,7 +6160,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Senior Back-End Developer (Golang) in a Global AI/Music Tech Startup</t>
+          <t>Data Engineer 💻 Zázemí české společnosti, mezinárodní klienti, remote spolupráce 🤝</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -6215,7 +6170,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>AIMS API</t>
+          <t>UD4D</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6245,7 +6200,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Datový integrátor 📊</t>
+          <t>Datový Analytik/čka</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -6255,12 +6210,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Logio s.r.o.</t>
+          <t>edwardinvest.cz</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Praha, Brno, Hradec Králové</t>
+          <t>Praha, Mladá Boleslav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6271,6 +6226,11 @@
       <c r="I160" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>50000 - 90000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6245,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -6295,7 +6255,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ROUVY</t>
+          <t>HX Hurtigruten Expeditions</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6325,7 +6285,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Data Analyst 📈  - Junior/Medior</t>
+          <t>Lead - Data &amp; Analytics</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -6335,7 +6295,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>eppTec</t>
+          <t>HX Hurtigruten Expeditions</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6351,11 +6311,6 @@
       <c r="I162" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>40000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6370,7 +6325,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>👉 Senior Data Scientist</t>
+          <t>Junior/Medior Tester in a Global AI/Music Tech Startup</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -6380,7 +6335,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>AIMS API</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6410,7 +6365,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Senior Back-End Developer (Golang) in a Global AI/Music Tech Startup</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -6420,7 +6375,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Livesport</t>
+          <t>AIMS API</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6450,7 +6405,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sales Specialist – New Business Development (Datová analýza, BI a AI řešení)</t>
+          <t>Datový integrátor 📊</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -6460,12 +6415,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>BizzTreat</t>
+          <t>Logio s.r.o.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha, Brno, Hradec Králové</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6490,7 +6445,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Grafik s nadšením pro AI</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -6500,7 +6455,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>YDEAL s.r.o.</t>
+          <t>ROUVY</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6530,7 +6485,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Lead Software Engineer, Bot Builder with AI, Prague</t>
+          <t>Data Analyst 📈  - Junior/Medior</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -6540,7 +6495,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>NICE CXone (Brand Embassy)</t>
+          <t>eppTec</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6560,7 +6515,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>140000 - 160000 CZK monthly</t>
+          <t>40000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6530,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>🐍 Python Data Engineer</t>
+          <t>👉 Senior Data Scientist</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -6590,7 +6545,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Praha 6</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6615,7 +6570,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Yield Operations Specialist (Datový &amp; performance analytik)</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -6625,7 +6580,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>R2B2 a.s.</t>
+          <t>Livesport</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6655,7 +6610,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Machine Learning Data Annotator (Ideal for students/graduates) 🧑‍💻</t>
+          <t>Sales Specialist – New Business Development (Datová analýza, BI a AI řešení)</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -6665,7 +6620,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Parrot</t>
+          <t>BizzTreat</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6675,17 +6630,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>28000 - 56000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6650,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Marketing Data Analyst</t>
+          <t>Grafik s nadšením pro AI</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -6710,7 +6660,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Košík.cz</t>
+          <t>YDEAL s.r.o.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6726,11 +6676,6 @@
       <c r="I171" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>60000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6690,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>🚀 Data Engineer</t>
+          <t>Lead Software Engineer, Bot Builder with AI, Prague</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -6755,12 +6700,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Capital Markets Gateway (CMG)</t>
+          <t>NICE CXone (Brand Embassy)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6771,6 +6716,11 @@
       <c r="I172" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>140000 - 160000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6735,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Generative AI and ML Developer</t>
+          <t>🐍 Python Data Engineer</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -6795,17 +6745,17 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Blindspot Solutions</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 6</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -6825,7 +6775,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Data Engineer 💻 Zázemí české společnosti, mezinárodní klienti, remote spolupráce 🤝</t>
+          <t>Yield Operations Specialist (Datový &amp; performance analytik)</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -6835,7 +6785,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>UD4D</t>
+          <t>R2B2 a.s.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6865,7 +6815,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Backend vývojář/ka - buduj s námi nejlepší AI aplikaci na trhu</t>
+          <t>Machine Learning Data Annotator (Ideal for students/graduates) 🧑‍💻</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6875,17 +6825,17 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FV STUDIO</t>
+          <t>Parrot</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -6895,7 +6845,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>70000 - 100000 CZK monthly</t>
+          <t>28000 - 56000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6860,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Datový vývojář / analytik [MED+]</t>
+          <t>Marketing Data Analyst</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6920,7 +6870,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Exportio</t>
+          <t>Košík.cz</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6930,7 +6880,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -6940,7 +6890,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>50000 - 100000 CZK monthly</t>
+          <t>60000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6905,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>🚀 Data Engineer</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6965,12 +6915,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>HX Hurtigruten Expeditions</t>
+          <t>Capital Markets Gateway (CMG)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6995,7 +6945,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Lead - Data &amp; Analytics</t>
+          <t>Generative AI and ML Developer</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -7005,7 +6955,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HX Hurtigruten Expeditions</t>
+          <t>Blindspot Solutions</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7015,7 +6965,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -7035,7 +6985,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Data Engineer (Spark)</t>
+          <t>Data Team Lead</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -7045,22 +6995,17 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>LOGEX Solution Center s.r.o.</t>
+          <t>Revolt BI, s.r.o.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7020,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Software Engineer in a Fast-Growing AI Startup</t>
+          <t>🌍 Hledá se Systémový/Deployment Engineer se znalostmi serverů a databází 🚒</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -7085,22 +7030,17 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Lightly</t>
+          <t>GINA Software s.r.o.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -7115,7 +7055,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Senior Data Analytik v publishing biznise</t>
+          <t>Data Engineer v Knihobotu 📚</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -7125,22 +7065,17 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>News and Media Holding, a.s.</t>
+          <t>knihobot.cz</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>3000 - 4000 EUR monthly</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7090,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Junior Data Scientist</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -7165,7 +7100,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>BigHub s.r.o.</t>
+          <t>Resistant AI</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7175,12 +7110,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>60000 - 130000 CZK monthly</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7125,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Scientist v Knihobotu 📚</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -7205,7 +7135,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CONFIRMO s.r.o</t>
+          <t>knihobot.cz</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7215,7 +7145,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7230,7 +7160,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Neural Voice Specialist, ML Engineer</t>
+          <t>🔧 IT HW technik pro datacentrum v Praze 10</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -7240,12 +7170,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>PromethistAI a.s.</t>
+          <t>CDN77</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 10</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7265,7 +7195,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Junior DevOps (Big Data)</t>
+          <t>Business Intelligence Lead</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -7275,7 +7205,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Adastra, s.r.o.</t>
+          <t>Liftago</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7300,7 +7230,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Medior Data Scientist</t>
+          <t>Senior Data Analytik v publishing biznise</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -7310,12 +7240,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>GymBeam</t>
+          <t>News and Media Holding, a.s.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7325,7 +7255,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>50000 - 70000 CZK monthly</t>
+          <t>3000 - 4000 EUR monthly</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7270,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>AI Engineer for Space projects 🚀</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -7350,7 +7280,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Huld s.r.o.</t>
+          <t>BigHub s.r.o.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7360,7 +7290,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>60000 - 130000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7320,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>HECON</t>
+          <t>CONFIRMO s.r.o</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7395,7 +7330,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7410,7 +7345,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Programátor a specialista na AI prompting</t>
+          <t>Neural Voice Specialist, ML Engineer</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -7420,22 +7355,17 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Apertia Tech s.r.o.</t>
+          <t>PromethistAI a.s.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Praha, Brno, České Budějovice, Ostrava, Zlín, Olomouc, Ústí nad Labem</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>30000 - 80000 CZK monthly</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7450,7 +7380,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>👉Technical Project Lead for data &amp; AI solutions - Prague</t>
+          <t>Junior DevOps (Big Data)</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -7460,7 +7390,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Adastra, s.r.o.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7485,7 +7415,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Node.js Developer pražských dat (m/ž)</t>
+          <t>Medior Data Scientist</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -7495,17 +7425,22 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Operátor ICT, a.s.</t>
+          <t>GymBeam</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>50000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7520,7 +7455,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Digital data marketing specialist</t>
+          <t>AI Engineer for Space projects 🚀</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -7530,7 +7465,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>denik.cz</t>
+          <t>Huld s.r.o.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7540,7 +7475,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7490,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -7565,7 +7500,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Slevomat.cz</t>
+          <t>HECON</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7590,7 +7525,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Programátor a specialista na AI prompting</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -7600,17 +7535,22 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>Apertia Tech s.r.o.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha, Brno, České Budějovice, Ostrava, Zlín, Olomouc, Ústí nad Labem</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>30000 - 80000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7625,7 +7565,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>👉Technical Project Lead for data &amp; AI solutions - Prague</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -7635,7 +7575,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7660,7 +7600,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>AI Specialist</t>
+          <t>Node.js Developer pražských dat (m/ž)</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -7670,7 +7610,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Twistcafe Group s.r.o.</t>
+          <t>Operátor ICT, a.s.</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7695,7 +7635,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>🔬 DataOps specialist (Brno, Python)</t>
+          <t>Backend vývojář/ka - buduj s námi nejlepší AI aplikaci na trhu</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -7705,7 +7645,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>FV STUDIO</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7716,6 +7656,11 @@
       <c r="G197" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>70000 - 100000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7730,7 +7675,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Analytics Engineer for Data Platform team at ShipMonk</t>
+          <t>Digital data marketing specialist</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -7740,7 +7685,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ShipMonk</t>
+          <t>denik.cz</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7765,7 +7710,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>🔬 Data Analyst Medior (Python, Brno)</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -7775,17 +7720,17 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Slevomat.cz</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7745,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>👉Technical Project Lead for data &amp; AI solutions - Brno</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -7810,12 +7755,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7835,7 +7780,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Data Scientist 🚀 (Turn raw data into usable metrics and develop new models)</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -7845,7 +7790,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Similarweb</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7856,11 +7801,6 @@
       <c r="G201" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>100000 - 150000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7815,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>💻 AI Inovátor</t>
+          <t>AI Specialist</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -7885,7 +7825,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FakturaOnline.cz</t>
+          <t>Twistcafe Group s.r.o.</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7895,12 +7835,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>300 - 800 CZK hourly</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7915,7 +7850,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Power BI consultant</t>
+          <t>🔬 DataOps specialist (Brno, Python)</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -7925,12 +7860,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>DataBrothers</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7950,7 +7885,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Data Scientist Senior 🚀</t>
+          <t>Analytics Engineer for Data Platform team at ShipMonk</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -7960,7 +7895,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ematiq a.s.</t>
+          <t>ShipMonk</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7971,11 +7906,6 @@
       <c r="G204" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>74000 - 124000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7990,7 +7920,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Konzultant pro automatizaci reportingu 🌎</t>
+          <t>🔬 Data Analyst Medior (Python, Brno)</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -8000,17 +7930,17 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Deepview</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -8025,7 +7955,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Python Engineer (ML)</t>
+          <t>Data Scientist 🚀 (Turn raw data into usable metrics and develop new models)</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -8035,7 +7965,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Oddin.gg</t>
+          <t>Similarweb</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8046,6 +7976,11 @@
       <c r="G206" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>100000 - 150000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -8060,7 +7995,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>🔧 IT HW technik pro datacentrum v Praze 10</t>
+          <t>💻 AI Inovátor</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -8070,17 +8005,22 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CDN77</t>
+          <t>FakturaOnline.cz</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Praha 10</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>300 - 800 CZK hourly</t>
         </is>
       </c>
     </row>
@@ -8095,7 +8035,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>🌍 Hledá se Deployment Engineer se znalostmi serverů a databází  🚒</t>
+          <t>Power BI consultant</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -8105,12 +8045,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>GINA Software s.r.o.</t>
+          <t>DataBrothers</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8122,15 +8062,15 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>E-commerce Data Analyst</t>
+          <t>Data Scientist Senior 🚀</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -8140,7 +8080,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>Ematiq a.s.</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8153,24 +8093,24 @@
           <t>Full-time</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>Fresh</t>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>74000 - 124000 CZK monthly</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Datový integrátor</t>
+          <t>Konzultant pro automatizaci reportingu 🌎</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -8180,22 +8120,17 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>LOGIO</t>
+          <t>Deepview</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8206,11 +8141,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Senior Data Platform Engineer</t>
+          <t>(Senior) Data Analyst</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -8220,17 +8155,22 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>GLAMI</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Práce vzdáleně</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Fresh</t>
         </is>
       </c>
     </row>
@@ -8241,11 +8181,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Data Entry Specialist</t>
+          <t>BI / Data Analyst</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -8255,7 +8195,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Realpad</t>
+          <t>Bonami</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8265,7 +8205,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Fresh</t>
         </is>
       </c>
     </row>
@@ -8276,11 +8221,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Administrátor/ka sběru dat | Marketingový výzkum</t>
+          <t>E-commerce Data Analyst</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -8290,7 +8235,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8311,11 +8256,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Datový integrátor</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -8325,17 +8270,22 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Confirmo</t>
+          <t>LOGIO</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8346,11 +8296,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>Senior Data Platform Engineer</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -8381,11 +8331,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Data Platform Engineer</t>
+          <t>Data Entry Specialist</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -8395,17 +8345,17 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Realpad</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
     </row>
@@ -8416,11 +8366,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Administrátor/ka sběru dat | Marketingový výzkum</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -8430,7 +8380,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Slevomat</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8451,11 +8401,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>DATA ENGINEER</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -8465,7 +8415,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Billigence</t>
+          <t>Confirmo</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8476,11 +8426,6 @@
       <c r="G218" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8491,11 +8436,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>💻 Datový analytik - junior - vhodné pro studenty/absolventy 🎓</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -8505,12 +8450,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>OPT OnDemand</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Praha 7</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8526,11 +8471,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Marketing Manager pro AI SaaS produkt</t>
+          <t>Data Platform Engineer</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -8540,12 +8485,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FEEDYOU</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8561,11 +8506,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Account Executive pro AI SaaS produkt</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -8575,12 +8520,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FEEDYOU</t>
+          <t>Slevomat</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8596,11 +8541,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Data Analyst / Analytics Engineer</t>
+          <t>DATA ENGINEER</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -8610,12 +8555,22 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GAMEE</t>
+          <t>Billigence</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8626,11 +8581,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Mentor*ka - Datová analýza</t>
+          <t>💻 Datový analytik - junior - vhodné pro studenty/absolventy 🎓</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -8640,22 +8595,17 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>OPT OnDemand</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha 7</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -8666,11 +8616,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Analytics Engineer for Data Platform team</t>
+          <t>Marketing Manager pro AI SaaS produkt</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -8680,12 +8630,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>ShipMonk Research &amp; Development</t>
+          <t>FEEDYOU</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8701,11 +8651,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>BI Squad Technical Lead</t>
+          <t>Account Executive pro AI SaaS produkt</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -8715,12 +8665,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>FEEDYOU</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8736,11 +8686,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Data Engineers wanted Junior and Medior</t>
+          <t>Data Analyst / Analytics Engineer</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -8750,12 +8700,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Prague</t>
+          <t>GAMEE</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8771,11 +8716,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>Mentor*ka - Datová analýza</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -8785,17 +8730,22 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8806,11 +8756,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Datový analytik | Marketingový výzkum</t>
+          <t>Analytics Engineer for Data Platform team</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -8820,7 +8770,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>ShipMonk Research &amp; Development</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -8841,11 +8791,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Data Scientist 🔬 Market Research</t>
+          <t>BI Squad Technical Lead</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -8855,12 +8805,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8876,11 +8826,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Experienced Machine Learning Engineer</t>
+          <t>Data Engineers wanted Junior and Medior</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -8890,12 +8840,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Salted CX</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8911,11 +8861,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Data Engineering Lead (tahoun DATA týmu)</t>
+          <t>Datový analytik | Marketingový výzkum</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
@@ -8925,7 +8875,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Etnetera Activate</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8946,11 +8896,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>BI Analytik / Konzultant</t>
+          <t>Data Scientist 🔬 Market Research</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
@@ -8960,12 +8910,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CDC Data</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Dvůr Králové nad Labem</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8981,11 +8931,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Data Engineer with Azure for AI Squad</t>
+          <t>Experienced Machine Learning Engineer</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
@@ -8995,12 +8945,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Salted CX</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9016,11 +8966,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Pomáhej tvořit kurzy datového inženýrství a datové vědy</t>
+          <t>Data Engineering Lead (tahoun DATA týmu)</t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
@@ -9030,22 +8980,17 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Etnetera Activate</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -9056,11 +9001,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v AI</t>
+          <t>BI Analytik / Konzultant</t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
@@ -9070,22 +9015,17 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>CDC Data</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Dvůr Králové nad Labem</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -9096,11 +9036,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v Pythonu pro data</t>
+          <t>Data Engineer with Azure for AI Squad</t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
@@ -9110,22 +9050,17 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -9136,11 +9071,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v oblasti dat</t>
+          <t>Pomáhej tvořit kurzy datového inženýrství a datové vědy</t>
         </is>
       </c>
       <c r="D237" s="3" t="inlineStr">
@@ -9176,11 +9111,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Data Governance Consultant</t>
+          <t>Pomáhej vzdělávat ženy v AI</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
@@ -9190,17 +9125,17 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Billigence</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -9216,11 +9151,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Datový Analytik - Brno</t>
+          <t>Pomáhej vzdělávat ženy v Pythonu pro data</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
@@ -9230,17 +9165,22 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Addvery</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -9251,11 +9191,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Full Stack BI Developer</t>
+          <t>Pomáhej vzdělávat ženy v oblasti dat</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
@@ -9265,17 +9205,22 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -9286,11 +9231,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Ph.D. in Structured Graphical Models (ML for Public Health)</t>
+          <t>Data Governance Consultant</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
@@ -9300,7 +9245,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>Billigence</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9311,6 +9256,11 @@
       <c r="G241" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -9321,11 +9271,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Ph.D. in Mathematical Optimization and Control (Fairness in AI)</t>
+          <t>Datový Analytik - Brno</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
@@ -9335,12 +9285,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>Addvery</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9356,11 +9306,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>TECHNIK DATOVÉHO CENTRA</t>
+          <t>Full Stack BI Developer</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
@@ -9370,12 +9320,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TTC TELEPORT</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9391,11 +9341,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>DATA ENGINEER senior/medior</t>
+          <t>Ph.D. in Structured Graphical Models (ML for Public Health)</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
@@ -9405,7 +9355,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Joyful Craftsmen</t>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -9426,11 +9376,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>PhD z umělé inteligence</t>
+          <t>Ph.D. in Mathematical Optimization and Control (Fairness in AI)</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
@@ -9457,15 +9407,15 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>TECHNIK DATOVÉHO CENTRA</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
@@ -9473,34 +9423,34 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>TTC TELEPORT</t>
+        </is>
+      </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>09/03/2024</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>DATA ENGINEER senior/medior</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
@@ -9508,34 +9458,34 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Joyful Craftsmen</t>
+        </is>
+      </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Praha 5-Smíchov</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Data Platform Engineer</t>
+          <t>PhD z umělé inteligence</t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
@@ -9543,6 +9493,11 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
           <t>Praha</t>
@@ -9550,27 +9505,22 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>09/10/2024</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>IT&amp;Data Sub-Cluster Manager</t>
         </is>
       </c>
       <c r="D249" s="3" t="inlineStr">
@@ -9578,34 +9528,39 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Ontex IT &amp; DATA</t>
+        </is>
+      </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Praha 5-Smíchov</t>
+          <t>Turnov</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>08/28/2024</t>
+          <t>2024-09-23T21:55:58Z</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Azure Data Engineer</t>
+          <t>Data Scientist- Remote CZ</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
@@ -9613,29 +9568,39 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Quadient</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Hradec Kralove</t>
+        </is>
+      </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>09/05/2024</t>
+          <t>2024-09-22T00:08:45Z</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>DataOps Engineer (Matillion)</t>
+          <t>Data Architect</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
@@ -9643,29 +9608,44 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>ThreatMark</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>09/05/2024</t>
+          <t>2024-09-16T14:14:05Z</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Boosted</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Angular Developer/ka pro tým Data Insight Advisory</t>
+          <t>Data Specialist</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
@@ -9673,6 +9653,11 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>MSF Shared IT Services</t>
+        </is>
+      </c>
       <c r="F252" t="inlineStr">
         <is>
           <t>Prague</t>
@@ -9680,27 +9665,27 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>08/29/2024</t>
+          <t>2024-09-16T11:10:14Z</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Product Owner (Power BI platform)</t>
+          <t>Sales Executive for NNIT Life Sciences Data Services</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
@@ -9708,34 +9693,39 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>NNIT Czech</t>
+        </is>
+      </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Praha 2-Nové Město</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>2024-09-16T08:42:14Z</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Senior Data Engineer (DBT+SQL)</t>
+          <t>Data Catalog Administrator (f/m/d)</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
@@ -9743,6 +9733,11 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Deutsche Börse Group Prague</t>
+        </is>
+      </c>
       <c r="F254" t="inlineStr">
         <is>
           <t>Prague</t>
@@ -9750,27 +9745,27 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>07/15/2024</t>
+          <t>2024-09-13T22:47:53Z</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>Data Engineer- Remote CZ</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
@@ -9778,19 +9773,24 @@
           <t>link</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Quadient</t>
+        </is>
+      </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>04/19/2024</t>
+          <t>2024-09-11T00:42:55Z</t>
         </is>
       </c>
     </row>
@@ -9801,11 +9801,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Data Architect</t>
+          <t>BI Data Analyst</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ThreatMark</t>
+          <t>Notino</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -9830,12 +9830,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2024-09-16T14:14:05Z</t>
-        </is>
-      </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>Boosted</t>
+          <t>2024-09-05T22:45:47Z</t>
         </is>
       </c>
     </row>
@@ -9846,11 +9841,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Data Specialist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
@@ -9860,7 +9855,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>MSF Shared IT Services</t>
+          <t>Publicis Groupe CZ</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -9875,7 +9870,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2024-09-16T11:10:14Z</t>
+          <t>2024-09-05T22:35:14Z</t>
         </is>
       </c>
     </row>
@@ -9886,11 +9881,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Sales Executive for NNIT Life Sciences Data Services</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
@@ -9900,7 +9895,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>NNIT Czech</t>
+          <t>Publicis Groupe CZ</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -9915,7 +9910,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2024-09-16T08:42:14Z</t>
+          <t>2024-09-05T22:35:14Z</t>
         </is>
       </c>
     </row>
@@ -9926,11 +9921,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Data Catalog Administrator (f/m/d)</t>
+          <t>Project Data Validator with Italian language</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
@@ -9940,7 +9935,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Ipsos</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9950,12 +9945,12 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>part_time</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2024-09-13T22:47:53Z</t>
+          <t>2024-09-05T07:49:43Z</t>
         </is>
       </c>
     </row>
@@ -9966,11 +9961,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Data Engineer- Remote CZ</t>
+          <t>HR Data expert</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
@@ -9980,12 +9975,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Quadient</t>
+          <t>Česká pošta</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9995,7 +9990,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2024-09-11T00:42:55Z</t>
+          <t>2024-08-30T00:36:02Z</t>
         </is>
       </c>
     </row>
@@ -10006,11 +10001,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>BI Data Analyst</t>
+          <t>Data pro komunikaci - Firemní klienti - produktový designér</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
@@ -10020,12 +10015,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Notino</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -10035,7 +10030,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2024-09-05T22:45:47Z</t>
+          <t>2024-08-29T00:18:58Z</t>
         </is>
       </c>
     </row>
@@ -10046,11 +10041,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Scientist (m/ž)</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
@@ -10060,7 +10055,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Publicis Groupe CZ</t>
+          <t>Kooperativa</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -10075,7 +10070,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2024-09-05T22:35:14Z</t>
+          <t>2024-08-28T01:12:57Z</t>
         </is>
       </c>
     </row>
@@ -10086,11 +10081,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Software Developer - Risk Data Management Services (f/m/d)</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
@@ -10100,7 +10095,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Publicis Groupe CZ</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -10115,7 +10110,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2024-09-05T22:35:14Z</t>
+          <t>2024-08-24T22:32:20Z</t>
         </is>
       </c>
     </row>
@@ -10126,11 +10121,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Project Data Validator with Italian language</t>
+          <t>Data Management and Governance Specialist (f/m/d)</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
@@ -10140,7 +10135,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ipsos</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -10150,12 +10145,12 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>part_time</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2024-09-05T07:49:43Z</t>
+          <t>2024-08-23T22:35:36Z</t>
         </is>
       </c>
     </row>
@@ -10166,11 +10161,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>HR Data expert</t>
+          <t>Data Scientist - Risk Design (f/m/d)</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
@@ -10180,7 +10175,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Česká pošta</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -10195,7 +10190,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2024-08-30T00:36:02Z</t>
+          <t>2024-08-16T22:27:13Z</t>
         </is>
       </c>
     </row>
@@ -10206,11 +10201,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Data pro komunikaci - Firemní klienti - produktový designér</t>
+          <t>Datalake Platform Engineer</t>
         </is>
       </c>
       <c r="D266" s="3" t="inlineStr">
@@ -10220,7 +10215,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Česká spořitelna</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -10235,7 +10230,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2024-08-29T00:18:58Z</t>
+          <t>2024-08-01T22:08:57Z</t>
         </is>
       </c>
     </row>
@@ -10246,11 +10241,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Data Scientist (m/ž)</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
@@ -10260,7 +10255,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Kooperativa</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -10275,7 +10270,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2024-08-28T01:12:57Z</t>
+          <t>2024-07-31T22:09:04Z</t>
         </is>
       </c>
     </row>
@@ -10286,11 +10281,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Software Developer - Risk Data Management Services (f/m/d)</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
@@ -10300,7 +10295,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Livesport</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -10315,7 +10310,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2024-08-24T22:32:20Z</t>
+          <t>2024-09-19T23:49:24Z</t>
         </is>
       </c>
     </row>
@@ -10326,11 +10321,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Data Management and Governance Specialist (f/m/d)</t>
+          <t>Datový analytik do týmů chatbotů</t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
@@ -10340,7 +10335,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -10355,7 +10350,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2024-08-23T22:35:36Z</t>
+          <t>2024-09-25T00:28:49Z</t>
         </is>
       </c>
     </row>
@@ -10366,11 +10361,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Data Scientist - Risk Design (f/m/d)</t>
+          <t>AI Architect</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
@@ -10380,7 +10375,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -10395,7 +10390,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2024-08-16T22:27:13Z</t>
+          <t>2024-08-30T00:28:27Z</t>
         </is>
       </c>
     </row>
@@ -10406,11 +10401,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Datalake Platform Engineer</t>
+          <t>AI Specialista</t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
@@ -10420,12 +10415,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>Česká pošta</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Usti Nad Labem</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -10435,7 +10430,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2024-08-01T22:08:57Z</t>
+          <t>2024-09-20T00:47:58Z</t>
         </is>
       </c>
     </row>
@@ -10446,11 +10441,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Azure Data Engineer</t>
+          <t>BI ANALYST - ESIF</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
@@ -10460,7 +10455,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>Raiffeisenbank</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -10475,7 +10470,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2024-07-31T22:09:04Z</t>
+          <t>2024-09-19T01:19:13Z</t>
         </is>
       </c>
     </row>
@@ -10486,11 +10481,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Data Scientist- Remote CZ</t>
+          <t>Podpora auditů, informační bezpečnosti a ochrany dat - poloviční úvazek</t>
         </is>
       </c>
       <c r="D273" s="3" t="inlineStr">
@@ -10500,12 +10495,12 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Quadient</t>
+          <t>MANN+HUMMEL Service (Shared Service Centre)</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10515,22 +10510,22 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2024-07-24T01:27:47Z</t>
+          <t>2024-09-17T12:20:27Z</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="D274" s="3" t="inlineStr">
@@ -10538,39 +10533,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Livesport</t>
-        </is>
-      </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha 5-Smíchov</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2024-09-19T23:49:24Z</t>
+          <t>09/09/2024</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Databázový specialista (m/ž)</t>
+          <t>Angular Developer/ka pro tým Data Insight Advisory</t>
         </is>
       </c>
       <c r="D275" s="3" t="inlineStr">
@@ -10578,39 +10568,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Kooperativa</t>
-        </is>
-      </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2024-08-23T01:30:32Z</t>
+          <t>08/29/2024</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>AI Architect</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D276" s="3" t="inlineStr">
@@ -10618,11 +10603,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Česká spořitelna</t>
-        </is>
-      </c>
       <c r="F276" t="inlineStr">
         <is>
           <t>Prague</t>
@@ -10630,27 +10610,27 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Permanent</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2024-08-30T00:28:27Z</t>
+          <t>09/03/2024</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>AI Specialista</t>
+          <t>Data Platform Engineer</t>
         </is>
       </c>
       <c r="D277" s="3" t="inlineStr">
@@ -10658,39 +10638,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Česká pošta</t>
-        </is>
-      </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Usti Nad Labem</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2024-09-20T00:47:58Z</t>
+          <t>09/10/2024</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>BI ANALYST - ESIF</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D278" s="3" t="inlineStr">
@@ -10698,39 +10673,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Raiffeisenbank</t>
-        </is>
-      </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha 5-Smíchov</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2024-09-19T01:19:13Z</t>
+          <t>08/28/2024</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Podpora auditů, informační bezpečnosti a ochrany dat - poloviční úvazek</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D279" s="3" t="inlineStr">
@@ -10738,24 +10708,184 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>MANN+HUMMEL Service (Shared Service Centre)</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Brno</t>
-        </is>
-      </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2024-09-17T12:20:27Z</t>
+          <t>09/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>fproof.eu</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>7</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>DataOps Engineer (Matillion)</t>
+        </is>
+      </c>
+      <c r="D280" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Freelance</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>09/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>fproof.eu</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>8</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Product Owner (Power BI platform)</t>
+        </is>
+      </c>
+      <c r="D281" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Praha 2-Nové Město</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Freelance</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>08/14/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>fproof.eu</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>9</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer (DBT+SQL)</t>
+        </is>
+      </c>
+      <c r="D282" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Freelance</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>07/15/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>fproof.eu</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>10</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Power BI Developer</t>
+        </is>
+      </c>
+      <c r="D283" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Freelance</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>04/19/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Database Developer</t>
+        </is>
+      </c>
+      <c r="D284" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>110 000 CZK</t>
         </is>
       </c>
     </row>
@@ -11039,6 +11169,11 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D277" r:id="rId276"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D278" r:id="rId277"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D279" r:id="rId278"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D280" r:id="rId279"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D281" r:id="rId280"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D282" r:id="rId281"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D283" r:id="rId282"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D284" r:id="rId283"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/jobs.xlsx
+++ b/output/jobs.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J284"/>
+  <dimension ref="A1:J273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,7 +630,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -770,12 +775,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>24. září</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -815,12 +815,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>24. září</t>
         </is>
       </c>
     </row>
@@ -890,7 +885,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -925,7 +920,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1320,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Data Scientist (m/ž)</t>
+          <t>Data engineer - Technology consulting</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1335,17 +1330,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kooperativa pojišťovna, a.s., VIG</t>
+          <t>PricewaterhouseCoopers Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>8. září</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1355,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Data engineer - Technology consulting</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1370,17 +1365,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PricewaterhouseCoopers Česká republika, s.r.o.</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8. září</t>
+          <t>31. srpna</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1390,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Azure Data Engineer</t>
+          <t>Senior DWH/Big Data Engineer/Developer</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1405,17 +1400,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>31. srpna</t>
+          <t>24. září</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1425,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Senior DWH/Big Data Engineer/Developer</t>
+          <t>Power BI Developer/Analyst</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1440,22 +1435,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>Unicorn</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1460,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Data Engineer pro Daily Banking Tribe (m/ž)</t>
+          <t>DS/ML/AI Lead Engineer</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1480,17 +1470,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>Profinit EU, s.r.o.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Končí za hodinu</t>
+          <t>15. září</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1495,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Power BI Developer/Analyst</t>
+          <t>SW Engineer AI / ML – Senior (m/ž)</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1515,17 +1505,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Unicorn</t>
+          <t>O2 Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1530,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DS/ML/AI Lead Engineer</t>
+          <t>Global Master Data Manager (all genders)</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1550,7 +1540,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Profinit EU, s.r.o.</t>
+          <t>Schleich GmbH</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1560,7 +1550,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1570,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SW Engineer AI / ML – Senior (m/ž)</t>
+          <t>Trainee program do oblasti řízení kvality dat (m/ž)</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1585,12 +1580,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>O2 Czech Republic a.s.</t>
+          <t>ČSOB Československá obchodní banka, a. s.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Hlavní město Praha + 2 další lokality</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1610,7 +1605,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Trainee program do oblasti řízení kvality dat (m/ž)</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1620,17 +1615,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ČSOB Československá obchodní banka, a. s.</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hlavní město Praha + 2 další lokality</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1640,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Digital data marketing specialist</t>
+          <t>Specialista správy dat</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1655,17 +1650,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VLTAVA LABE MEDIA a.s.</t>
+          <t>ČEZ, a. s.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1675,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Expert Master Data Management (all genders)</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1690,17 +1685,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>Schleich GmbH</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1710,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Specialista správy dat</t>
+          <t>Marketing Data Specialist - firemní klienti</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1725,7 +1720,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ČEZ, a. s.</t>
+          <t>Česká spořitelna, a.s.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1735,7 +1730,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Expert Master Data Management (all genders)</t>
+          <t>Data Team Lead - Data engineering/ML/AI , až 95% Home office, HPP/IČO</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Schleich GmbH</t>
+          <t>BARTON Consulting s.r.o.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1771,6 +1771,11 @@
       <c r="H36" t="inlineStr">
         <is>
           <t>23. září</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>100 000 ‍–‍ 160 000 Kč</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Data Team Lead - Data engineering/ML/AI , až 95% Home office, HPP/IČO</t>
+          <t>Expert Master Data Management (all genders)</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1795,7 +1800,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BARTON Consulting s.r.o.</t>
+          <t>Schleich GmbH</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1805,12 +1810,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23. září</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>100 000 ‍–‍ 160 000 Kč</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Expert Master Data Management (all genders)</t>
+          <t>Python Developer - Data engineering, až 100% home-office</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Schleich GmbH</t>
+          <t>BARTON Consulting s.r.o.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Python Developer - Data engineering, až 100% home-office</t>
+          <t>SW Engineer for AI Centre (m/f)</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1870,17 +1870,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BARTON Consulting s.r.o.</t>
+          <t>O2 Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SW Engineer for AI Centre (m/f)</t>
+          <t>Python Developer (Football data &amp; AI focus)</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1905,17 +1905,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>O2 Czech Republic a.s.</t>
+          <t>Stats Perform</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Python Developer (Football data &amp; AI focus)</t>
+          <t>Blockchain Intelligence Analyst / BigData Analyst / Python</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1940,17 +1940,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Stats Perform</t>
+          <t>Podproza s.r.o.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Staré Město</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Blockchain Intelligence Analyst / BigData Analyst / Python</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1975,17 +1975,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Podproza s.r.o.</t>
+          <t>DoDo Czech s.r.o.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Praha – Staré Město</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Scientist pro VML</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -2010,17 +2010,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DoDo Czech s.r.o.</t>
+          <t>Wunderman Thompson</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>30. srpna</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Data Scientist pro VML</t>
+          <t>Lead Data Scientist (JPO26127)</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Wunderman Thompson</t>
+          <t>Alza.cz a.s.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lead Data Scientist (JPO26127)</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -2080,17 +2080,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Alza.cz a.s.</t>
+          <t>Gen Digital(Avast)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Praha – Nusle + 1 další lokalita</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2110,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Scientist for movies and TV series - Nova AI Centre</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -2115,17 +2120,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Gen Digital(Avast)</t>
+          <t>TV Nova s.r.o.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Praha – Nusle + 1 další lokalita</t>
+          <t>Praha – Hlubočepy</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2145,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Data Scientist for movies and TV series - Nova AI Centre</t>
+          <t>Data scientist</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -2150,17 +2155,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TV Nova s.r.o.</t>
+          <t>ČSOB Pojišťovna, a. s., člen holdingu ČSOB</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Praha – Hlubočepy</t>
+          <t>Praha – Radlice + 1 další lokalita</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>31. srpna</t>
+          <t>3. září</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2180,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Data scientist</t>
+          <t>“QUANTITATIVE TRADER” / “DATA SCIENCE TRADER”  - INTRADAY TRADING</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -2185,17 +2190,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ČSOB Pojišťovna, a. s., člen holdingu ČSOB</t>
+          <t>ČEZ, a. s.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Praha – Radlice + 1 další lokalita</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3. září</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2215,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>“QUANTITATIVE TRADER” / “DATA SCIENCE TRADER”  - INTRADAY TRADING</t>
+          <t>Operations BI Analyst</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -2220,22 +2225,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ČEZ, a. s.</t>
+          <t>Košík.cz s.r.o.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Horní Počernice</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Přidáno dnes</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Operations BI Analyst</t>
+          <t>Datový analytik v oddělení LOGISTIKY (JPO15609)</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -2260,17 +2260,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Košík.cz s.r.o.</t>
+          <t>Alza.cz a.s.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Praha – Horní Počernice</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>30. srpna</t>
+          <t>16. září</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Datový analytik v oddělení LOGISTIKY (JPO15609)</t>
+          <t>Datový analytik - logistika laboratoře</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -2295,17 +2295,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Alza.cz a.s.</t>
+          <t>Unilabs Diagnostics k.s.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Praha – Vokovice</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>Končí zítra</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 80 000 Kč</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2325,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Datový analytik - logistika laboratoře</t>
+          <t>Datový analytik pro statistiku mikrodat (AnaCredit)</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2330,22 +2335,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Unilabs Diagnostics k.s.</t>
+          <t>ČESKÁ NÁRODNÍ BANKA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Praha – Vokovice</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>29. srpna</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 80 000 Kč</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Datový analytik pro statistiku mikrodat (AnaCredit)</t>
+          <t>BI ANALYST - ESIF</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ČESKÁ NÁRODNÍ BANKA</t>
+          <t>Raiffeisenbank a.s.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BI Developer (medior/senior)</t>
+          <t>BI/DWH ANALYST</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -2405,17 +2405,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SAZKA a.s.</t>
+          <t>Raiffeisenbank a.s.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Praha – Vokovice</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Končí za hodinu</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BI ANALYST - ESIF</t>
+          <t>HR Data analytik (m/ž)</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2440,17 +2440,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Raiffeisenbank a.s.</t>
+          <t>O2 Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>13. září</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BI/DWH ANALYST</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -2475,17 +2475,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Raiffeisenbank a.s.</t>
+          <t>ADASTRA, s.r.o.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HR Data analytik (m/ž)</t>
+          <t>FINANCIAL DATA ANALYST - MEZINÁRODNÍ FINANČNÍ SPOLEČNOST</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -2510,17 +2510,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>O2 Czech Republic a.s.</t>
+          <t>DRILL Business Services</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Senior Business Data Analyst</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -2545,17 +2545,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ADASTRA, s.r.o.</t>
+          <t>VIG RE zajišťovna, a.s.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Staré Město</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>3. září</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FINANCIAL DATA ANALYST - MEZINÁRODNÍ FINANČNÍ SPOLEČNOST</t>
+          <t>Data Analytik</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -2580,17 +2580,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DRILL Business Services</t>
+          <t>MAKRO Cash &amp; Carry ČR s.r.o.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Kozomín</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>22. září</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Senior Business Data Analyst</t>
+          <t>Corporate Real Estate Data Analyst</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -2615,17 +2615,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>VIG RE zajišťovna, a.s.</t>
+          <t>SGS Czech Republic, s.r.o.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Praha – Staré Město</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3. září</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Data Analytik</t>
+          <t>Data analytik/čka pro provizní řešení v KB</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -2650,17 +2650,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MAKRO Cash &amp; Carry ČR s.r.o.</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kozomín</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>22. září</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Corporate Real Estate Data Analyst</t>
+          <t>Data Analytik Junior</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -2685,17 +2685,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SGS Czech Republic, s.r.o.</t>
+          <t>MAKRO Cash &amp; Carry ČR s.r.o.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Kozomín</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>22. září</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Data analytik/čka pro provizní řešení v KB</t>
+          <t>Senior BI Specialist (QlikSense)</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2720,17 +2720,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>EMARK s.r.o.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>25. září</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 95 000 Kč</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2750,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Data Analytik Junior</t>
+          <t>BI DELIVERY MANAGER</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2755,17 +2760,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MAKRO Cash &amp; Carry ČR s.r.o.</t>
+          <t>Raiffeisenbank a.s.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kozomín</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>22. září</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2785,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Senior BI Specialist (QlikSense)</t>
+          <t>Senior Data Analyst</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2790,7 +2795,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>EMARK s.r.o.</t>
+          <t>CTP Invest, spol. s r.o.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2800,12 +2805,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 95 000 Kč</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BI DELIVERY MANAGER</t>
+          <t>📈 PROJECT MANAGER / DATA &amp; BUSINESS ANALYST / farmaceutická firma</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2830,17 +2830,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Raiffeisenbank a.s.</t>
+          <t>Pharmonia s.r.o.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Senior Data Analyst</t>
+          <t>Data Engineer pro VML</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2865,17 +2865,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CTP Invest, spol. s r.o.</t>
+          <t>Wunderman Thompson</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>📈 PROJECT MANAGER / DATA &amp; BUSINESS ANALYST / farmaceutická firma</t>
+          <t>Datawarehouse SQL Developer/Analyst pro Risk management (Medior/Senior)</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pharmonia s.r.o.</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Data Engineer pro VML</t>
+          <t>Software Engineer, Clinical Data Management (R304682)</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2935,17 +2935,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Wunderman Thompson</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Software Engineer, Clinical Data Management (R304682)</t>
+          <t>Data Center Senior Engineer</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2970,17 +2970,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>Vodafone Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2995,7 +3000,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Data Center Senior Engineer</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -3005,17 +3010,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Vodafone Czech Republic a.s.</t>
+          <t>W.A.G. payment solutions, a.s.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Končí za hodinu</t>
+          <t>11. září</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3035,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Datawarehouse SQL Developer/Analyst pro Risk management (Medior/Senior)</t>
+          <t>Group Product Data Analyst</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -3040,17 +3045,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>Fortuna Group</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>3. září</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3070,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Group Data Analyst</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -3075,17 +3080,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>W.A.G. payment solutions, a.s.</t>
+          <t>Fortuna Group</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>11. září</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3105,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Group Product Data Analyst</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -3110,17 +3115,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fortuna Group</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3. září</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3140,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Group Data Analyst</t>
+          <t>Data analytik – Daně</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -3145,17 +3150,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Fortuna Group</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3175,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data analyst</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -3180,17 +3185,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>ČSOB Pojišťovna, a. s., člen holdingu ČSOB</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Radlice + 1 další lokalita</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3210,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Data analytik – Daně</t>
+          <t>⋙ Datový specialista - částečný home office ⋘</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -3215,17 +3220,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>mBlue Czech, s.r.o.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Slaný</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3245,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Data analyst</t>
+          <t>Databázový administrátor/ka  - MS SQL</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -3250,17 +3255,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ČSOB Pojišťovna, a. s., člen holdingu ČSOB</t>
+          <t>Bezpečnostní informační služba</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Praha – Radlice + 1 další lokalita</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3280,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>⋙ Datový specialista - částečný home office ⋘</t>
+          <t>Senior Data Developer</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -3285,17 +3290,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>mBlue Czech, s.r.o.</t>
+          <t>Česká spořitelna, a.s.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Slaný</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>4. září</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3315,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Databázový administrátor/ka  - MS SQL</t>
+          <t>BUSINESS INTELLIGENCE/DWH DEVELOPER</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -3320,17 +3325,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bezpečnostní informační služba</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>24. září</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3350,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Senior Data Developer</t>
+          <t>Data Specialist</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -3355,17 +3360,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Česká spořitelna, a.s.</t>
+          <t>MSF Shared IT Services, z.s.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>4. září</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3385,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Specialista HR dat a optimalizace procesů s přesahem do odměňování a benefitů</t>
+          <t>Data &amp; Sales Assistant - 32 h/week</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -3390,17 +3395,22 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>mBank</t>
+          <t>Hays Czech Republic, s.r.o.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Končí za hodinu</t>
+          <t>9. září</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>32 000 ‍–‍ 36 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3425,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BUSINESS INTELLIGENCE/DWH DEVELOPER</t>
+          <t>Data Integration Specialist</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -3425,22 +3435,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Accace Circle a.s.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3460,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Data Specialist</t>
+          <t>⭕ Business Data Support - Praha</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -3465,17 +3470,22 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MSF Shared IT Services, z.s.</t>
+          <t>ProfesKontakt, s.r.o.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>16. září</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>40 000 ‍–‍ 80 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3500,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Data &amp; Sales Assistant - 32 h/week</t>
+          <t>IT Data &amp; Reporting Specialist (Power BI)</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -3500,22 +3510,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hays Czech Republic, s.r.o.</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>okres Praha + 3 další lokality</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>9. září</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>32 000 ‍–‍ 36 000 Kč</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3535,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Data Integration Specialist</t>
+          <t>HR Data expert</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -3540,22 +3545,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Accace Circle a.s.</t>
+          <t>Česká pošta, s.p.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Malešice</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Přidáno dnes</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>16. září</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>⭕ Business Data Support - Praha</t>
+          <t>DIGITAL SPECIALIST DATA - JUNIOR</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -3580,22 +3580,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ProfesKontakt, s.r.o.</t>
+          <t>MEDIA MARKETING SERVICES a.s.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Hlavní město Praha</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>16. září</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>40 000 ‍–‍ 80 000 Kč</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3605,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>HR Data expert</t>
+          <t>Data a CRM Manager</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -3620,17 +3615,22 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Česká pošta, s.p.</t>
+          <t>Bezvavlasy a.s.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Praha – Malešice</t>
+          <t>Praha – Libeň</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>16. září</t>
+          <t>Aktualizováno včera</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>60 000 ‍–‍ 75 000 Kč</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BI Specialist</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3655,17 +3655,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CETIN a.s.</t>
+          <t>MEDIA FACTORY GROUP Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Žižkov</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DIGITAL SPECIALIST DATA - JUNIOR</t>
+          <t>ANALYTIK REPORTINGU</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -3690,17 +3690,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MEDIA MARKETING SERVICES a.s.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sales &amp; Data Management Intern</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Tribe.xyz Czech s.r.o.</t>
+          <t>ÚSTAV ZDRAVOTNICKÝCH INFORMACÍ A STATISTIKY ČR</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3735,12 +3735,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>8 000 ‍–‍ 10 000 Kč</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Data a CRM Manager</t>
+          <t>BI Analytik/Analytička pro skupinu Ambiente</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3765,22 +3765,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Bezvavlasy a.s.</t>
+          <t>AMBI CZ, s.r.o.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Praha – Libeň</t>
+          <t>Praha – Josefov</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>19. září</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>60 000 ‍–‍ 75 000 Kč</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3790,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>BUSINESS DATOVÝ ANALYTIK</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -3805,17 +3800,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MEDIA FACTORY GROUP Czech Republic a.s.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Praha – Žižkov</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3825,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ANALYTIK REPORTINGU</t>
+          <t>BI ANALYTIK</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3840,17 +3835,22 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Technická správa komunikací hl. m. Prahy, a.s.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BI Analytik/Analytička pro skupinu Ambiente</t>
+          <t>Datový analytik - senior</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3875,17 +3875,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>AMBI CZ, s.r.o.</t>
+          <t>LOGSENSE s.r.o.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Praha – Josefov</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Datový analytik pro Mapy.cz</t>
+          <t>Datový analytik / analytička</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3910,17 +3910,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Seznam.cz, a.s.</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Vinohrady</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BUSINESS DATOVÝ ANALYTIK</t>
+          <t>Datový analytik do týmů chatbotů</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3945,17 +3945,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>Česká spořitelna, a.s.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>24. září</t>
         </is>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Datový analytik - senior</t>
+          <t>Node.js Developer pražských dat (m/ž)</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -3980,17 +3980,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LOGSENSE s.r.o.</t>
+          <t>Operátor ICT, a. s.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Holešovice</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Datový analytik / analytička</t>
+          <t>Internship datový analytik - Financial Accounting Advisory Services</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -4015,17 +4015,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>8. září</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Datový analytik do týmů chatbotů</t>
+          <t>Junior datový analytik - Financial Accounting Advisory Services</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -4050,22 +4050,22 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Česká spořitelna, a.s.</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>8. září</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>46 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Node.js Developer pražských dat (m/ž)</t>
+          <t>Datalake Platform Engineer</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -4090,17 +4090,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Operátor ICT, a. s.</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Praha – Holešovice</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>1. září</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Internship datový analytik - Financial Accounting Advisory Services</t>
+          <t>Datový analytik - modelář</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>Institut pro regulaci hazardních her z.s.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>8. září</t>
+          <t>24. září</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Junior datový analytik - Financial Accounting Advisory Services</t>
+          <t>SPECIALISTA/ANALYTIK REGULATORNÍHO REPORTINGU</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -4160,22 +4160,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EY</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>8. září</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>46 000 Kč</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4185,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Datalake Platform Engineer</t>
+          <t>Senior MS SQL Database Engineer - Innovate in Counterparty Risk</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -4200,17 +4195,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1. září</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4220,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Datový analytik - modelář</t>
+          <t>C++ Engineer - Mid/Senior for AI</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -4235,22 +4230,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Institut pro regulaci hazardních her z.s.</t>
+          <t>Bohemia Interactive Simulations k.s.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4255,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Datový analytik komerčního bankovnictví digital – Praha</t>
+          <t>Business Consultant – Digital Transformation &amp; AI</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -4275,17 +4265,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MONETA Money Bank, a.s.</t>
+          <t>ADASTRA, s.r.o.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Končí za hodinu</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4290,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SPECIALISTA/ANALYTIK REGULATORNÍHO REPORTINGU</t>
+          <t>HVAC Business Intelligence Analyst</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -4310,17 +4300,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>ČEZ, a. s.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>13. září</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4325,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Senior MS SQL Database Engineer - Innovate in Counterparty Risk</t>
+          <t>Client BI Solutions Analyst</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -4345,17 +4335,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
+          <t>International SOS</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4360,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C++ Engineer - Mid/Senior for AI</t>
+          <t>Datový analytik/datová analytička v odboru Výkaznictví státu</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -4380,17 +4370,22 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bohemia Interactive Simulations k.s.</t>
+          <t>Ministerstvo financí</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Malá Strana</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>25. září</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>34 840 ‍–‍ 51 530 Kč</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4400,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Business Consultant – Digital Transformation &amp; AI</t>
+          <t>Datový analytik/čka – Modelář</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -4415,17 +4410,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ADASTRA, s.r.o.</t>
+          <t>ČEPS, a.s.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -4440,7 +4435,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>HVAC Business Intelligence Analyst</t>
+          <t>Business Consultant – Digital Transformation &amp; AI</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -4450,17 +4445,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ČEZ, a. s.</t>
+          <t>ADASTRA, s.r.o.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4470,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Client BI Solutions Analyst</t>
+          <t>AI Product Consultant</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -4485,17 +4480,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>International SOS</t>
+          <t>Profinit EU, s.r.o.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>24. září</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4505,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Datový analytik/datová analytička v odboru Výkaznictví státu</t>
+          <t>SPECIALISTA REPORTINGU &amp; ANALÝZ</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -4520,22 +4515,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ministerstvo financí</t>
+          <t>BENU Česká republika s.r.o.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Praha – Malá Strana</t>
+          <t>Praha – Hostivař</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>34 840 ‍–‍ 51 530 Kč</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4540,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Information Security Reporting Analyst</t>
+          <t>(SENIOR) SPECIALISTA COREP REPORTINGU</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -4560,17 +4550,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>COMMERZBANK Aktiengesellschaft, pobočka Praha</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Praha – Vinohrady</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4585,7 +4575,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Datový analytik/čka – Modelář</t>
+          <t>Specialist(k)a regulatorního reportingu</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4595,17 +4585,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ČEPS, a.s.</t>
+          <t>UNIQA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Vokovice</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>29. srpna</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4610,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>AI Product Consultant</t>
+          <t>Specialista pro reporting, konsolidaci a datové analýzy</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4630,22 +4620,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Profinit EU, s.r.o.</t>
+          <t>Pražská energetika, a.s.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Vršovice</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4645,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Konzultant SAP BW / POWER BI (M/Ž)</t>
+          <t>Specialista datových analýz – Praha 9, Horní Počernice</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4670,17 +4655,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Pražská plynárenská, a.s.</t>
+          <t>Axial Personnel Agency, s.r.o.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>okres Praha-východ</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Končí za hodinu</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4680,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SPECIALISTA REPORTINGU &amp; ANALÝZ</t>
+          <t>SPECIALISTA (ESG) REPORTINGU</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -4705,17 +4690,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>BENU Česká republika s.r.o.</t>
+          <t>AGROFERT, a.s.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Praha – Hostivař</t>
+          <t>Praha – Chodov</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>Přidáno před hodinou</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4715,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>(SENIOR) SPECIALISTA COREP REPORTINGU</t>
+          <t>Specialista reportingu a controllingu</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4740,17 +4725,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>ECOVIS FACTA a.s.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Krč</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4750,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Specialist(k)a regulatorního reportingu</t>
+          <t>Elektroinženýr - Buďte součástí AI revoluce!</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4775,17 +4760,22 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>UNIQA</t>
+          <t>Luxonis</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Praha – Vokovice</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>22. září</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>90 000 ‍–‍ 120 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4790,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Specialista pro reporting, konsolidaci a datové analýzy</t>
+          <t>Business Intelligence Lead</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4810,17 +4800,17 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Pražská energetika, a.s.</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Praha – Vršovice</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4825,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Specialista datových analýz – Praha 9, Horní Počernice</t>
+          <t>Senior Specialist, AI Engineering (R302759)</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4845,17 +4835,17 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Axial Personnel Agency, s.r.o.</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>okres Praha-východ</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4860,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Specialista reportingu a controllingu</t>
+          <t>Specialist, AI Engineering (R302756 )</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4880,17 +4870,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ECOVIS FACTA a.s.</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Praha – Krč</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4895,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SPECIALISTA (ESG) REPORTINGU</t>
+          <t>Data Engineer / IT Konzultant  (high-tech data company)</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4915,17 +4905,22 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>AGROFERT, a.s.</t>
+          <t>CloverDX Labs s.r.o.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Praha – Chodov</t>
+          <t>Brno – Zábrdovice</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>25. září</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>60 000 ‍–‍ 120 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4935,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Manažer/ka controllingu (finance, controlling, reporting)</t>
+          <t>Data Scientist Junior</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4950,17 +4945,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TETA drogerie (Solvent ČR s.r.o.)</t>
+          <t>Home Credit a.s.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno – Staré Brno</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Končí za hodinu</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4970,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DevOps Inženýr/ka pro datové sklady</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -4985,17 +4980,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MONETA Money Bank, a.s.</t>
+          <t>Marmon Foodservice Manufacturing s.r.o.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno – Tuřany</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Končí za hodinu</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -5010,7 +5005,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Elektroinženýr - Buďte součástí AI revoluce!</t>
+          <t>Sustainability Data Analyst / Data Architect</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -5020,22 +5015,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Luxonis</t>
+          <t>MANN+HUMMEL Service s.r.o. – Shared Service Centre</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>22. září</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>90 000 ‍–‍ 120 000 Kč</t>
+          <t>4. září</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5040,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Business Intelligence Lead</t>
+          <t>BI Data Analyst</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -5060,17 +5050,17 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>Notino s.r.o.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Brno – Štýřice</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5075,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Senior Specialist, AI Engineering (R302759)</t>
+          <t>Business Intelligence Data Engineer</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -5095,17 +5085,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>11. září</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5110,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Specialist, AI Engineering (R302756 )</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -5130,17 +5120,22 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>Gen Digital(Avast)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Brno – Trnitá + 1 další lokalita</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5150,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>IT Project Manager - Implementace / Power BI</t>
+          <t>Datový analytik/Datová analytička v oboru bioinformatika</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -5165,17 +5160,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Farkasova International s.r.o.</t>
+          <t>Masarykova univerzita</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno – Bohunice</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -5190,7 +5185,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Data Engineer / IT Konzultant  (high-tech data company)</t>
+          <t>Online Data Analyst</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -5200,22 +5195,17 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CloverDX Labs s.r.o.</t>
+          <t>TELUS International AI</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Brno – Zábrdovice</t>
+          <t>Brno – Brno-město</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aktualizováno dnes</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>60 000 ‍–‍ 120 000 Kč</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5220,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Data Scientist Junior</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -5240,17 +5230,17 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Home Credit a.s.</t>
+          <t>FABORY Czech s.r.o.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Brno – Staré Brno</t>
+          <t>Šlapanice</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5275,17 +5265,17 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Marmon Foodservice Manufacturing s.r.o.</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Brno – Tuřany</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5290,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sustainability Data Analyst / Data Architect</t>
+          <t>Senior Sustainability Data Analyst</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -5310,17 +5300,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MANN+HUMMEL Service s.r.o. – Shared Service Centre</t>
+          <t>Atlas Copco Services s.r.o.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Brno – Štýřice</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>4. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5325,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BI Data Analyst</t>
+          <t>Master Data Specialist - Standard Cost / Item Creations &amp; Maintenance</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -5345,17 +5335,17 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Notino s.r.o.</t>
+          <t>Ingersoll Rand</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Brno – Štýřice</t>
+          <t>Brno – Žabovřesky</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5360,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Business Intelligence Data Engineer</t>
+          <t>Datový analytik (bonusy 2x ročně)</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -5390,7 +5380,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>11. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5400,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Analytik Business Intelligence / BI Analyst</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -5415,17 +5410,22 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Gen Digital(Avast)</t>
+          <t>AG FOODS Group a.s.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Brno – Trnitá + 1 další lokalita</t>
+          <t>Velká Bíteš – Košíkov</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>Končí za 15 hodin</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 65 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Datový analytik/Datová analytička v oboru bioinformatika</t>
+          <t>STÁŽ pro studenty - datové analytiky</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -5450,17 +5450,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Masarykova univerzita</t>
+          <t>Úřad pro ochranu hospodářské soutěže</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Brno – Bohunice</t>
+          <t>Brno – Černá Pole</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Online Data Analyst</t>
+          <t>Stážista v oddělení Business Excellence (Reporting &amp; Datová analýza)</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -5485,17 +5485,22 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TELUS International AI</t>
+          <t>Angelini Pharma Česká republika s.r.o.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Brno – Brno-město</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>9. září</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>25 000 ‍–‍ 30 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5515,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Senior BI Developer</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -5520,17 +5525,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FABORY Czech s.r.o.</t>
+          <t>IDC Central Europe, the Middle East &amp; Africa</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Šlapanice</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5550,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer (m/ž)</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -5555,22 +5560,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Přidáno dnes</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Senior Sustainability Data Analyst</t>
+          <t>Datový analytik/BI analytik</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -5595,17 +5595,17 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Atlas Copco Services s.r.o.</t>
+          <t>BANDI VAMOS a.s.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Brno – Štýřice</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Master Data Specialist - Standard Cost / Item Creations &amp; Maintenance</t>
+          <t>Data Analytics &amp; BI Specialist</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5630,17 +5630,17 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ingersoll Rand</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Brno – Žabovřesky</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Datový analytik (bonusy 2x ročně)</t>
+          <t>AI Researcher/developer</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5665,17 +5665,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>VŠB - TUO, IT4Innovations národní superpočítačové centrum</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Ostrava – Poruba</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>27. srpna</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Analytik Business Intelligence / BI Analyst</t>
+          <t>Business Intelligence Specialist - Power BI</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5700,22 +5700,17 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>AG FOODS Group a.s.</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Velká Bíteš – Košíkov</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 65 000 Kč</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5725,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>STÁŽ pro studenty - datové analytiky</t>
+          <t>HR Data Scientist</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5740,17 +5735,17 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Úřad pro ochranu hospodářské soutěže</t>
+          <t>Wacker-Chemie, s.r.o.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Brno – Černá Pole</t>
+          <t>Plzeň – Skvrňany</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5760,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Stážista v oddělení Business Excellence (Reporting &amp; Datová analýza)</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5775,37 +5770,32 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Angelini Pharma Česká republika s.r.o.</t>
+          <t>Wacker-Chemie, s.r.o.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Plzeň – Skvrňany</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>9. září</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>25 000 ‍–‍ 30 000 Kč</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Senior BI Developer</t>
+          <t>Marketing Data Analyst</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5815,32 +5805,42 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>IDC Central Europe, the Middle East &amp; Africa</t>
+          <t>Košík.cz</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ostrava</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>19. září</t>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>HOT</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>60000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Data Engineer (m/ž)</t>
+          <t>🚀 Data Engineer</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5850,32 +5850,37 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>Capital Markets Gateway (CMG)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>10. září</t>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Datový analytik/BI analytik</t>
+          <t>Data Engineer | Praha, Karlín | e-commerce big data startup</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -5885,32 +5890,37 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>BANDI VAMOS a.s.</t>
+          <t>Merchantee</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Aktualizováno dnes</t>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Data Analytics &amp; BI Specialist</t>
+          <t>Generative AI and ML Developer</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5920,32 +5930,37 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>Blindspot Solutions</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>18. září</t>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Part-time, Full-time</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>AI Researcher/developer</t>
+          <t>(Senior) Data Analyst for GLAMI.</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5955,32 +5970,37 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>VŠB - TUO, IT4Innovations národní superpočítačové centrum</t>
+          <t>GLAMI</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Ostrava – Poruba</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>20. září</t>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Business Intelligence Specialist - Power BI</t>
+          <t>Data Engineer 💻 Zázemí české společnosti, mezinárodní klienti, remote spolupráce 🤝</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -5990,32 +6010,37 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>UD4D</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>10. září</t>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>IT Specialista pro EDI výměnu dat (m/ž)</t>
+          <t>Datový Analytik/čka</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -6025,32 +6050,42 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Geis CZ s.r.o.</t>
+          <t>edwardinvest.cz</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Ejpovice</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Končí zítra</t>
+          <t>Praha, Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>HOT</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>50000 - 90000 CZK monthly</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HR Data Scientist</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -6060,32 +6095,37 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Wacker-Chemie, s.r.o.</t>
+          <t>HX Hurtigruten Expeditions</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Plzeň – Skvrňany</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>19. září</t>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Lead - Data &amp; Analytics</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -6095,17 +6135,22 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Wacker-Chemie, s.r.o.</t>
+          <t>HX Hurtigruten Expeditions</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Plzeň – Skvrňany</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Aktualizováno dnes</t>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -6116,11 +6161,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>(Senior) Data Analyst for GLAMI.</t>
+          <t>Junior/Medior Tester in a Global AI/Music Tech Startup</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -6130,7 +6175,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>GLAMI</t>
+          <t>AIMS API</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6156,11 +6201,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Data Engineer 💻 Zázemí české společnosti, mezinárodní klienti, remote spolupráce 🤝</t>
+          <t>Senior Back-End Developer (Golang) in a Global AI/Music Tech Startup</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -6170,7 +6215,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>UD4D</t>
+          <t>AIMS API</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6196,11 +6241,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Datový Analytik/čka</t>
+          <t>Datový integrátor 📊</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -6210,12 +6255,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>edwardinvest.cz</t>
+          <t>Logio s.r.o.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Praha, Mladá Boleslav</t>
+          <t>Praha, Brno, Hradec Králové</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6226,11 +6271,6 @@
       <c r="I160" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>50000 - 90000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6241,11 +6281,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -6255,7 +6295,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>HX Hurtigruten Expeditions</t>
+          <t>ROUVY</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6281,11 +6321,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Lead - Data &amp; Analytics</t>
+          <t>Data Analyst 📈  - Junior/Medior</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -6295,7 +6335,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>HX Hurtigruten Expeditions</t>
+          <t>eppTec</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6311,6 +6351,11 @@
       <c r="I162" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>40000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6321,11 +6366,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Junior/Medior Tester in a Global AI/Music Tech Startup</t>
+          <t>👉 Senior Data Scientist</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -6335,7 +6380,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>AIMS API</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6361,11 +6406,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Senior Back-End Developer (Golang) in a Global AI/Music Tech Startup</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -6375,7 +6420,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>AIMS API</t>
+          <t>Livesport</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6401,11 +6446,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Datový integrátor 📊</t>
+          <t>Sales Specialist – New Business Development (Datová analýza, BI a AI řešení)</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -6415,12 +6460,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Logio s.r.o.</t>
+          <t>BizzTreat</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Praha, Brno, Hradec Králové</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6441,11 +6486,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Grafik s nadšením pro AI</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -6455,7 +6500,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ROUVY</t>
+          <t>YDEAL s.r.o.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6481,11 +6526,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Data Analyst 📈  - Junior/Medior</t>
+          <t>Lead Software Engineer, Bot Builder with AI, Prague</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -6495,7 +6540,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>eppTec</t>
+          <t>NICE CXone (Brand Embassy)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6515,7 +6560,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>40000 - 70000 CZK monthly</t>
+          <t>140000 - 160000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6526,11 +6571,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>👉 Senior Data Scientist</t>
+          <t>🐍 Python Data Engineer</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -6545,7 +6590,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 6</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6566,11 +6611,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Yield Operations Specialist (Datový &amp; performance analytik)</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -6580,7 +6625,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Livesport</t>
+          <t>R2B2 a.s.</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6606,11 +6651,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Sales Specialist – New Business Development (Datová analýza, BI a AI řešení)</t>
+          <t>Machine Learning Data Annotator (Ideal for students/graduates) 🧑‍💻</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -6620,7 +6665,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>BizzTreat</t>
+          <t>Parrot</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6630,12 +6675,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>28000 - 56000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6646,11 +6696,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Grafik s nadšením pro AI</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -6660,7 +6710,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>YDEAL s.r.o.</t>
+          <t>Revolt BI, s.r.o.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6671,11 +6721,6 @@
       <c r="G171" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -6686,11 +6731,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Lead Software Engineer, Bot Builder with AI, Prague</t>
+          <t>Data Team Lead</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -6700,7 +6745,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>NICE CXone (Brand Embassy)</t>
+          <t>Revolt BI, s.r.o.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6711,16 +6756,6 @@
       <c r="G172" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>HOT</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>140000 - 160000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6731,11 +6766,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>🐍 Python Data Engineer</t>
+          <t>🌍 Hledá se Systémový/Deployment Engineer se znalostmi serverů a databází 🚒</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -6745,22 +6780,17 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>GINA Software s.r.o.</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Praha 6</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -6771,11 +6801,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Yield Operations Specialist (Datový &amp; performance analytik)</t>
+          <t>Data Engineer v Knihobotu 📚</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -6785,7 +6815,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>R2B2 a.s.</t>
+          <t>knihobot.cz</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6796,11 +6826,6 @@
       <c r="G174" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -6811,11 +6836,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Machine Learning Data Annotator (Ideal for students/graduates) 🧑‍💻</t>
+          <t>Junior Data Scientist</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6825,7 +6850,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Parrot</t>
+          <t>Resistant AI</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6836,16 +6861,6 @@
       <c r="G175" t="inlineStr">
         <is>
           <t>Part-time, Full-time</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>HOT</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>28000 - 56000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6856,11 +6871,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Marketing Data Analyst</t>
+          <t>Data Scientist v Knihobotu 📚</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6870,7 +6885,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Košík.cz</t>
+          <t>knihobot.cz</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6881,16 +6896,6 @@
       <c r="G176" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>HOT</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>60000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6901,11 +6906,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>🚀 Data Engineer</t>
+          <t>🔧 IT HW technik pro datacentrum v Praze 10</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6915,22 +6920,17 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Capital Markets Gateway (CMG)</t>
+          <t>CDN77</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha 10</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -6941,11 +6941,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Generative AI and ML Developer</t>
+          <t>Business Intelligence Lead</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Blindspot Solutions</t>
+          <t>Liftago</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6965,12 +6965,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>HOT</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -6981,11 +6976,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Data Team Lead</t>
+          <t>📊Senior Data Analytik v publishing biznise</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6995,17 +6990,22 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Revolt BI, s.r.o.</t>
+          <t>News and Media Holding, a.s.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>3000 - 4000 EUR monthly</t>
         </is>
       </c>
     </row>
@@ -7016,11 +7016,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>🌍 Hledá se Systémový/Deployment Engineer se znalostmi serverů a databází 🚒</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -7030,17 +7030,22 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>GINA Software s.r.o.</t>
+          <t>BigHub s.r.o.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>60000 - 130000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7051,11 +7056,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Data Engineer v Knihobotu 📚</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -7065,7 +7070,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>knihobot.cz</t>
+          <t>CONFIRMO s.r.o</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7075,7 +7080,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7086,11 +7091,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Junior Data Scientist</t>
+          <t>Neural Voice Specialist, ML Engineer</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -7100,7 +7105,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Resistant AI</t>
+          <t>PromethistAI a.s.</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7110,7 +7115,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7121,11 +7126,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Data Scientist v Knihobotu 📚</t>
+          <t>Junior DevOps (Big Data)</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -7135,7 +7140,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>knihobot.cz</t>
+          <t>Adastra, s.r.o.</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7156,11 +7161,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>🔧 IT HW technik pro datacentrum v Praze 10</t>
+          <t>Medior Data Scientist</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -7170,17 +7175,22 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CDN77</t>
+          <t>GymBeam</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Praha 10</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>50000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7191,11 +7201,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Business Intelligence Lead</t>
+          <t>AI Engineer for Space projects 🚀</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -7205,7 +7215,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Liftago</t>
+          <t>Huld s.r.o.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7215,7 +7225,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7226,11 +7236,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Senior Data Analytik v publishing biznise</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -7240,22 +7250,17 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>News and Media Holding, a.s.</t>
+          <t>HECON</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>3000 - 4000 EUR monthly</t>
         </is>
       </c>
     </row>
@@ -7266,11 +7271,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Programátor a specialista na AI prompting</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -7280,22 +7285,22 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>BigHub s.r.o.</t>
+          <t>Apertia Tech s.r.o.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha, Brno, České Budějovice, Ostrava, Zlín, Olomouc, Ústí nad Labem</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>60000 - 130000 CZK monthly</t>
+          <t>30000 - 80000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7306,11 +7311,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>👉Technical Project Lead for data &amp; AI solutions - Prague</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -7320,7 +7325,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CONFIRMO s.r.o</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7330,7 +7335,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7341,11 +7346,11 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Neural Voice Specialist, ML Engineer</t>
+          <t>Node.js Developer pražských dat (m/ž)</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -7355,7 +7360,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PromethistAI a.s.</t>
+          <t>Operátor ICT, a.s.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7376,11 +7381,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Junior DevOps (Big Data)</t>
+          <t>Backend vývojář/ka - buduj s námi nejlepší AI aplikaci na trhu</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -7390,17 +7395,22 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Adastra, s.r.o.</t>
+          <t>FV STUDIO</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>70000 - 100000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7411,11 +7421,11 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Medior Data Scientist</t>
+          <t>Digital data marketing specialist</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -7425,22 +7435,17 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>GymBeam</t>
+          <t>denik.cz</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>50000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7451,11 +7456,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>AI Engineer for Space projects 🚀</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -7465,7 +7470,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Huld s.r.o.</t>
+          <t>Slevomat.cz</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7475,7 +7480,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7491,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -7500,7 +7505,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>HECON</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7521,11 +7526,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Programátor a specialista na AI prompting</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -7535,22 +7540,17 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Apertia Tech s.r.o.</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Praha, Brno, České Budějovice, Ostrava, Zlín, Olomouc, Ústí nad Labem</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>30000 - 80000 CZK monthly</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7561,11 +7561,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>👉Technical Project Lead for data &amp; AI solutions - Prague</t>
+          <t>AI Specialist</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Twistcafe Group s.r.o.</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7596,11 +7596,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Node.js Developer pražských dat (m/ž)</t>
+          <t>🔬 DataOps specialist (Brno, Python)</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -7610,12 +7610,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Operátor ICT, a.s.</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7631,11 +7631,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Backend vývojář/ka - buduj s námi nejlepší AI aplikaci na trhu</t>
+          <t>Analytics Engineer for Data Platform team at ShipMonk</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -7645,22 +7645,17 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FV STUDIO</t>
+          <t>ShipMonk</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>70000 - 100000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7671,11 +7666,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Digital data marketing specialist</t>
+          <t>🔬 Data Analyst Medior (Python, Brno)</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -7685,17 +7680,17 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>denik.cz</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7706,11 +7701,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Data Scientist Senior 🚀</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -7720,7 +7715,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Slevomat.cz</t>
+          <t>Ematiq a.s.</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7731,6 +7726,11 @@
       <c r="G199" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>74000 - 124000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7741,11 +7741,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Konzultant pro automatizaci reportingu 🌎</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>Deepview</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7772,15 +7772,15 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>(Senior) Data Analyst</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>GLAMI</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7801,21 +7801,26 @@
       <c r="G201" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Fresh</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>AI Specialist</t>
+          <t>BI / Data Analyst</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -7825,7 +7830,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Twistcafe Group s.r.o.</t>
+          <t>Bonami</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7836,21 +7841,26 @@
       <c r="G202" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Fresh</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>🔬 DataOps specialist (Brno, Python)</t>
+          <t>E-commerce Data Analyst</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -7860,12 +7870,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7877,15 +7887,15 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Analytics Engineer for Data Platform team at ShipMonk</t>
+          <t>Datový integrátor</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -7895,32 +7905,37 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ShipMonk</t>
+          <t>LOGIO</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>🔬 Data Analyst Medior (Python, Brno)</t>
+          <t>Senior Data Platform Engineer</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -7930,32 +7945,32 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Data Scientist 🚀 (Turn raw data into usable metrics and develop new models)</t>
+          <t>Data Entry Specialist</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7965,7 +7980,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Similarweb</t>
+          <t>Realpad</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7975,27 +7990,22 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>100000 - 150000 CZK monthly</t>
+          <t>Part-time</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>💻 AI Inovátor</t>
+          <t>Administrátor/ka sběru dat | Marketingový výzkum</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -8005,7 +8015,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FakturaOnline.cz</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8015,27 +8025,22 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>300 - 800 CZK hourly</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Power BI consultant</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -8045,7 +8050,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>DataBrothers</t>
+          <t>Confirmo</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8062,15 +8067,15 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Data Scientist Senior 🚀</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -8080,37 +8085,32 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ematiq a.s.</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>74000 - 124000 CZK monthly</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Konzultant pro automatizaci reportingu 🌎</t>
+          <t>Data Platform Engineer</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -8120,12 +8120,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Deepview</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8141,11 +8141,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>(Senior) Data Analyst</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -8155,22 +8155,17 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>GLAMI</t>
+          <t>Slevomat</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Práce vzdáleně</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>Fresh</t>
         </is>
       </c>
     </row>
@@ -8181,11 +8176,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>BI / Data Analyst</t>
+          <t>DATA ENGINEER</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -8195,7 +8190,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Bonami</t>
+          <t>Billigence</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8210,7 +8205,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Fresh</t>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8221,11 +8216,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>E-commerce Data Analyst</t>
+          <t>💻 Datový analytik - junior - vhodné pro studenty/absolventy 🎓</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -8235,12 +8230,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>OPT OnDemand</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 7</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8256,11 +8251,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Datový integrátor</t>
+          <t>Marketing Manager pro AI SaaS produkt</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -8270,22 +8265,17 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>LOGIO</t>
+          <t>FEEDYOU</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8296,11 +8286,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Senior Data Platform Engineer</t>
+          <t>Account Executive pro AI SaaS produkt</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -8310,12 +8300,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>FEEDYOU</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8331,11 +8321,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Data Entry Specialist</t>
+          <t>Data Analyst / Analytics Engineer</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -8345,17 +8335,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Realpad</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Praha</t>
+          <t>GAMEE</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -8366,11 +8351,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Administrátor/ka sběru dat | Marketingový výzkum</t>
+          <t>Mentor*ka - Datová analýza</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -8380,17 +8365,22 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8401,11 +8391,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Analytics Engineer for Data Platform team</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -8415,7 +8405,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Confirmo</t>
+          <t>ShipMonk Research &amp; Development</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8436,11 +8426,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>BI Squad Technical Lead</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -8471,11 +8461,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Data Platform Engineer</t>
+          <t>Data Engineers wanted Junior and Medior</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -8506,11 +8496,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Datový analytik | Marketingový výzkum</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -8520,7 +8510,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Slevomat</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -8541,11 +8531,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DATA ENGINEER</t>
+          <t>Data Scientist 🔬 Market Research</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -8555,7 +8545,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Billigence</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -8566,11 +8556,6 @@
       <c r="G222" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8581,11 +8566,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>💻 Datový analytik - junior - vhodné pro studenty/absolventy 🎓</t>
+          <t>Experienced Machine Learning Engineer</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -8595,12 +8580,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>OPT OnDemand</t>
+          <t>Salted CX</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Praha 7</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8616,11 +8601,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Marketing Manager pro AI SaaS produkt</t>
+          <t>Data Engineering Lead (tahoun DATA týmu)</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -8630,12 +8615,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FEEDYOU</t>
+          <t>Etnetera Activate</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8651,11 +8636,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Account Executive pro AI SaaS produkt</t>
+          <t>BI Analytik / Konzultant</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -8665,12 +8650,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FEEDYOU</t>
+          <t>CDC Data</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Dvůr Králové nad Labem</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8686,11 +8671,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Data Analyst / Analytics Engineer</t>
+          <t>Data Engineer with Azure for AI Squad</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -8700,7 +8685,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>GAMEE</t>
+          <t>NN IT HUB Prague</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8716,11 +8706,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Mentor*ka - Datová analýza</t>
+          <t>Pomáhej tvořit kurzy datového inženýrství a datové vědy</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -8756,11 +8746,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Analytics Engineer for Data Platform team</t>
+          <t>Pomáhej vzdělávat ženy v AI</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -8770,17 +8760,22 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>ShipMonk Research &amp; Development</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8791,11 +8786,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>BI Squad Technical Lead</t>
+          <t>Pomáhej vzdělávat ženy v Pythonu pro data</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -8805,17 +8800,22 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8826,11 +8826,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Data Engineers wanted Junior and Medior</t>
+          <t>Pomáhej vzdělávat ženy v oblasti dat</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -8840,17 +8840,22 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8861,11 +8866,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Datový analytik | Marketingový výzkum</t>
+          <t>Data Governance Consultant</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
@@ -8875,7 +8880,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>Billigence</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8886,6 +8891,11 @@
       <c r="G231" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8896,11 +8906,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Data Scientist 🔬 Market Research</t>
+          <t>Datový Analytik - Brno</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
@@ -8910,12 +8920,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>Addvery</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8931,11 +8941,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Experienced Machine Learning Engineer</t>
+          <t>Full Stack BI Developer</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
@@ -8945,12 +8955,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Salted CX</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8966,11 +8976,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Data Engineering Lead (tahoun DATA týmu)</t>
+          <t>Ph.D. in Structured Graphical Models (ML for Public Health)</t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
@@ -8980,7 +8990,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Etnetera Activate</t>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9001,11 +9011,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>BI Analytik / Konzultant</t>
+          <t>Ph.D. in Mathematical Optimization and Control (Fairness in AI)</t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
@@ -9015,12 +9025,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CDC Data</t>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Dvůr Králové nad Labem</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9036,11 +9046,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Data Engineer with Azure for AI Squad</t>
+          <t>TECHNIK DATOVÉHO CENTRA</t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
@@ -9050,12 +9060,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>TTC TELEPORT</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9071,11 +9081,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Pomáhej tvořit kurzy datového inženýrství a datové vědy</t>
+          <t>DATA ENGINEER senior/medior</t>
         </is>
       </c>
       <c r="D237" s="3" t="inlineStr">
@@ -9085,22 +9095,17 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Joyful Craftsmen</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -9111,11 +9116,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v AI</t>
+          <t>PhD z umělé inteligence</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
@@ -9125,37 +9130,32 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v Pythonu pro data</t>
+          <t>Marketing Data Specialist - firemní klienti</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
@@ -9165,37 +9165,37 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2024-09-27T01:07:03Z</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v oblasti dat</t>
+          <t>IT&amp;Data Sub-Cluster Manager</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
@@ -9205,37 +9205,37 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Ontex IT &amp; DATA</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Turnov</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2024-09-23T21:55:58Z</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Data Governance Consultant</t>
+          <t>Data Architect</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
@@ -9245,37 +9245,42 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Billigence</t>
+          <t>ThreatMark</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2024-09-16T14:14:05Z</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Superjoby</t>
+          <t>Boosted</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Datový Analytik - Brno</t>
+          <t>Data Specialist</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
@@ -9285,32 +9290,37 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Addvery</t>
+          <t>MSF Shared IT Services</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2024-09-16T11:10:14Z</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Full Stack BI Developer</t>
+          <t>Sales Executive for NNIT Life Sciences Data Services</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
@@ -9320,7 +9330,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>NNIT Czech</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -9330,22 +9340,27 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2024-09-16T08:42:14Z</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Ph.D. in Structured Graphical Models (ML for Public Health)</t>
+          <t>Data Catalog Administrator (f/m/d)</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
@@ -9355,32 +9370,37 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2024-09-13T22:47:53Z</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Ph.D. in Mathematical Optimization and Control (Fairness in AI)</t>
+          <t>Data Engineer- Remote CZ</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
@@ -9390,32 +9410,37 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>Quadient</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2024-09-11T00:42:55Z</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>TECHNIK DATOVÉHO CENTRA</t>
+          <t>BI Data Analyst</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
@@ -9425,32 +9450,37 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>TTC TELEPORT</t>
+          <t>Notino</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2024-09-05T22:45:47Z</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>DATA ENGINEER senior/medior</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
@@ -9460,32 +9490,37 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Joyful Craftsmen</t>
+          <t>Publicis Groupe CZ</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2024-09-05T22:35:14Z</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>PhD z umělé inteligence</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
@@ -9495,17 +9530,22 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>Publicis Groupe CZ</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2024-09-05T22:35:14Z</t>
         </is>
       </c>
     </row>
@@ -9516,11 +9556,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>IT&amp;Data Sub-Cluster Manager</t>
+          <t>Project Data Validator with Italian language</t>
         </is>
       </c>
       <c r="D249" s="3" t="inlineStr">
@@ -9530,22 +9570,22 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Ontex IT &amp; DATA</t>
+          <t>Ipsos</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Turnov</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>part_time</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2024-09-23T21:55:58Z</t>
+          <t>2024-09-05T07:49:43Z</t>
         </is>
       </c>
     </row>
@@ -9556,11 +9596,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Data Scientist- Remote CZ</t>
+          <t>HR Data expert</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
@@ -9570,12 +9610,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Quadient</t>
+          <t>Česká pošta</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9585,7 +9625,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2024-09-22T00:08:45Z</t>
+          <t>2024-08-30T00:36:02Z</t>
         </is>
       </c>
     </row>
@@ -9596,11 +9636,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Data Architect</t>
+          <t>Data pro komunikaci - Firemní klienti - produktový designér</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
@@ -9610,12 +9650,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ThreatMark</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9625,12 +9665,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2024-09-16T14:14:05Z</t>
-        </is>
-      </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>Boosted</t>
+          <t>2024-08-29T00:18:58Z</t>
         </is>
       </c>
     </row>
@@ -9641,11 +9676,11 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Data Specialist</t>
+          <t>Software Developer - Risk Data Management Services (f/m/d)</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
@@ -9655,7 +9690,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>MSF Shared IT Services</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -9670,7 +9705,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2024-09-16T11:10:14Z</t>
+          <t>2024-08-24T22:32:20Z</t>
         </is>
       </c>
     </row>
@@ -9681,11 +9716,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Sales Executive for NNIT Life Sciences Data Services</t>
+          <t>Data Management and Governance Specialist (f/m/d)</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
@@ -9695,7 +9730,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>NNIT Czech</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -9710,7 +9745,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2024-09-16T08:42:14Z</t>
+          <t>2024-08-23T22:35:36Z</t>
         </is>
       </c>
     </row>
@@ -9721,11 +9756,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Data Catalog Administrator (f/m/d)</t>
+          <t>Data Scientist - Risk Design (f/m/d)</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
@@ -9750,7 +9785,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2024-09-13T22:47:53Z</t>
+          <t>2024-08-16T22:27:13Z</t>
         </is>
       </c>
     </row>
@@ -9761,11 +9796,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Data Engineer- Remote CZ</t>
+          <t>Datalake Platform Engineer</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
@@ -9775,12 +9810,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Quadient</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9790,7 +9825,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2024-09-11T00:42:55Z</t>
+          <t>2024-08-01T22:08:57Z</t>
         </is>
       </c>
     </row>
@@ -9801,11 +9836,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>BI Data Analyst</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
@@ -9815,12 +9850,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Notino</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -9830,7 +9865,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2024-09-05T22:45:47Z</t>
+          <t>2024-07-31T22:09:04Z</t>
         </is>
       </c>
     </row>
@@ -9841,11 +9876,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
@@ -9855,7 +9890,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Publicis Groupe CZ</t>
+          <t>Livesport</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -9870,7 +9905,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2024-09-05T22:35:14Z</t>
+          <t>2024-09-19T23:49:24Z</t>
         </is>
       </c>
     </row>
@@ -9881,11 +9916,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Datový analytik do týmů chatbotů</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
@@ -9895,7 +9930,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Publicis Groupe CZ</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -9910,7 +9945,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2024-09-05T22:35:14Z</t>
+          <t>2024-09-25T00:28:49Z</t>
         </is>
       </c>
     </row>
@@ -9921,11 +9956,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Project Data Validator with Italian language</t>
+          <t>AI Architect</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
@@ -9935,7 +9970,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Ipsos</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9945,12 +9980,12 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>part_time</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2024-09-05T07:49:43Z</t>
+          <t>2024-08-30T00:28:27Z</t>
         </is>
       </c>
     </row>
@@ -9961,11 +9996,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>HR Data expert</t>
+          <t>AI Specialista</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
@@ -9980,7 +10015,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Usti Nad Labem</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9990,7 +10025,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2024-08-30T00:36:02Z</t>
+          <t>2024-09-20T00:47:58Z</t>
         </is>
       </c>
     </row>
@@ -10001,11 +10036,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Data pro komunikaci - Firemní klienti - produktový designér</t>
+          <t>BI ANALYST - ESIF</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
@@ -10015,7 +10050,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Česká spořitelna</t>
+          <t>Raiffeisenbank</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -10030,7 +10065,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2024-08-29T00:18:58Z</t>
+          <t>2024-09-19T01:19:13Z</t>
         </is>
       </c>
     </row>
@@ -10041,11 +10076,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Data Scientist (m/ž)</t>
+          <t>Podpora auditů, informační bezpečnosti a ochrany dat - poloviční úvazek</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
@@ -10055,12 +10090,12 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Kooperativa</t>
+          <t>MANN+HUMMEL Service (Shared Service Centre)</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -10070,22 +10105,22 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2024-08-28T01:12:57Z</t>
+          <t>2024-09-17T12:20:27Z</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Software Developer - Risk Data Management Services (f/m/d)</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
@@ -10093,39 +10128,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>Deutsche Börse Group Prague</t>
-        </is>
-      </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha 5-Smíchov</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2024-08-24T22:32:20Z</t>
+          <t>08/28/2024</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Data Management and Governance Specialist (f/m/d)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
@@ -10133,39 +10163,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Deutsche Börse Group Prague</t>
-        </is>
-      </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha 5-Smíchov</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2024-08-23T22:35:36Z</t>
+          <t>09/09/2024</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Data Scientist - Risk Design (f/m/d)</t>
+          <t>Angular Developer/ka pro tým Data Insight Advisory</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
@@ -10173,11 +10198,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>Deutsche Börse Group Prague</t>
-        </is>
-      </c>
       <c r="F265" t="inlineStr">
         <is>
           <t>Prague</t>
@@ -10185,27 +10205,27 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2024-08-16T22:27:13Z</t>
+          <t>08/29/2024</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Datalake Platform Engineer</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D266" s="3" t="inlineStr">
@@ -10213,11 +10233,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Albert Česká republika, s.r.o.</t>
-        </is>
-      </c>
       <c r="F266" t="inlineStr">
         <is>
           <t>Prague</t>
@@ -10225,27 +10240,27 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Permanent</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2024-08-01T22:08:57Z</t>
+          <t>09/03/2024</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Azure Data Engineer</t>
+          <t>Data Platform Engineer</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
@@ -10253,39 +10268,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>Albert Česká republika, s.r.o.</t>
-        </is>
-      </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2024-07-31T22:09:04Z</t>
+          <t>09/10/2024</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
@@ -10293,39 +10303,29 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Livesport</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2024-09-19T23:49:24Z</t>
+          <t>09/05/2024</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Datový analytik do týmů chatbotů</t>
+          <t>DataOps Engineer (Matillion)</t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
@@ -10333,39 +10333,29 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Česká spořitelna</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2024-09-25T00:28:49Z</t>
+          <t>09/05/2024</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>AI Architect</t>
+          <t>Product Owner (Power BI platform)</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
@@ -10373,39 +10363,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Česká spořitelna</t>
-        </is>
-      </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha 2-Nové Město</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2024-08-30T00:28:27Z</t>
+          <t>08/14/2024</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>AI Specialista</t>
+          <t>Senior Data Engineer (DBT+SQL)</t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
@@ -10413,39 +10398,34 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Česká pošta</t>
-        </is>
-      </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Usti Nad Labem</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2024-09-20T00:47:58Z</t>
+          <t>07/15/2024</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>BI ANALYST - ESIF</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
@@ -10453,11 +10433,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Raiffeisenbank</t>
-        </is>
-      </c>
       <c r="F272" t="inlineStr">
         <is>
           <t>Prague</t>
@@ -10465,27 +10440,27 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2024-09-19T01:19:13Z</t>
+          <t>04/19/2024</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>cooljobs.eu</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Podpora auditů, informační bezpečnosti a ochrany dat - poloviční úvazek</t>
+          <t>BI Expert</t>
         </is>
       </c>
       <c r="D273" s="3" t="inlineStr">
@@ -10493,11 +10468,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>MANN+HUMMEL Service (Shared Service Centre)</t>
-        </is>
-      </c>
       <c r="F273" t="inlineStr">
         <is>
           <t>Brno</t>
@@ -10505,387 +10475,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>full_time</t>
-        </is>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2024-09-17T12:20:27Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>1</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="D274" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Praha 5-Smíchov</t>
-        </is>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>2</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Angular Developer/ka pro tým Data Insight Advisory</t>
-        </is>
-      </c>
-      <c r="D275" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>08/29/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>3</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist</t>
-        </is>
-      </c>
-      <c r="D276" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>09/03/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>4</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Data Platform Engineer</t>
-        </is>
-      </c>
-      <c r="D277" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Praha</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>09/10/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>5</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Power BI Developer</t>
-        </is>
-      </c>
-      <c r="D278" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Praha 5-Smíchov</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>08/28/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>6</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Azure Data Engineer</t>
-        </is>
-      </c>
-      <c r="D279" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>09/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>7</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>DataOps Engineer (Matillion)</t>
-        </is>
-      </c>
-      <c r="D280" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>09/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>8</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Product Owner (Power BI platform)</t>
-        </is>
-      </c>
-      <c r="D281" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Praha 2-Nové Město</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>08/14/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>9</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Senior Data Engineer (DBT+SQL)</t>
-        </is>
-      </c>
-      <c r="D282" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>07/15/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>fproof.eu</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>10</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Power BI Developer</t>
-        </is>
-      </c>
-      <c r="D283" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>04/19/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>cooljobs.eu</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>1</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Database Developer</t>
-        </is>
-      </c>
-      <c r="D284" s="3" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Praha</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
           <t>Kontrakt přes CP</t>
         </is>
       </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>110 000 CZK</t>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>100 000 CZK</t>
         </is>
       </c>
     </row>
@@ -11163,17 +10758,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D271" r:id="rId270"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D272" r:id="rId271"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D273" r:id="rId272"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D274" r:id="rId273"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D275" r:id="rId274"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D276" r:id="rId275"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D277" r:id="rId276"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D278" r:id="rId277"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D279" r:id="rId278"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D280" r:id="rId279"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D281" r:id="rId280"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D282" r:id="rId281"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D283" r:id="rId282"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D284" r:id="rId283"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/jobs.xlsx
+++ b/output/jobs.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J273"/>
+  <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cloud Data Engineer - Chcete pracovat s Azure / AWS?</t>
+          <t>Data Scientist and Process Mining Architect</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ADASTRA, s.r.o.</t>
+          <t>Processand s.r.o.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -740,7 +740,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>24. září</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 65 000 Kč</t>
         </is>
       </c>
     </row>
@@ -755,7 +760,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Data Scientist and Process Mining Architect</t>
+          <t>Cloud Data Engineer - Chcete pracovat s Azure / AWS?</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -765,7 +770,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Processand s.r.o.</t>
+          <t>ADASTRA, s.r.o.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -775,12 +780,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>24. září</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 65 000 Kč</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2715,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Senior BI Specialist (QlikSense)</t>
+          <t>BI DELIVERY MANAGER</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2720,22 +2725,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EMARK s.r.o.</t>
+          <t>Raiffeisenbank a.s.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Praha – Nové Město</t>
+          <t>Praha – Nusle</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>25. září</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 95 000 Kč</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BI DELIVERY MANAGER</t>
+          <t>Senior BI Specialist (QlikSense)</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2760,17 +2760,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Raiffeisenbank a.s.</t>
+          <t>EMARK s.r.o.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Praha – Nusle</t>
+          <t>Praha – Nové Město</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>25. září</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 95 000 Kč</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2895,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Datawarehouse SQL Developer/Analyst pro Risk management (Medior/Senior)</t>
+          <t>Software Engineer, Clinical Data Management (R304682)</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2900,17 +2905,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Komerční banka, a.s.</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Praha – Stodůlky</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2930,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Software Engineer, Clinical Data Management (R304682)</t>
+          <t>Data Center Senior Engineer</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2935,17 +2940,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>Vodafone Czech Republic a.s.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Stodůlky</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2970,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Data Center Senior Engineer</t>
+          <t>Datawarehouse SQL Developer/Analyst pro Risk management (Medior/Senior)</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2970,7 +2980,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Vodafone Czech Republic a.s.</t>
+          <t>Komerční banka, a.s.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2980,12 +2990,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3375,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3895,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>Aktualizováno před 3 hodinami</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4265,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Business Consultant – Digital Transformation &amp; AI</t>
+          <t>HVAC Business Intelligence Analyst</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -4265,17 +4275,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ADASTRA, s.r.o.</t>
+          <t>ČEZ, a. s.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>13. září</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4300,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HVAC Business Intelligence Analyst</t>
+          <t>Client BI Solutions Analyst</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -4300,17 +4310,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ČEZ, a. s.</t>
+          <t>International SOS</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>13. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4335,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Client BI Solutions Analyst</t>
+          <t>Datový analytik/datová analytička v odboru Výkaznictví státu</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -4335,17 +4345,22 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>International SOS</t>
+          <t>Ministerstvo financí</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Praha – Malá Strana</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>25. září</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>34 840 ‍–‍ 51 530 Kč</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4375,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Datový analytik/datová analytička v odboru Výkaznictví státu</t>
+          <t>Datový analytik/čka – Modelář</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -4370,22 +4385,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ministerstvo financí</t>
+          <t>ČEPS, a.s.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Praha – Malá Strana</t>
+          <t>Praha – Michle</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>25. září</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>34 840 ‍–‍ 51 530 Kč</t>
+          <t>Končí zítra</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4410,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Datový analytik/čka – Modelář</t>
+          <t>Power BI Reporting Specialist</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -4410,17 +4420,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ČEPS, a.s.</t>
+          <t>Accolade, s.r.o.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Praha – Michle</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Končí zítra</t>
+          <t>Přidáno před hodinou</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4445,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Business Consultant – Digital Transformation &amp; AI</t>
+          <t>AI Product Consultant</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -4445,17 +4455,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ADASTRA, s.r.o.</t>
+          <t>Profinit EU, s.r.o.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>24. září</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4480,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>AI Product Consultant</t>
+          <t>SPECIALISTA REPORTINGU &amp; ANALÝZ</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -4480,17 +4490,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Profinit EU, s.r.o.</t>
+          <t>BENU Česká republika s.r.o.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha – Hostivař</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>24. září</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4515,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SPECIALISTA REPORTINGU &amp; ANALÝZ</t>
+          <t>(SENIOR) SPECIALISTA COREP REPORTINGU</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -4515,17 +4525,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>BENU Česká republika s.r.o.</t>
+          <t>J&amp;T BANKA</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Praha – Hostivař</t>
+          <t>Praha – Karlín</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4550,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>(SENIOR) SPECIALISTA COREP REPORTINGU</t>
+          <t>Specialist(k)a regulatorního reportingu</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -4550,17 +4560,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>J&amp;T BANKA</t>
+          <t>UNIQA</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Praha – Karlín</t>
+          <t>Praha – Vokovice</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4585,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Specialist(k)a regulatorního reportingu</t>
+          <t>Specialista pro reporting, konsolidaci a datové analýzy</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4585,12 +4595,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>UNIQA</t>
+          <t>Pražská energetika, a.s.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Praha – Vokovice</t>
+          <t>Praha – Vršovice</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4610,7 +4620,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Specialista pro reporting, konsolidaci a datové analýzy</t>
+          <t>Specialista datových analýz – Praha 9, Horní Počernice</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4620,17 +4630,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Pražská energetika, a.s.</t>
+          <t>Axial Personnel Agency, s.r.o.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Praha – Vršovice</t>
+          <t>okres Praha-východ</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>9. září</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4655,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Specialista datových analýz – Praha 9, Horní Počernice</t>
+          <t>SPECIALISTA (ESG) REPORTINGU</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4655,17 +4665,22 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Axial Personnel Agency, s.r.o.</t>
+          <t>AGROFERT, a.s.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>okres Praha-východ</t>
+          <t>Praha – Chodov</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>9. září</t>
+          <t>Přidáno dnes</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4695,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SPECIALISTA (ESG) REPORTINGU</t>
+          <t>Specialista reportingu a controllingu</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -4690,17 +4705,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AGROFERT, a.s.</t>
+          <t>ECOVIS FACTA a.s.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Praha – Chodov</t>
+          <t>Praha – Krč</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Přidáno před hodinou</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4730,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Specialista reportingu a controllingu</t>
+          <t>Elektroinženýr - Buďte součástí AI revoluce!</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4725,17 +4740,22 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ECOVIS FACTA a.s.</t>
+          <t>Luxonis</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Praha – Krč</t>
+          <t>Praha – Jinonice</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>22. září</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>90 000 ‍–‍ 120 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4770,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Elektroinženýr - Buďte součástí AI revoluce!</t>
+          <t>Business Intelligence Lead</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4760,22 +4780,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Luxonis</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Praha – Jinonice</t>
+          <t>Praha – Smíchov</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>22. září</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>90 000 ‍–‍ 120 000 Kč</t>
+          <t>12. září</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4805,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Business Intelligence Lead</t>
+          <t>Senior Specialist, AI Engineering (R302759)</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4800,7 +4815,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>MSD IT</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4810,7 +4825,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>12. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4840,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Senior Specialist, AI Engineering (R302759)</t>
+          <t>Specialist, AI Engineering (R302756 )</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4860,7 +4875,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Specialist, AI Engineering (R302756 )</t>
+          <t>Data Engineer / IT Konzultant  (high-tech data company)</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4870,17 +4885,22 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MSD IT</t>
+          <t>CloverDX Labs s.r.o.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Praha – Smíchov</t>
+          <t>Brno – Zábrdovice</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>25. září</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>60 000 ‍–‍ 120 000 Kč</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4915,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Data Engineer / IT Konzultant  (high-tech data company)</t>
+          <t>Data Scientist Junior</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4905,22 +4925,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CloverDX Labs s.r.o.</t>
+          <t>Home Credit a.s.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Brno – Zábrdovice</t>
+          <t>Brno – Staré Brno</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>25. září</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>60 000 ‍–‍ 120 000 Kč</t>
+          <t>19. září</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4950,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Data Scientist Junior</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4945,17 +4960,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Home Credit a.s.</t>
+          <t>Marmon Foodservice Manufacturing s.r.o.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Brno – Staré Brno</t>
+          <t>Brno – Tuřany</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>19. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -4970,7 +4985,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Sustainability Data Analyst / Data Architect</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -4980,17 +4995,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Marmon Foodservice Manufacturing s.r.o.</t>
+          <t>MANN+HUMMEL Service s.r.o. – Shared Service Centre</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Brno – Tuřany</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>4. září</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5020,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sustainability Data Analyst / Data Architect</t>
+          <t>BI Data Analyst</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -5015,17 +5030,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MANN+HUMMEL Service s.r.o. – Shared Service Centre</t>
+          <t>Notino s.r.o.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Brno – Štýřice</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>4. září</t>
+          <t>5. září</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5055,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>BI Data Analyst</t>
+          <t>Business Intelligence Data Engineer</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -5050,17 +5065,17 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Notino s.r.o.</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Brno – Štýřice</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5. září</t>
+          <t>11. září</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5090,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Business Intelligence Data Engineer</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -5085,17 +5100,22 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>Gen Digital(Avast)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Brno – Trnitá + 1 další lokalita</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>11. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5130,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Datový analytik/Datová analytička v oboru bioinformatika</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -5120,22 +5140,17 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Gen Digital(Avast)</t>
+          <t>Masarykova univerzita</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Brno – Trnitá + 1 další lokalita</t>
+          <t>Brno – Bohunice</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>6. září</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5165,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Datový analytik/Datová analytička v oboru bioinformatika</t>
+          <t>Online Data Analyst</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -5160,17 +5175,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Masarykova univerzita</t>
+          <t>TELUS International AI</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Brno – Bohunice</t>
+          <t>Brno – Brno-město</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>6. září</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5200,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Online Data Analyst</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -5195,17 +5210,17 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TELUS International AI</t>
+          <t>FABORY Czech s.r.o.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Brno – Brno-město</t>
+          <t>Šlapanice</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>Aktualizováno před hodinou</t>
         </is>
       </c>
     </row>
@@ -5230,17 +5245,17 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FABORY Czech s.r.o.</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Šlapanice</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5270,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Senior Sustainability Data Analyst</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -5265,17 +5280,17 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>Atlas Copco Services s.r.o.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Brno – Štýřice</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>25. září</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5305,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Senior Sustainability Data Analyst</t>
+          <t>Master Data Specialist - Standard Cost / Item Creations &amp; Maintenance</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -5300,17 +5315,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Atlas Copco Services s.r.o.</t>
+          <t>Ingersoll Rand</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Brno – Štýřice</t>
+          <t>Brno – Žabovřesky</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>23. září</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5340,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Master Data Specialist - Standard Cost / Item Creations &amp; Maintenance</t>
+          <t>Datový analytik (bonusy 2x ročně)</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -5335,17 +5350,22 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Ingersoll Rand</t>
+          <t>KBC Global Services NV</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Brno – Žabovřesky</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>23. září</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5380,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Datový analytik (bonusy 2x ročně)</t>
+          <t>Analytik Business Intelligence / BI Analyst</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -5370,22 +5390,22 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>KBC Global Services NV</t>
+          <t>AG FOODS Group a.s.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Velká Bíteš – Košíkov</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Přidáno včera</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>NEW</t>
+          <t>Končí za 11 hodin</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>50 000 ‍–‍ 65 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5420,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Analytik Business Intelligence / BI Analyst</t>
+          <t>STÁŽ pro studenty - datové analytiky</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -5410,22 +5430,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>AG FOODS Group a.s.</t>
+          <t>Úřad pro ochranu hospodářské soutěže</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Velká Bíteš – Košíkov</t>
+          <t>Brno – Černá Pole</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Končí za 15 hodin</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>50 000 ‍–‍ 65 000 Kč</t>
+          <t>20. září</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5455,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>STÁŽ pro studenty - datové analytiky</t>
+          <t>Stážista v oddělení Business Excellence (Reporting &amp; Datová analýza)</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -5450,17 +5465,22 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Úřad pro ochranu hospodářské soutěže</t>
+          <t>Angelini Pharma Česká republika s.r.o.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Brno – Černá Pole</t>
+          <t>Brno – Starý Lískovec</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>20. září</t>
+          <t>9. září</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>25 000 ‍–‍ 30 000 Kč</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5495,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Stážista v oddělení Business Excellence (Reporting &amp; Datová analýza)</t>
+          <t>Senior BI Developer</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -5485,22 +5505,22 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Angelini Pharma Česká republika s.r.o.</t>
+          <t>IDC Central Europe, the Middle East &amp; Africa</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Brno – Starý Lískovec</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>9. září</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>25 000 ‍–‍ 30 000 Kč</t>
+          <t>Přidáno včera</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5535,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Senior BI Developer</t>
+          <t>Data Engineer (m/ž)</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -5525,17 +5545,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>IDC Central Europe, the Middle East &amp; Africa</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5570,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Data Engineer (m/ž)</t>
+          <t>Datový analytik/BI analytik</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -5560,7 +5580,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>BANDI VAMOS a.s.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5570,7 +5590,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5605,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Datový analytik/BI analytik</t>
+          <t>Data Analytics &amp; BI Specialist</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -5595,7 +5615,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>BANDI VAMOS a.s.</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5605,7 +5625,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>25. září</t>
+          <t>18. září</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5640,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Data Analytics &amp; BI Specialist</t>
+          <t>AI Researcher/developer</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5630,17 +5650,17 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>VŠB - TUO, IT4Innovations národní superpočítačové centrum</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
+          <t>Ostrava – Poruba</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>18. září</t>
+          <t>Končí za 3 dny</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5675,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>AI Researcher/developer</t>
+          <t>Business Intelligence Specialist - Power BI</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5665,17 +5685,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>VŠB - TUO, IT4Innovations národní superpočítačové centrum</t>
+          <t>ABB s.r.o.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Ostrava – Poruba</t>
+          <t>Ostrava – Moravská Ostrava</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Končí za 3 dny</t>
+          <t>10. září</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5710,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Business Intelligence Specialist - Power BI</t>
+          <t>HR Data Scientist</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5700,17 +5720,17 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ABB s.r.o.</t>
+          <t>Wacker-Chemie, s.r.o.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Ostrava – Moravská Ostrava</t>
+          <t>Plzeň – Skvrňany</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>10. září</t>
+          <t>Aktualizováno včera</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5745,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HR Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5745,22 +5765,22 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aktualizováno včera</t>
+          <t>25. září</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>jobs.cz</t>
+          <t>startupjobs.cz</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Marketing Data Analyst</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5770,17 +5790,27 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Wacker-Chemie, s.r.o.</t>
+          <t>Košík.cz</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Plzeň – Skvrňany</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>25. září</t>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>HOT</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>60000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -5791,11 +5821,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Marketing Data Analyst</t>
+          <t>🚀 Data Engineer</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5805,12 +5835,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Košík.cz</t>
+          <t>Capital Markets Gateway (CMG)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5821,11 +5851,6 @@
       <c r="I149" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>60000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -5836,11 +5861,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>🚀 Data Engineer</t>
+          <t>Data Engineer | Praha, Karlín | e-commerce big data startup</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5850,12 +5875,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Capital Markets Gateway (CMG)</t>
+          <t>Merchantee</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5876,11 +5901,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Data Engineer | Praha, Karlín | e-commerce big data startup</t>
+          <t>Generative AI and ML Developer</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -5890,7 +5915,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Merchantee</t>
+          <t>Blindspot Solutions</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5900,7 +5925,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -5916,11 +5941,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Generative AI and ML Developer</t>
+          <t>(Senior) Data Analyst for GLAMI.</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5930,7 +5955,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Blindspot Solutions</t>
+          <t>GLAMI</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5940,7 +5965,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -5956,11 +5981,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>(Senior) Data Analyst for GLAMI.</t>
+          <t>Data Engineer 💻 Zázemí české společnosti, mezinárodní klienti, remote spolupráce 🤝</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5970,7 +5995,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>GLAMI</t>
+          <t>UD4D</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5996,11 +6021,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Data Engineer 💻 Zázemí české společnosti, mezinárodní klienti, remote spolupráce 🤝</t>
+          <t>Datový Analytik/čka</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -6010,12 +6035,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>UD4D</t>
+          <t>edwardinvest.cz</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha, Mladá Boleslav</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6026,6 +6051,11 @@
       <c r="I154" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>50000 - 90000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6036,11 +6066,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Datový Analytik/čka</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -6050,12 +6080,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>edwardinvest.cz</t>
+          <t>HX Hurtigruten Expeditions</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Praha, Mladá Boleslav</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6066,11 +6096,6 @@
       <c r="I155" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>50000 - 90000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6081,11 +6106,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Lead - Data &amp; Analytics</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -6121,11 +6146,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Lead - Data &amp; Analytics</t>
+          <t>Junior/Medior Tester in a Global AI/Music Tech Startup</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -6135,7 +6160,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>HX Hurtigruten Expeditions</t>
+          <t>AIMS API</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6161,11 +6186,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Junior/Medior Tester in a Global AI/Music Tech Startup</t>
+          <t>Senior Back-End Developer (Golang) in a Global AI/Music Tech Startup</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -6201,11 +6226,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Senior Back-End Developer (Golang) in a Global AI/Music Tech Startup</t>
+          <t>Datový integrátor 📊</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -6215,12 +6240,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>AIMS API</t>
+          <t>Logio s.r.o.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha, Brno, Hradec Králové</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6241,11 +6266,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Datový integrátor 📊</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -6255,12 +6280,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Logio s.r.o.</t>
+          <t>ROUVY</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Praha, Brno, Hradec Králové</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6281,11 +6306,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Analyst 📈  - Junior/Medior</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -6295,7 +6320,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ROUVY</t>
+          <t>eppTec</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6311,6 +6336,11 @@
       <c r="I161" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>40000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6321,11 +6351,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Data Analyst 📈  - Junior/Medior</t>
+          <t>👉 Senior Data Scientist</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -6335,7 +6365,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>eppTec</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6351,11 +6381,6 @@
       <c r="I162" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>40000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6366,11 +6391,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>👉 Senior Data Scientist</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -6380,7 +6405,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Livesport</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6406,11 +6431,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Sales Specialist – New Business Development (Datová analýza, BI a AI řešení)</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -6420,7 +6445,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Livesport</t>
+          <t>BizzTreat</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6446,11 +6471,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sales Specialist – New Business Development (Datová analýza, BI a AI řešení)</t>
+          <t>Grafik s nadšením pro AI</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -6460,7 +6485,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>BizzTreat</t>
+          <t>YDEAL s.r.o.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6486,11 +6511,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Grafik s nadšením pro AI</t>
+          <t>Lead Software Engineer, Bot Builder with AI, Prague</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -6500,7 +6525,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>YDEAL s.r.o.</t>
+          <t>NICE CXone (Brand Embassy)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6516,6 +6541,11 @@
       <c r="I166" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>140000 - 160000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6526,11 +6556,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Lead Software Engineer, Bot Builder with AI, Prague</t>
+          <t>🐍 Python Data Engineer</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -6540,12 +6570,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>NICE CXone (Brand Embassy)</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 6</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6556,11 +6586,6 @@
       <c r="I167" t="inlineStr">
         <is>
           <t>HOT</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>140000 - 160000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6571,11 +6596,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>🐍 Python Data Engineer</t>
+          <t>Yield Operations Specialist (Datový &amp; performance analytik)</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -6585,12 +6610,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>R2B2 a.s.</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Praha 6</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6611,11 +6636,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Yield Operations Specialist (Datový &amp; performance analytik)</t>
+          <t>Machine Learning Data Annotator (Ideal for students/graduates) 🧑‍💻</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -6625,7 +6650,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>R2B2 a.s.</t>
+          <t>Parrot</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6635,12 +6660,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>HOT</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>28000 - 56000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -6651,11 +6681,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Machine Learning Data Annotator (Ideal for students/graduates) 🧑‍💻</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -6665,7 +6695,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Parrot</t>
+          <t>Revolt BI, s.r.o.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6675,17 +6705,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>HOT</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>28000 - 56000 CZK monthly</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -6696,11 +6716,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Team Lead</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -6731,11 +6751,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Data Team Lead</t>
+          <t>🌍 Hledá se Systémový/Deployment Engineer se znalostmi serverů a databází 🚒</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -6745,12 +6765,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Revolt BI, s.r.o.</t>
+          <t>GINA Software s.r.o.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6766,11 +6786,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>🌍 Hledá se Systémový/Deployment Engineer se znalostmi serverů a databází 🚒</t>
+          <t>Data Engineer v Knihobotu 📚</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -6780,12 +6800,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>GINA Software s.r.o.</t>
+          <t>knihobot.cz</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6801,11 +6821,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Data Engineer v Knihobotu 📚</t>
+          <t>Junior Data Scientist</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -6815,7 +6835,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>knihobot.cz</t>
+          <t>Resistant AI</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6825,7 +6845,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -6836,11 +6856,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Junior Data Scientist</t>
+          <t>Data Scientist v Knihobotu 📚</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6850,7 +6870,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Resistant AI</t>
+          <t>knihobot.cz</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6860,7 +6880,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -6871,11 +6891,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Data Scientist v Knihobotu 📚</t>
+          <t>🔧 IT HW technik pro datacentrum v Praze 10</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6885,12 +6905,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>knihobot.cz</t>
+          <t>CDN77</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 10</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6906,11 +6926,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>🔧 IT HW technik pro datacentrum v Praze 10</t>
+          <t>Business Intelligence Lead</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6920,12 +6940,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CDN77</t>
+          <t>Liftago</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Praha 10</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6941,11 +6961,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Business Intelligence Lead</t>
+          <t>📊Senior Data Analytik v publishing biznise</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -6955,17 +6975,22 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Liftago</t>
+          <t>News and Media Holding, a.s.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>3000 - 4000 EUR monthly</t>
         </is>
       </c>
     </row>
@@ -6976,11 +7001,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>📊Senior Data Analytik v publishing biznise</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6990,12 +7015,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>News and Media Holding, a.s.</t>
+          <t>BigHub s.r.o.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7005,7 +7030,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>3000 - 4000 EUR monthly</t>
+          <t>60000 - 130000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7041,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -7030,7 +7055,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>BigHub s.r.o.</t>
+          <t>CONFIRMO s.r.o</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7040,12 +7065,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>60000 - 130000 CZK monthly</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7056,11 +7076,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Neural Voice Specialist, ML Engineer</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -7070,7 +7090,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CONFIRMO s.r.o</t>
+          <t>PromethistAI a.s.</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7080,7 +7100,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7091,11 +7111,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Neural Voice Specialist, ML Engineer</t>
+          <t>Junior DevOps (Big Data)</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -7105,7 +7125,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>PromethistAI a.s.</t>
+          <t>Adastra, s.r.o.</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7126,11 +7146,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Junior DevOps (Big Data)</t>
+          <t>Medior Data Scientist</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -7140,17 +7160,22 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Adastra, s.r.o.</t>
+          <t>GymBeam</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>50000 - 70000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7161,11 +7186,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Medior Data Scientist</t>
+          <t>AI Engineer for Space projects 🚀</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -7175,22 +7200,17 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>GymBeam</t>
+          <t>Huld s.r.o.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>50000 - 70000 CZK monthly</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7201,11 +7221,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>AI Engineer for Space projects 🚀</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -7215,7 +7235,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Huld s.r.o.</t>
+          <t>HECON</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7225,7 +7245,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7236,11 +7256,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Programátor a specialista na AI prompting</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -7250,17 +7270,22 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>HECON</t>
+          <t>Apertia Tech s.r.o.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha, Brno, České Budějovice, Ostrava, Zlín, Olomouc, Ústí nad Labem</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>30000 - 80000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7271,11 +7296,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Programátor a specialista na AI prompting</t>
+          <t>👉Technical Project Lead for data &amp; AI solutions - Prague</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -7285,22 +7310,17 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Apertia Tech s.r.o.</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Praha, Brno, České Budějovice, Ostrava, Zlín, Olomouc, Ústí nad Labem</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>30000 - 80000 CZK monthly</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -7311,11 +7331,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>👉Technical Project Lead for data &amp; AI solutions - Prague</t>
+          <t>Node.js Developer pražských dat (m/ž)</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -7325,7 +7345,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Operátor ICT, a.s.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7346,11 +7366,11 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Node.js Developer pražských dat (m/ž)</t>
+          <t>Backend vývojář/ka - buduj s námi nejlepší AI aplikaci na trhu</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -7360,17 +7380,22 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Operátor ICT, a.s.</t>
+          <t>FV STUDIO</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>70000 - 100000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7381,11 +7406,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Backend vývojář/ka - buduj s námi nejlepší AI aplikaci na trhu</t>
+          <t>Digital data marketing specialist</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -7395,22 +7420,17 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FV STUDIO</t>
+          <t>denik.cz</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>70000 - 100000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7421,11 +7441,11 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Digital data marketing specialist</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -7435,7 +7455,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>denik.cz</t>
+          <t>Slevomat.cz</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7456,11 +7476,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -7470,7 +7490,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Slevomat.cz</t>
+          <t>Publicis Groupe</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7491,11 +7511,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -7526,11 +7546,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>AI Specialist</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -7540,7 +7560,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Publicis Groupe</t>
+          <t>Twistcafe Group s.r.o.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7561,11 +7581,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AI Specialist</t>
+          <t>🔬 DataOps specialist (Brno, Python)</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -7575,12 +7595,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Twistcafe Group s.r.o.</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7596,11 +7616,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>🔬 DataOps specialist (Brno, Python)</t>
+          <t>Analytics Engineer for Data Platform team at ShipMonk</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -7610,12 +7630,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>ShipMonk</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7631,11 +7651,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Analytics Engineer for Data Platform team at ShipMonk</t>
+          <t>🔬 Data Analyst Medior (Python, Brno)</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -7645,17 +7665,17 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ShipMonk</t>
+          <t>Datamole</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time, Full-time</t>
         </is>
       </c>
     </row>
@@ -7666,11 +7686,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>🔬 Data Analyst Medior (Python, Brno)</t>
+          <t>Data Scientist Senior 🚀</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -7680,17 +7700,22 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Datamole</t>
+          <t>Ematiq a.s.</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Part-time, Full-time</t>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>74000 - 124000 CZK monthly</t>
         </is>
       </c>
     </row>
@@ -7701,11 +7726,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Data Scientist Senior 🚀</t>
+          <t>Konzultant pro automatizaci reportingu 🌎</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -7715,7 +7740,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Ematiq a.s.</t>
+          <t>Deepview</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7726,26 +7751,21 @@
       <c r="G199" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>74000 - 124000 CZK monthly</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>startupjobs.cz</t>
+          <t>cocuma.cz</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Konzultant pro automatizaci reportingu 🌎</t>
+          <t>(Senior) Data Analyst</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -7755,7 +7775,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Deepview</t>
+          <t>GLAMI</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7766,6 +7786,11 @@
       <c r="G200" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Fresh</t>
         </is>
       </c>
     </row>
@@ -7776,11 +7801,11 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>(Senior) Data Analyst</t>
+          <t>BI / Data Analyst</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -7790,7 +7815,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GLAMI</t>
+          <t>Bonami</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7816,11 +7841,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>BI / Data Analyst</t>
+          <t>E-commerce Data Analyst</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -7830,7 +7855,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Bonami</t>
+          <t>Decathlon</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7841,11 +7866,6 @@
       <c r="G202" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>Fresh</t>
         </is>
       </c>
     </row>
@@ -7856,11 +7876,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>E-commerce Data Analyst</t>
+          <t>Datový integrátor</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -7870,17 +7890,22 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Decathlon</t>
+          <t>LOGIO</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -7891,11 +7916,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Datový integrátor</t>
+          <t>Senior Data Platform Engineer</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -7905,22 +7930,17 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>LOGIO</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -7931,11 +7951,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Senior Data Platform Engineer</t>
+          <t>Data Entry Specialist</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -7945,17 +7965,17 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Realpad</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
     </row>
@@ -7966,11 +7986,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Data Entry Specialist</t>
+          <t>Administrátor/ka sběru dat | Marketingový výzkum</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7980,7 +8000,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Realpad</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7990,7 +8010,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -8001,11 +8021,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Administrátor/ka sběru dat | Marketingový výzkum</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -8015,7 +8035,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>Confirmo</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8036,11 +8056,11 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -8050,12 +8070,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Confirmo</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8071,11 +8091,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>Data Platform Engineer</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -8106,11 +8126,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Data Platform Engineer</t>
+          <t>Datový analytik</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -8120,12 +8140,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Slevomat</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8141,11 +8161,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Datový analytik</t>
+          <t>DATA ENGINEER</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -8155,7 +8175,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Slevomat</t>
+          <t>Billigence</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8166,6 +8186,11 @@
       <c r="G211" t="inlineStr">
         <is>
           <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8176,11 +8201,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DATA ENGINEER</t>
+          <t>💻 Datový analytik - junior - vhodné pro studenty/absolventy 🎓</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -8190,22 +8215,17 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Billigence</t>
+          <t>OPT OnDemand</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Praha 7</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8216,11 +8236,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>💻 Datový analytik - junior - vhodné pro studenty/absolventy 🎓</t>
+          <t>Marketing Manager pro AI SaaS produkt</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -8230,12 +8250,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>OPT OnDemand</t>
+          <t>FEEDYOU</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Praha 7</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8251,11 +8271,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Marketing Manager pro AI SaaS produkt</t>
+          <t>Account Executive pro AI SaaS produkt</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -8286,11 +8306,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Account Executive pro AI SaaS produkt</t>
+          <t>Data Analyst / Analytics Engineer</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -8300,12 +8320,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FEEDYOU</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Pardubice</t>
+          <t>GAMEE</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8321,11 +8336,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Data Analyst / Analytics Engineer</t>
+          <t>Mentor*ka - Datová analýza</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -8335,12 +8350,22 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>GAMEE</t>
+          <t>Czechitas</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8351,11 +8376,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Mentor*ka - Datová analýza</t>
+          <t>Analytics Engineer for Data Platform team</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -8365,22 +8390,17 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>ShipMonk Research &amp; Development</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Part-time</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
+          <t>Full-time</t>
         </is>
       </c>
     </row>
@@ -8391,11 +8411,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Analytics Engineer for Data Platform team</t>
+          <t>BI Squad Technical Lead</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -8405,12 +8425,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ShipMonk Research &amp; Development</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8426,11 +8446,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>BI Squad Technical Lead</t>
+          <t>Data Engineers wanted Junior and Medior</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -8461,11 +8481,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Data Engineers wanted Junior and Medior</t>
+          <t>Datový analytik | Marketingový výzkum</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -8475,12 +8495,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>NMS Market Research</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8496,11 +8516,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Datový analytik | Marketingový výzkum</t>
+          <t>Data Scientist 🔬 Market Research</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -8531,11 +8551,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Data Scientist 🔬 Market Research</t>
+          <t>Experienced Machine Learning Engineer</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -8545,7 +8565,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>NMS Market Research</t>
+          <t>Salted CX</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -8566,11 +8586,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Experienced Machine Learning Engineer</t>
+          <t>Data Engineering Lead (tahoun DATA týmu)</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -8580,7 +8600,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Salted CX</t>
+          <t>Etnetera Activate</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8601,11 +8621,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Data Engineering Lead (tahoun DATA týmu)</t>
+          <t>BI Analytik / Konzultant</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -8615,12 +8635,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Etnetera Activate</t>
+          <t>CDC Data</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Dvůr Králové nad Labem</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8636,11 +8656,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>BI Analytik / Konzultant</t>
+          <t>Data Engineer with Azure for AI Squad</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -8650,12 +8670,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>CDC Data</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Dvůr Králové nad Labem</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8671,11 +8691,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Data Engineer with Azure for AI Squad</t>
+          <t>Pomáhej tvořit kurzy datového inženýrství a datové vědy</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -8685,17 +8705,22 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Czechitas</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Celá ČR</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8706,11 +8731,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Pomáhej tvořit kurzy datového inženýrství a datové vědy</t>
+          <t>Pomáhej vzdělávat ženy v AI</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -8746,11 +8771,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v AI</t>
+          <t>Pomáhej vzdělávat ženy v Pythonu pro data</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -8786,11 +8811,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v Pythonu pro data</t>
+          <t>Pomáhej vzdělávat ženy v oblasti dat</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -8826,11 +8851,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Pomáhej vzdělávat ženy v oblasti dat</t>
+          <t>Data Governance Consultant</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -8840,17 +8865,17 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Czechitas</t>
+          <t>Billigence</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Celá ČR</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -8866,11 +8891,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Data Governance Consultant</t>
+          <t>Datový Analytik - Brno</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
@@ -8880,22 +8905,17 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Billigence</t>
+          <t>Addvery</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
           <t>Full-time</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>Superjoby</t>
         </is>
       </c>
     </row>
@@ -8906,11 +8926,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Datový Analytik - Brno</t>
+          <t>Full Stack BI Developer</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
@@ -8920,12 +8940,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Addvery</t>
+          <t>NN IT HUB Prague</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8941,11 +8961,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Full Stack BI Developer</t>
+          <t>Ph.D. in Structured Graphical Models (ML for Public Health)</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
@@ -8955,12 +8975,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>NN IT HUB Prague</t>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8976,11 +8996,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Ph.D. in Structured Graphical Models (ML for Public Health)</t>
+          <t>Ph.D. in Mathematical Optimization and Control (Fairness in AI)</t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
@@ -9011,11 +9031,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Ph.D. in Mathematical Optimization and Control (Fairness in AI)</t>
+          <t>TECHNIK DATOVÉHO CENTRA</t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
@@ -9025,7 +9045,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>TTC TELEPORT</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -9046,11 +9066,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>TECHNIK DATOVÉHO CENTRA</t>
+          <t>DATA ENGINEER senior/medior</t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
@@ -9060,7 +9080,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TTC TELEPORT</t>
+          <t>Joyful Craftsmen</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -9081,11 +9101,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>DATA ENGINEER senior/medior</t>
+          <t>PhD z umělé inteligence</t>
         </is>
       </c>
       <c r="D237" s="3" t="inlineStr">
@@ -9095,7 +9115,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Joyful Craftsmen</t>
+          <t>Centrum umělé inteligence FEL ČVUT</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -9112,15 +9132,15 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>cocuma.cz</t>
+          <t>welcometothejungle.com</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>PhD z umělé inteligence</t>
+          <t>Marketing Data Specialist - firemní klienti</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
@@ -9130,17 +9150,22 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Centrum umělé inteligence FEL ČVUT</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>full_time</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2024-09-27T01:07:03Z</t>
         </is>
       </c>
     </row>
@@ -9151,11 +9176,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Marketing Data Specialist - firemní klienti</t>
+          <t>IT&amp;Data Sub-Cluster Manager</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
@@ -9165,12 +9190,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Česká spořitelna</t>
+          <t>Ontex IT &amp; DATA</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Turnov</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9180,7 +9205,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2024-09-27T01:07:03Z</t>
+          <t>2024-09-23T21:55:58Z</t>
         </is>
       </c>
     </row>
@@ -9191,11 +9216,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>IT&amp;Data Sub-Cluster Manager</t>
+          <t>Data Architect</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
@@ -9205,12 +9230,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Ontex IT &amp; DATA</t>
+          <t>ThreatMark</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Turnov</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9220,7 +9245,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2024-09-23T21:55:58Z</t>
+          <t>2024-09-16T14:14:05Z</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Boosted</t>
         </is>
       </c>
     </row>
@@ -9231,11 +9261,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Data Architect</t>
+          <t>Data Specialist</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
@@ -9245,12 +9275,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>ThreatMark</t>
+          <t>MSF Shared IT Services</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9260,12 +9290,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2024-09-16T14:14:05Z</t>
-        </is>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>Boosted</t>
+          <t>2024-09-16T11:10:14Z</t>
         </is>
       </c>
     </row>
@@ -9276,11 +9301,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Data Specialist</t>
+          <t>Sales Executive for NNIT Life Sciences Data Services</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
@@ -9290,7 +9315,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>MSF Shared IT Services</t>
+          <t>NNIT Czech</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -9305,7 +9330,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2024-09-16T11:10:14Z</t>
+          <t>2024-09-16T08:42:14Z</t>
         </is>
       </c>
     </row>
@@ -9316,11 +9341,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Sales Executive for NNIT Life Sciences Data Services</t>
+          <t>Data Catalog Administrator (f/m/d)</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
@@ -9330,7 +9355,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>NNIT Czech</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -9345,7 +9370,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2024-09-16T08:42:14Z</t>
+          <t>2024-09-13T22:47:53Z</t>
         </is>
       </c>
     </row>
@@ -9356,11 +9381,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Data Catalog Administrator (f/m/d)</t>
+          <t>Data Engineer- Remote CZ</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
@@ -9370,12 +9395,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Quadient</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9385,7 +9410,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2024-09-13T22:47:53Z</t>
+          <t>2024-09-11T00:42:55Z</t>
         </is>
       </c>
     </row>
@@ -9396,11 +9421,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Data Engineer- Remote CZ</t>
+          <t>BI Data Analyst</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
@@ -9410,12 +9435,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Quadient</t>
+          <t>Notino</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9425,7 +9450,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2024-09-11T00:42:55Z</t>
+          <t>2024-09-05T22:45:47Z</t>
         </is>
       </c>
     </row>
@@ -9436,11 +9461,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>BI Data Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
@@ -9450,12 +9475,12 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Notino</t>
+          <t>Publicis Groupe CZ</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9465,7 +9490,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2024-09-05T22:45:47Z</t>
+          <t>2024-09-05T22:35:14Z</t>
         </is>
       </c>
     </row>
@@ -9476,11 +9501,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
@@ -9516,11 +9541,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Project Data Validator with Italian language</t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
@@ -9530,7 +9555,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Publicis Groupe CZ</t>
+          <t>Ipsos</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -9540,12 +9565,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>part_time</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2024-09-05T22:35:14Z</t>
+          <t>2024-09-05T07:49:43Z</t>
         </is>
       </c>
     </row>
@@ -9556,11 +9581,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Project Data Validator with Italian language</t>
+          <t>HR Data expert</t>
         </is>
       </c>
       <c r="D249" s="3" t="inlineStr">
@@ -9570,7 +9595,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Ipsos</t>
+          <t>Česká pošta</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -9580,12 +9605,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>part_time</t>
+          <t>full_time</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2024-09-05T07:49:43Z</t>
+          <t>2024-08-30T00:36:02Z</t>
         </is>
       </c>
     </row>
@@ -9596,11 +9621,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>HR Data expert</t>
+          <t>Data pro komunikaci - Firemní klienti - produktový designér</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
@@ -9610,12 +9635,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Česká pošta</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9625,7 +9650,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2024-08-30T00:36:02Z</t>
+          <t>2024-08-29T00:18:58Z</t>
         </is>
       </c>
     </row>
@@ -9636,11 +9661,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Data pro komunikaci - Firemní klienti - produktový designér</t>
+          <t>Software Developer - Risk Data Management Services (f/m/d)</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
@@ -9650,7 +9675,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Česká spořitelna</t>
+          <t>Deutsche Börse Group Prague</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -9665,7 +9690,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2024-08-29T00:18:58Z</t>
+          <t>2024-08-24T22:32:20Z</t>
         </is>
       </c>
     </row>
@@ -9676,11 +9701,11 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Software Developer - Risk Data Management Services (f/m/d)</t>
+          <t>Data Management and Governance Specialist (f/m/d)</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
@@ -9705,7 +9730,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2024-08-24T22:32:20Z</t>
+          <t>2024-08-23T22:35:36Z</t>
         </is>
       </c>
     </row>
@@ -9716,11 +9741,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Data Management and Governance Specialist (f/m/d)</t>
+          <t>Data Scientist - Risk Design (f/m/d)</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
@@ -9745,7 +9770,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2024-08-23T22:35:36Z</t>
+          <t>2024-08-16T22:27:13Z</t>
         </is>
       </c>
     </row>
@@ -9756,11 +9781,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Data Scientist - Risk Design (f/m/d)</t>
+          <t>Datalake Platform Engineer</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
@@ -9770,7 +9795,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Deutsche Börse Group Prague</t>
+          <t>Albert Česká republika, s.r.o.</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -9785,7 +9810,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2024-08-16T22:27:13Z</t>
+          <t>2024-08-01T22:08:57Z</t>
         </is>
       </c>
     </row>
@@ -9796,11 +9821,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Datalake Platform Engineer</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
@@ -9825,7 +9850,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2024-08-01T22:08:57Z</t>
+          <t>2024-07-31T22:09:04Z</t>
         </is>
       </c>
     </row>
@@ -9836,11 +9861,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Azure Data Engineer</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
@@ -9850,7 +9875,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Albert Česká republika, s.r.o.</t>
+          <t>Livesport</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -9865,7 +9890,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2024-07-31T22:09:04Z</t>
+          <t>2024-09-19T23:49:24Z</t>
         </is>
       </c>
     </row>
@@ -9876,11 +9901,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Datový analytik do týmů chatbotů</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
@@ -9890,7 +9915,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Livesport</t>
+          <t>Česká spořitelna</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -9905,7 +9930,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2024-09-19T23:49:24Z</t>
+          <t>2024-09-25T00:28:49Z</t>
         </is>
       </c>
     </row>
@@ -9916,11 +9941,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Datový analytik do týmů chatbotů</t>
+          <t>AI Architect</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
@@ -9945,7 +9970,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2024-09-25T00:28:49Z</t>
+          <t>2024-08-30T00:28:27Z</t>
         </is>
       </c>
     </row>
@@ -9956,11 +9981,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>AI Architect</t>
+          <t>AI Specialista</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
@@ -9970,12 +9995,12 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Česká spořitelna</t>
+          <t>Česká pošta</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Usti Nad Labem</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9985,7 +10010,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2024-08-30T00:28:27Z</t>
+          <t>2024-09-20T00:47:58Z</t>
         </is>
       </c>
     </row>
@@ -9996,11 +10021,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>AI Specialista</t>
+          <t>BI ANALYST - ESIF</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
@@ -10010,12 +10035,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Česká pošta</t>
+          <t>Raiffeisenbank</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Usti Nad Labem</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -10025,7 +10050,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2024-09-20T00:47:58Z</t>
+          <t>2024-09-19T01:19:13Z</t>
         </is>
       </c>
     </row>
@@ -10036,11 +10061,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>BI ANALYST - ESIF</t>
+          <t>Podpora auditů, informační bezpečnosti a ochrany dat - poloviční úvazek</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
@@ -10050,12 +10075,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Raiffeisenbank</t>
+          <t>MANN+HUMMEL Service (Shared Service Centre)</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -10065,22 +10090,22 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2024-09-19T01:19:13Z</t>
+          <t>2024-09-17T12:20:27Z</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>welcometothejungle.com</t>
+          <t>fproof.eu</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Podpora auditů, informační bezpečnosti a ochrany dat - poloviční úvazek</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
@@ -10088,24 +10113,19 @@
           <t>link</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>MANN+HUMMEL Service (Shared Service Centre)</t>
-        </is>
-      </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Praha 5-Smíchov</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>full_time</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2024-09-17T12:20:27Z</t>
+          <t>08/28/2024</t>
         </is>
       </c>
     </row>
@@ -10116,11 +10136,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
@@ -10135,12 +10155,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>08/28/2024</t>
+          <t>09/09/2024</t>
         </is>
       </c>
     </row>
@@ -10151,11 +10171,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Angular Developer/ka pro tým Data Insight Advisory</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
@@ -10165,7 +10185,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Praha 5-Smíchov</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -10175,7 +10195,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>09/09/2024</t>
+          <t>08/29/2024</t>
         </is>
       </c>
     </row>
@@ -10186,11 +10206,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Angular Developer/ka pro tým Data Insight Advisory</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
@@ -10205,12 +10225,12 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Freelance</t>
+          <t>Permanent</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>08/29/2024</t>
+          <t>09/03/2024</t>
         </is>
       </c>
     </row>
@@ -10221,11 +10241,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Platform Engineer</t>
         </is>
       </c>
       <c r="D266" s="3" t="inlineStr">
@@ -10235,17 +10255,17 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Permanent</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>09/03/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
     </row>
@@ -10256,11 +10276,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Data Platform Engineer</t>
+          <t>Azure Data Engineer</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
@@ -10268,11 +10288,6 @@
           <t>link</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Praha</t>
-        </is>
-      </c>
       <c r="G267" t="inlineStr">
         <is>
           <t>Freelance</t>
@@ -10280,7 +10295,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>09/05/2024</t>
         </is>
       </c>
     </row>
@@ -10291,11 +10306,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Azure Data Engineer</t>
+          <t>DataOps Engineer (Matillion)</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
@@ -10321,11 +10336,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>DataOps Engineer (Matillion)</t>
+          <t>Product Owner (Power BI platform)</t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
@@ -10333,6 +10348,11 @@
           <t>link</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Praha 2-Nové Město</t>
+        </is>
+      </c>
       <c r="G269" t="inlineStr">
         <is>
           <t>Freelance</t>
@@ -10340,7 +10360,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>09/05/2024</t>
+          <t>08/14/2024</t>
         </is>
       </c>
     </row>
@@ -10351,11 +10371,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Product Owner (Power BI platform)</t>
+          <t>Senior Data Engineer (DBT+SQL)</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
@@ -10365,7 +10385,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Praha 2-Nové Město</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -10375,7 +10395,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>08/14/2024</t>
+          <t>07/15/2024</t>
         </is>
       </c>
     </row>
@@ -10386,11 +10406,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Senior Data Engineer (DBT+SQL)</t>
+          <t>Power BI Developer</t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
@@ -10410,22 +10430,22 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>07/15/2024</t>
+          <t>04/19/2024</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>fproof.eu</t>
+          <t>cooljobs.eu</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Power BI Developer</t>
+          <t>BI Expert</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
@@ -10435,17 +10455,17 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Freelance</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>04/19/2024</t>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>100 000 CZK</t>
         </is>
       </c>
     </row>
@@ -10456,7 +10476,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -10481,6 +10501,531 @@
       <c r="J273" t="inlineStr">
         <is>
           <t>100 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>3</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Database Developer</t>
+        </is>
+      </c>
+      <c r="D274" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>110 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>4</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="D275" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Praha, Brno, Bratislava</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>120 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>5</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>BI Analyst</t>
+        </is>
+      </c>
+      <c r="D276" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Brno, Velká Bíteš</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>120 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>6</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="D277" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Vienna</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>9 600 EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>7</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="D278" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>60 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>8</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Data Dictionary Consultant</t>
+        </is>
+      </c>
+      <c r="D279" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Celá ČR</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>100 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>9</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="D280" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>HPP Klient</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>150 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>10</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Power BI Analyst</t>
+        </is>
+      </c>
+      <c r="D281" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>80 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>11</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="D282" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Ostrava, Plzeň</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>HPP Klient</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>85 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>12</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="D283" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Ostrava, Plzeň</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>HPP Klient</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>85 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>13</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="D284" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>HPP Klient</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>100 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>14</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Data Specialist</t>
+        </is>
+      </c>
+      <c r="D285" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>HPP Klient</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>85 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>15</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>AI Developer</t>
+        </is>
+      </c>
+      <c r="D286" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Olomouc, Ostrava, Zlín, Brno</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>HPP Klient</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>90 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>16</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>AI Developer</t>
+        </is>
+      </c>
+      <c r="D287" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Olomouc, Ostrava, Zlín, Brno</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>HPP Klient</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>90 000 CZK</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>cooljobs.eu</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>17</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="D288" s="3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Kontrakt přes CP</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>120 000 CZK</t>
         </is>
       </c>
     </row>
@@ -10758,6 +11303,21 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D271" r:id="rId270"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D272" r:id="rId271"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D273" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D274" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D275" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D276" r:id="rId275"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D277" r:id="rId276"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D278" r:id="rId277"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D279" r:id="rId278"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D280" r:id="rId279"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D281" r:id="rId280"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D282" r:id="rId281"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D283" r:id="rId282"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D284" r:id="rId283"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D285" r:id="rId284"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D286" r:id="rId285"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D287" r:id="rId286"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D288" r:id="rId287"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
